--- a/cdes/RADx-rad_Results_Data_Element_Template_v000.xlsx
+++ b/cdes/RADx-rad_Results_Data_Element_Template_v000.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="npI8V2AfbEsc2UCtV1tWLk9FS3f3mclUE+HWdCcD/zo="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="rcii2HhsyfcweLCgmPHqoz7QN3p2YGHNzvd/15FRaPg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="151">
   <si>
     <t>Variable / Field Name</t>
   </si>
@@ -141,7 +141,7 @@
     <t>Specimen type used in assay</t>
   </si>
   <si>
-    <t>breath | hand odor | plasma | saliva | skin</t>
+    <t>breath | hand odor | plasma | saliva | skin | serum</t>
   </si>
   <si>
     <t>example: saliva</t>
@@ -386,13 +386,31 @@
     <t>retention_time</t>
   </si>
   <si>
-    <t>Retention time (no peak)</t>
+    <t>Results/GCMS/LCMS</t>
+  </si>
+  <si>
+    <t>Retention time</t>
   </si>
   <si>
     <t>retention_time_unit</t>
   </si>
   <si>
     <t>Unit of retention_time</t>
+  </si>
+  <si>
+    <t>identified_compound_name</t>
+  </si>
+  <si>
+    <t>Name of the compound identified by GCMS or LCMS</t>
+  </si>
+  <si>
+    <t>example: Acetone</t>
+  </si>
+  <si>
+    <t>identified_compound_inchikey</t>
+  </si>
+  <si>
+    <t>InChIKey of the compound identified by GCMS or LCMS</t>
   </si>
   <si>
     <t>signal_intensity</t>
@@ -528,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -618,6 +636,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -638,9 +662,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2228,13 +2249,13 @@
         <v>116</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C35" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2263,16 +2284,16 @@
     </row>
     <row r="36">
       <c r="A36" s="29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="C36" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="14" t="s">
@@ -2302,28 +2323,28 @@
       <c r="Z36" s="4"/>
     </row>
     <row r="37">
-      <c r="A37" s="29" t="s">
-        <v>120</v>
+      <c r="A37" s="31" t="s">
+        <v>121</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>44</v>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="D37" s="31" t="s">
-        <v>121</v>
+      <c r="D37" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="28" t="s">
+      <c r="L37" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M37" s="4"/>
@@ -2341,65 +2362,69 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="12" t="s">
+    <row r="38">
+      <c r="A38" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9" t="s">
+      <c r="B38" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>125</v>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>14</v>
+      <c r="C39" s="30" t="s">
+        <v>44</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>126</v>
+      <c r="D39" s="33" t="s">
+        <v>127</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="F39" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="32" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="28" t="s">
         <v>16</v>
       </c>
       <c r="M39" s="4"/>
@@ -2418,46 +2443,46 @@
       <c r="Z39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="33" t="s">
-        <v>127</v>
+      <c r="A40" s="9" t="s">
+        <v>129</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="35" t="s">
-        <v>128</v>
+      <c r="D40" s="12" t="s">
+        <v>130</v>
       </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="34" t="s">
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="37"/>
-      <c r="U40" s="37"/>
-      <c r="V40" s="37"/>
-      <c r="W40" s="37"/>
-      <c r="X40" s="37"/>
-      <c r="Y40" s="37"/>
-      <c r="Z40" s="37"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>64</v>
@@ -2466,7 +2491,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2475,7 +2500,7 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="14" t="s">
+      <c r="L41" s="34" t="s">
         <v>16</v>
       </c>
       <c r="M41" s="4"/>
@@ -2494,55 +2519,55 @@
       <c r="Z41" s="4"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3" t="s">
-        <v>131</v>
+      <c r="A42" s="35" t="s">
+        <v>133</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>14</v>
+      <c r="C42" s="36" t="s">
+        <v>44</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>132</v>
+      <c r="D42" s="37" t="s">
+        <v>134</v>
       </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="38" t="s">
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="4"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="39"/>
+      <c r="R42" s="39"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="39"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="39"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="39"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2551,7 +2576,7 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="38" t="s">
+      <c r="L43" s="14" t="s">
         <v>16</v>
       </c>
       <c r="M43" s="4"/>
@@ -2569,18 +2594,18 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2589,7 +2614,7 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="38" t="s">
+      <c r="L44" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M44" s="4"/>
@@ -2609,16 +2634,16 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
-      <c r="D45" s="22" t="s">
-        <v>140</v>
+      <c r="D45" s="14" t="s">
+        <v>141</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2627,7 +2652,7 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="38" t="s">
+      <c r="L45" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M45" s="4"/>
@@ -2645,9 +2670,9 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" ht="27.75" customHeight="1">
+    <row r="46">
       <c r="A46" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>64</v>
@@ -2656,7 +2681,7 @@
         <v>14</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2665,7 +2690,7 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="38" t="s">
+      <c r="L46" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M46" s="4"/>
@@ -2685,16 +2710,16 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
-      <c r="D47" s="14" t="s">
-        <v>144</v>
+      <c r="D47" s="22" t="s">
+        <v>146</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2703,7 +2728,7 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="38" t="s">
+      <c r="L47" s="32" t="s">
         <v>16</v>
       </c>
       <c r="M47" s="4"/>
@@ -2721,11 +2746,19 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2"/>
+    <row r="48" ht="27.75" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="4"/>
@@ -2733,7 +2766,9 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="32"/>
+      <c r="L48" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -2750,10 +2785,18 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2"/>
+      <c r="A49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>150</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="4"/>
@@ -2761,7 +2804,9 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="32"/>
+      <c r="L49" s="32" t="s">
+        <v>16</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -2789,7 +2834,7 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="32"/>
+      <c r="L50" s="34"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -2817,7 +2862,7 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="32"/>
+      <c r="L51" s="34"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -2845,7 +2890,7 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="32"/>
+      <c r="L52" s="34"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2873,7 +2918,7 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="32"/>
+      <c r="L53" s="34"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2901,7 +2946,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="32"/>
+      <c r="L54" s="34"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -2929,7 +2974,7 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="32"/>
+      <c r="L55" s="34"/>
       <c r="M55" s="4"/>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
@@ -2957,7 +3002,7 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="32"/>
+      <c r="L56" s="34"/>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -2985,7 +3030,7 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="32"/>
+      <c r="L57" s="34"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -3013,7 +3058,7 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="32"/>
+      <c r="L58" s="34"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -3041,7 +3086,7 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
-      <c r="L59" s="32"/>
+      <c r="L59" s="34"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -3069,7 +3114,7 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="4"/>
-      <c r="L60" s="32"/>
+      <c r="L60" s="34"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -3097,7 +3142,7 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-      <c r="L61" s="32"/>
+      <c r="L61" s="34"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -3125,7 +3170,7 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="32"/>
+      <c r="L62" s="34"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -3153,7 +3198,7 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="32"/>
+      <c r="L63" s="34"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -3181,7 +3226,7 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
-      <c r="L64" s="32"/>
+      <c r="L64" s="34"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
@@ -3209,7 +3254,7 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="32"/>
+      <c r="L65" s="34"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -3237,7 +3282,7 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
-      <c r="L66" s="32"/>
+      <c r="L66" s="34"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -3265,7 +3310,7 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
-      <c r="L67" s="32"/>
+      <c r="L67" s="34"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -3293,7 +3338,7 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
-      <c r="L68" s="32"/>
+      <c r="L68" s="34"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -3321,7 +3366,7 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="32"/>
+      <c r="L69" s="34"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -3349,7 +3394,7 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="4"/>
-      <c r="L70" s="32"/>
+      <c r="L70" s="34"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -3377,7 +3422,7 @@
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
       <c r="K71" s="4"/>
-      <c r="L71" s="32"/>
+      <c r="L71" s="34"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
@@ -3405,7 +3450,7 @@
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
-      <c r="L72" s="32"/>
+      <c r="L72" s="34"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3433,7 +3478,7 @@
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
-      <c r="L73" s="32"/>
+      <c r="L73" s="34"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3461,7 +3506,7 @@
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
-      <c r="L74" s="32"/>
+      <c r="L74" s="34"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -3489,7 +3534,7 @@
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
-      <c r="L75" s="32"/>
+      <c r="L75" s="34"/>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -3517,7 +3562,7 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
-      <c r="L76" s="32"/>
+      <c r="L76" s="34"/>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -3545,7 +3590,7 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
-      <c r="L77" s="32"/>
+      <c r="L77" s="34"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -3573,7 +3618,7 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
-      <c r="L78" s="32"/>
+      <c r="L78" s="34"/>
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
@@ -3601,7 +3646,7 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="32"/>
+      <c r="L79" s="34"/>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -3629,7 +3674,7 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="32"/>
+      <c r="L80" s="34"/>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -3657,7 +3702,7 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="32"/>
+      <c r="L81" s="34"/>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
@@ -3685,7 +3730,7 @@
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
-      <c r="L82" s="32"/>
+      <c r="L82" s="34"/>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3713,7 +3758,7 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="32"/>
+      <c r="L83" s="34"/>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3741,7 +3786,7 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="32"/>
+      <c r="L84" s="34"/>
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
@@ -3769,7 +3814,7 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="32"/>
+      <c r="L85" s="34"/>
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
@@ -3797,7 +3842,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="32"/>
+      <c r="L86" s="34"/>
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
@@ -3825,7 +3870,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="32"/>
+      <c r="L87" s="34"/>
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
@@ -3853,7 +3898,7 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="32"/>
+      <c r="L88" s="34"/>
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
@@ -3881,7 +3926,7 @@
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
-      <c r="L89" s="32"/>
+      <c r="L89" s="34"/>
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
@@ -3909,7 +3954,7 @@
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
-      <c r="L90" s="32"/>
+      <c r="L90" s="34"/>
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
@@ -3937,7 +3982,7 @@
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="32"/>
+      <c r="L91" s="34"/>
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
@@ -3965,7 +4010,7 @@
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
-      <c r="L92" s="32"/>
+      <c r="L92" s="34"/>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -3993,7 +4038,7 @@
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
-      <c r="L93" s="32"/>
+      <c r="L93" s="34"/>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -4021,7 +4066,7 @@
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
       <c r="K94" s="4"/>
-      <c r="L94" s="32"/>
+      <c r="L94" s="34"/>
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
@@ -4049,7 +4094,7 @@
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="32"/>
+      <c r="L95" s="34"/>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -4077,7 +4122,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
       <c r="K96" s="4"/>
-      <c r="L96" s="32"/>
+      <c r="L96" s="34"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -4105,7 +4150,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="32"/>
+      <c r="L97" s="34"/>
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
@@ -4133,7 +4178,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
       <c r="K98" s="4"/>
-      <c r="L98" s="32"/>
+      <c r="L98" s="34"/>
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
@@ -4161,7 +4206,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="32"/>
+      <c r="L99" s="34"/>
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
@@ -4189,7 +4234,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
       <c r="K100" s="4"/>
-      <c r="L100" s="32"/>
+      <c r="L100" s="34"/>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -4217,7 +4262,7 @@
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
-      <c r="L101" s="32"/>
+      <c r="L101" s="34"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -4245,7 +4290,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
-      <c r="L102" s="32"/>
+      <c r="L102" s="34"/>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -4273,7 +4318,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="32"/>
+      <c r="L103" s="34"/>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -4301,7 +4346,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
-      <c r="L104" s="32"/>
+      <c r="L104" s="34"/>
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
@@ -4329,7 +4374,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
-      <c r="L105" s="32"/>
+      <c r="L105" s="34"/>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -4357,7 +4402,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="32"/>
+      <c r="L106" s="34"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -4385,7 +4430,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
       <c r="K107" s="4"/>
-      <c r="L107" s="32"/>
+      <c r="L107" s="34"/>
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
@@ -4413,7 +4458,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
       <c r="K108" s="4"/>
-      <c r="L108" s="32"/>
+      <c r="L108" s="34"/>
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
@@ -4441,7 +4486,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
       <c r="K109" s="4"/>
-      <c r="L109" s="32"/>
+      <c r="L109" s="34"/>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -4469,7 +4514,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
       <c r="K110" s="4"/>
-      <c r="L110" s="32"/>
+      <c r="L110" s="34"/>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
@@ -4497,7 +4542,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
       <c r="K111" s="4"/>
-      <c r="L111" s="32"/>
+      <c r="L111" s="34"/>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
@@ -4525,7 +4570,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
-      <c r="L112" s="32"/>
+      <c r="L112" s="34"/>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -4553,7 +4598,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
-      <c r="L113" s="32"/>
+      <c r="L113" s="34"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -4581,7 +4626,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="4"/>
-      <c r="L114" s="32"/>
+      <c r="L114" s="34"/>
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
@@ -4609,7 +4654,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
       <c r="K115" s="4"/>
-      <c r="L115" s="32"/>
+      <c r="L115" s="34"/>
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
@@ -4637,7 +4682,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
       <c r="K116" s="4"/>
-      <c r="L116" s="32"/>
+      <c r="L116" s="34"/>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -4665,7 +4710,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
       <c r="K117" s="4"/>
-      <c r="L117" s="32"/>
+      <c r="L117" s="34"/>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
@@ -4693,7 +4738,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
       <c r="K118" s="4"/>
-      <c r="L118" s="32"/>
+      <c r="L118" s="34"/>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
@@ -4721,7 +4766,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
       <c r="K119" s="4"/>
-      <c r="L119" s="32"/>
+      <c r="L119" s="34"/>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
@@ -4749,7 +4794,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
       <c r="K120" s="4"/>
-      <c r="L120" s="32"/>
+      <c r="L120" s="34"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -4777,7 +4822,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
       <c r="K121" s="4"/>
-      <c r="L121" s="32"/>
+      <c r="L121" s="34"/>
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
@@ -4805,7 +4850,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
       <c r="K122" s="4"/>
-      <c r="L122" s="32"/>
+      <c r="L122" s="34"/>
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
@@ -4833,7 +4878,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
       <c r="K123" s="4"/>
-      <c r="L123" s="32"/>
+      <c r="L123" s="34"/>
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
@@ -4861,7 +4906,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
-      <c r="L124" s="32"/>
+      <c r="L124" s="34"/>
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
@@ -4889,7 +4934,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
-      <c r="L125" s="32"/>
+      <c r="L125" s="34"/>
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
@@ -4917,7 +4962,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
       <c r="K126" s="4"/>
-      <c r="L126" s="32"/>
+      <c r="L126" s="34"/>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -4945,7 +4990,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
       <c r="K127" s="4"/>
-      <c r="L127" s="32"/>
+      <c r="L127" s="34"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -4973,7 +5018,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
-      <c r="L128" s="32"/>
+      <c r="L128" s="34"/>
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
@@ -5001,7 +5046,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
-      <c r="L129" s="32"/>
+      <c r="L129" s="34"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -5029,7 +5074,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
-      <c r="L130" s="32"/>
+      <c r="L130" s="34"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
@@ -5057,7 +5102,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
-      <c r="L131" s="32"/>
+      <c r="L131" s="34"/>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -5085,7 +5130,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
-      <c r="L132" s="32"/>
+      <c r="L132" s="34"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -5113,7 +5158,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
       <c r="K133" s="4"/>
-      <c r="L133" s="32"/>
+      <c r="L133" s="34"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
@@ -5141,7 +5186,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="32"/>
+      <c r="L134" s="34"/>
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
@@ -5169,7 +5214,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="32"/>
+      <c r="L135" s="34"/>
       <c r="M135" s="4"/>
       <c r="N135" s="4"/>
       <c r="O135" s="4"/>
@@ -5197,7 +5242,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="32"/>
+      <c r="L136" s="34"/>
       <c r="M136" s="4"/>
       <c r="N136" s="4"/>
       <c r="O136" s="4"/>
@@ -5225,7 +5270,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="32"/>
+      <c r="L137" s="34"/>
       <c r="M137" s="4"/>
       <c r="N137" s="4"/>
       <c r="O137" s="4"/>
@@ -5253,7 +5298,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
       <c r="K138" s="4"/>
-      <c r="L138" s="32"/>
+      <c r="L138" s="34"/>
       <c r="M138" s="4"/>
       <c r="N138" s="4"/>
       <c r="O138" s="4"/>
@@ -5281,7 +5326,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
-      <c r="L139" s="32"/>
+      <c r="L139" s="34"/>
       <c r="M139" s="4"/>
       <c r="N139" s="4"/>
       <c r="O139" s="4"/>
@@ -5309,7 +5354,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
       <c r="K140" s="4"/>
-      <c r="L140" s="32"/>
+      <c r="L140" s="34"/>
       <c r="M140" s="4"/>
       <c r="N140" s="4"/>
       <c r="O140" s="4"/>
@@ -5337,7 +5382,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="32"/>
+      <c r="L141" s="34"/>
       <c r="M141" s="4"/>
       <c r="N141" s="4"/>
       <c r="O141" s="4"/>
@@ -5365,7 +5410,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
       <c r="K142" s="4"/>
-      <c r="L142" s="32"/>
+      <c r="L142" s="34"/>
       <c r="M142" s="4"/>
       <c r="N142" s="4"/>
       <c r="O142" s="4"/>
@@ -5393,7 +5438,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
-      <c r="L143" s="32"/>
+      <c r="L143" s="34"/>
       <c r="M143" s="4"/>
       <c r="N143" s="4"/>
       <c r="O143" s="4"/>
@@ -5421,7 +5466,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
-      <c r="L144" s="32"/>
+      <c r="L144" s="34"/>
       <c r="M144" s="4"/>
       <c r="N144" s="4"/>
       <c r="O144" s="4"/>
@@ -5449,7 +5494,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
-      <c r="L145" s="32"/>
+      <c r="L145" s="34"/>
       <c r="M145" s="4"/>
       <c r="N145" s="4"/>
       <c r="O145" s="4"/>
@@ -5477,7 +5522,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="32"/>
+      <c r="L146" s="34"/>
       <c r="M146" s="4"/>
       <c r="N146" s="4"/>
       <c r="O146" s="4"/>
@@ -5505,7 +5550,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="32"/>
+      <c r="L147" s="34"/>
       <c r="M147" s="4"/>
       <c r="N147" s="4"/>
       <c r="O147" s="4"/>
@@ -5533,7 +5578,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="32"/>
+      <c r="L148" s="34"/>
       <c r="M148" s="4"/>
       <c r="N148" s="4"/>
       <c r="O148" s="4"/>
@@ -5561,7 +5606,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
-      <c r="L149" s="32"/>
+      <c r="L149" s="34"/>
       <c r="M149" s="4"/>
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
@@ -5589,7 +5634,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
       <c r="K150" s="4"/>
-      <c r="L150" s="32"/>
+      <c r="L150" s="34"/>
       <c r="M150" s="4"/>
       <c r="N150" s="4"/>
       <c r="O150" s="4"/>
@@ -5617,7 +5662,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
       <c r="K151" s="4"/>
-      <c r="L151" s="32"/>
+      <c r="L151" s="34"/>
       <c r="M151" s="4"/>
       <c r="N151" s="4"/>
       <c r="O151" s="4"/>
@@ -5645,7 +5690,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
       <c r="K152" s="4"/>
-      <c r="L152" s="32"/>
+      <c r="L152" s="34"/>
       <c r="M152" s="4"/>
       <c r="N152" s="4"/>
       <c r="O152" s="4"/>
@@ -5673,7 +5718,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
       <c r="K153" s="4"/>
-      <c r="L153" s="32"/>
+      <c r="L153" s="34"/>
       <c r="M153" s="4"/>
       <c r="N153" s="4"/>
       <c r="O153" s="4"/>
@@ -5701,7 +5746,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="32"/>
+      <c r="L154" s="34"/>
       <c r="M154" s="4"/>
       <c r="N154" s="4"/>
       <c r="O154" s="4"/>
@@ -5729,7 +5774,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="32"/>
+      <c r="L155" s="34"/>
       <c r="M155" s="4"/>
       <c r="N155" s="4"/>
       <c r="O155" s="4"/>
@@ -5757,7 +5802,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="32"/>
+      <c r="L156" s="34"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
       <c r="O156" s="4"/>
@@ -5785,7 +5830,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="32"/>
+      <c r="L157" s="34"/>
       <c r="M157" s="4"/>
       <c r="N157" s="4"/>
       <c r="O157" s="4"/>
@@ -5813,7 +5858,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
       <c r="K158" s="4"/>
-      <c r="L158" s="32"/>
+      <c r="L158" s="34"/>
       <c r="M158" s="4"/>
       <c r="N158" s="4"/>
       <c r="O158" s="4"/>
@@ -5841,7 +5886,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
-      <c r="L159" s="32"/>
+      <c r="L159" s="34"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
       <c r="O159" s="4"/>
@@ -5869,7 +5914,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
       <c r="K160" s="4"/>
-      <c r="L160" s="32"/>
+      <c r="L160" s="34"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
       <c r="O160" s="4"/>
@@ -5897,7 +5942,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
-      <c r="L161" s="32"/>
+      <c r="L161" s="34"/>
       <c r="M161" s="4"/>
       <c r="N161" s="4"/>
       <c r="O161" s="4"/>
@@ -5925,7 +5970,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-      <c r="L162" s="32"/>
+      <c r="L162" s="34"/>
       <c r="M162" s="4"/>
       <c r="N162" s="4"/>
       <c r="O162" s="4"/>
@@ -5953,7 +5998,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
       <c r="K163" s="4"/>
-      <c r="L163" s="32"/>
+      <c r="L163" s="34"/>
       <c r="M163" s="4"/>
       <c r="N163" s="4"/>
       <c r="O163" s="4"/>
@@ -5981,7 +6026,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
       <c r="K164" s="4"/>
-      <c r="L164" s="32"/>
+      <c r="L164" s="34"/>
       <c r="M164" s="4"/>
       <c r="N164" s="4"/>
       <c r="O164" s="4"/>
@@ -6009,7 +6054,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
       <c r="K165" s="4"/>
-      <c r="L165" s="32"/>
+      <c r="L165" s="34"/>
       <c r="M165" s="4"/>
       <c r="N165" s="4"/>
       <c r="O165" s="4"/>
@@ -6037,7 +6082,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
       <c r="K166" s="4"/>
-      <c r="L166" s="32"/>
+      <c r="L166" s="34"/>
       <c r="M166" s="4"/>
       <c r="N166" s="4"/>
       <c r="O166" s="4"/>
@@ -6065,7 +6110,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
       <c r="K167" s="4"/>
-      <c r="L167" s="32"/>
+      <c r="L167" s="34"/>
       <c r="M167" s="4"/>
       <c r="N167" s="4"/>
       <c r="O167" s="4"/>
@@ -6093,7 +6138,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
       <c r="K168" s="4"/>
-      <c r="L168" s="32"/>
+      <c r="L168" s="34"/>
       <c r="M168" s="4"/>
       <c r="N168" s="4"/>
       <c r="O168" s="4"/>
@@ -6121,7 +6166,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
       <c r="K169" s="4"/>
-      <c r="L169" s="32"/>
+      <c r="L169" s="34"/>
       <c r="M169" s="4"/>
       <c r="N169" s="4"/>
       <c r="O169" s="4"/>
@@ -6149,7 +6194,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
       <c r="K170" s="4"/>
-      <c r="L170" s="32"/>
+      <c r="L170" s="34"/>
       <c r="M170" s="4"/>
       <c r="N170" s="4"/>
       <c r="O170" s="4"/>
@@ -6177,7 +6222,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="32"/>
+      <c r="L171" s="34"/>
       <c r="M171" s="4"/>
       <c r="N171" s="4"/>
       <c r="O171" s="4"/>
@@ -6205,7 +6250,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="32"/>
+      <c r="L172" s="34"/>
       <c r="M172" s="4"/>
       <c r="N172" s="4"/>
       <c r="O172" s="4"/>
@@ -6233,7 +6278,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="32"/>
+      <c r="L173" s="34"/>
       <c r="M173" s="4"/>
       <c r="N173" s="4"/>
       <c r="O173" s="4"/>
@@ -6261,7 +6306,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="32"/>
+      <c r="L174" s="34"/>
       <c r="M174" s="4"/>
       <c r="N174" s="4"/>
       <c r="O174" s="4"/>
@@ -6289,7 +6334,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="32"/>
+      <c r="L175" s="34"/>
       <c r="M175" s="4"/>
       <c r="N175" s="4"/>
       <c r="O175" s="4"/>
@@ -6317,7 +6362,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="32"/>
+      <c r="L176" s="34"/>
       <c r="M176" s="4"/>
       <c r="N176" s="4"/>
       <c r="O176" s="4"/>
@@ -6345,7 +6390,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
-      <c r="L177" s="32"/>
+      <c r="L177" s="34"/>
       <c r="M177" s="4"/>
       <c r="N177" s="4"/>
       <c r="O177" s="4"/>
@@ -6373,7 +6418,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
-      <c r="L178" s="32"/>
+      <c r="L178" s="34"/>
       <c r="M178" s="4"/>
       <c r="N178" s="4"/>
       <c r="O178" s="4"/>
@@ -6401,7 +6446,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
-      <c r="L179" s="32"/>
+      <c r="L179" s="34"/>
       <c r="M179" s="4"/>
       <c r="N179" s="4"/>
       <c r="O179" s="4"/>
@@ -6429,7 +6474,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
-      <c r="L180" s="32"/>
+      <c r="L180" s="34"/>
       <c r="M180" s="4"/>
       <c r="N180" s="4"/>
       <c r="O180" s="4"/>
@@ -6457,7 +6502,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
-      <c r="L181" s="32"/>
+      <c r="L181" s="34"/>
       <c r="M181" s="4"/>
       <c r="N181" s="4"/>
       <c r="O181" s="4"/>
@@ -6485,7 +6530,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-      <c r="L182" s="32"/>
+      <c r="L182" s="34"/>
       <c r="M182" s="4"/>
       <c r="N182" s="4"/>
       <c r="O182" s="4"/>
@@ -6513,7 +6558,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-      <c r="L183" s="32"/>
+      <c r="L183" s="34"/>
       <c r="M183" s="4"/>
       <c r="N183" s="4"/>
       <c r="O183" s="4"/>
@@ -6541,7 +6586,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
-      <c r="L184" s="32"/>
+      <c r="L184" s="34"/>
       <c r="M184" s="4"/>
       <c r="N184" s="4"/>
       <c r="O184" s="4"/>
@@ -6569,7 +6614,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-      <c r="L185" s="32"/>
+      <c r="L185" s="34"/>
       <c r="M185" s="4"/>
       <c r="N185" s="4"/>
       <c r="O185" s="4"/>
@@ -6597,7 +6642,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
-      <c r="L186" s="32"/>
+      <c r="L186" s="34"/>
       <c r="M186" s="4"/>
       <c r="N186" s="4"/>
       <c r="O186" s="4"/>
@@ -6625,7 +6670,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-      <c r="L187" s="32"/>
+      <c r="L187" s="34"/>
       <c r="M187" s="4"/>
       <c r="N187" s="4"/>
       <c r="O187" s="4"/>
@@ -6653,7 +6698,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-      <c r="L188" s="32"/>
+      <c r="L188" s="34"/>
       <c r="M188" s="4"/>
       <c r="N188" s="4"/>
       <c r="O188" s="4"/>
@@ -6681,7 +6726,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="32"/>
+      <c r="L189" s="34"/>
       <c r="M189" s="4"/>
       <c r="N189" s="4"/>
       <c r="O189" s="4"/>
@@ -6709,7 +6754,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="32"/>
+      <c r="L190" s="34"/>
       <c r="M190" s="4"/>
       <c r="N190" s="4"/>
       <c r="O190" s="4"/>
@@ -6737,7 +6782,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="32"/>
+      <c r="L191" s="34"/>
       <c r="M191" s="4"/>
       <c r="N191" s="4"/>
       <c r="O191" s="4"/>
@@ -6765,7 +6810,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
-      <c r="L192" s="32"/>
+      <c r="L192" s="34"/>
       <c r="M192" s="4"/>
       <c r="N192" s="4"/>
       <c r="O192" s="4"/>
@@ -6793,7 +6838,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-      <c r="L193" s="32"/>
+      <c r="L193" s="34"/>
       <c r="M193" s="4"/>
       <c r="N193" s="4"/>
       <c r="O193" s="4"/>
@@ -6821,7 +6866,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4"/>
-      <c r="L194" s="32"/>
+      <c r="L194" s="34"/>
       <c r="M194" s="4"/>
       <c r="N194" s="4"/>
       <c r="O194" s="4"/>
@@ -6849,7 +6894,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-      <c r="L195" s="32"/>
+      <c r="L195" s="34"/>
       <c r="M195" s="4"/>
       <c r="N195" s="4"/>
       <c r="O195" s="4"/>
@@ -6877,7 +6922,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
       <c r="K196" s="4"/>
-      <c r="L196" s="32"/>
+      <c r="L196" s="34"/>
       <c r="M196" s="4"/>
       <c r="N196" s="4"/>
       <c r="O196" s="4"/>
@@ -6905,7 +6950,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
       <c r="K197" s="4"/>
-      <c r="L197" s="32"/>
+      <c r="L197" s="34"/>
       <c r="M197" s="4"/>
       <c r="N197" s="4"/>
       <c r="O197" s="4"/>
@@ -6933,7 +6978,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
       <c r="K198" s="4"/>
-      <c r="L198" s="32"/>
+      <c r="L198" s="34"/>
       <c r="M198" s="4"/>
       <c r="N198" s="4"/>
       <c r="O198" s="4"/>
@@ -6961,7 +7006,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
       <c r="K199" s="4"/>
-      <c r="L199" s="32"/>
+      <c r="L199" s="34"/>
       <c r="M199" s="4"/>
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
@@ -6989,7 +7034,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
-      <c r="L200" s="32"/>
+      <c r="L200" s="34"/>
       <c r="M200" s="4"/>
       <c r="N200" s="4"/>
       <c r="O200" s="4"/>
@@ -7017,7 +7062,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
       <c r="K201" s="4"/>
-      <c r="L201" s="32"/>
+      <c r="L201" s="34"/>
       <c r="M201" s="4"/>
       <c r="N201" s="4"/>
       <c r="O201" s="4"/>
@@ -7045,7 +7090,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
       <c r="K202" s="4"/>
-      <c r="L202" s="32"/>
+      <c r="L202" s="34"/>
       <c r="M202" s="4"/>
       <c r="N202" s="4"/>
       <c r="O202" s="4"/>
@@ -7073,7 +7118,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
       <c r="K203" s="4"/>
-      <c r="L203" s="32"/>
+      <c r="L203" s="34"/>
       <c r="M203" s="4"/>
       <c r="N203" s="4"/>
       <c r="O203" s="4"/>
@@ -7101,7 +7146,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
       <c r="K204" s="4"/>
-      <c r="L204" s="32"/>
+      <c r="L204" s="34"/>
       <c r="M204" s="4"/>
       <c r="N204" s="4"/>
       <c r="O204" s="4"/>
@@ -7129,7 +7174,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
       <c r="K205" s="4"/>
-      <c r="L205" s="32"/>
+      <c r="L205" s="34"/>
       <c r="M205" s="4"/>
       <c r="N205" s="4"/>
       <c r="O205" s="4"/>
@@ -7157,7 +7202,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
-      <c r="L206" s="32"/>
+      <c r="L206" s="34"/>
       <c r="M206" s="4"/>
       <c r="N206" s="4"/>
       <c r="O206" s="4"/>
@@ -7185,7 +7230,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="32"/>
+      <c r="L207" s="34"/>
       <c r="M207" s="4"/>
       <c r="N207" s="4"/>
       <c r="O207" s="4"/>
@@ -7213,7 +7258,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
-      <c r="L208" s="32"/>
+      <c r="L208" s="34"/>
       <c r="M208" s="4"/>
       <c r="N208" s="4"/>
       <c r="O208" s="4"/>
@@ -7241,7 +7286,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
-      <c r="L209" s="32"/>
+      <c r="L209" s="34"/>
       <c r="M209" s="4"/>
       <c r="N209" s="4"/>
       <c r="O209" s="4"/>
@@ -7269,7 +7314,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
       <c r="K210" s="4"/>
-      <c r="L210" s="32"/>
+      <c r="L210" s="34"/>
       <c r="M210" s="4"/>
       <c r="N210" s="4"/>
       <c r="O210" s="4"/>
@@ -7297,7 +7342,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
       <c r="K211" s="4"/>
-      <c r="L211" s="32"/>
+      <c r="L211" s="34"/>
       <c r="M211" s="4"/>
       <c r="N211" s="4"/>
       <c r="O211" s="4"/>
@@ -7325,7 +7370,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
       <c r="K212" s="4"/>
-      <c r="L212" s="32"/>
+      <c r="L212" s="34"/>
       <c r="M212" s="4"/>
       <c r="N212" s="4"/>
       <c r="O212" s="4"/>
@@ -7353,7 +7398,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
-      <c r="L213" s="32"/>
+      <c r="L213" s="34"/>
       <c r="M213" s="4"/>
       <c r="N213" s="4"/>
       <c r="O213" s="4"/>
@@ -7381,7 +7426,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
       <c r="K214" s="4"/>
-      <c r="L214" s="32"/>
+      <c r="L214" s="34"/>
       <c r="M214" s="4"/>
       <c r="N214" s="4"/>
       <c r="O214" s="4"/>
@@ -7409,7 +7454,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
-      <c r="L215" s="32"/>
+      <c r="L215" s="34"/>
       <c r="M215" s="4"/>
       <c r="N215" s="4"/>
       <c r="O215" s="4"/>
@@ -7437,7 +7482,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
-      <c r="L216" s="32"/>
+      <c r="L216" s="34"/>
       <c r="M216" s="4"/>
       <c r="N216" s="4"/>
       <c r="O216" s="4"/>
@@ -7465,7 +7510,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
-      <c r="L217" s="32"/>
+      <c r="L217" s="34"/>
       <c r="M217" s="4"/>
       <c r="N217" s="4"/>
       <c r="O217" s="4"/>
@@ -7493,7 +7538,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
-      <c r="L218" s="32"/>
+      <c r="L218" s="34"/>
       <c r="M218" s="4"/>
       <c r="N218" s="4"/>
       <c r="O218" s="4"/>
@@ -7521,7 +7566,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="32"/>
+      <c r="L219" s="34"/>
       <c r="M219" s="4"/>
       <c r="N219" s="4"/>
       <c r="O219" s="4"/>
@@ -7549,7 +7594,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="32"/>
+      <c r="L220" s="34"/>
       <c r="M220" s="4"/>
       <c r="N220" s="4"/>
       <c r="O220" s="4"/>
@@ -7577,7 +7622,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
-      <c r="L221" s="32"/>
+      <c r="L221" s="34"/>
       <c r="M221" s="4"/>
       <c r="N221" s="4"/>
       <c r="O221" s="4"/>
@@ -7605,7 +7650,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
-      <c r="L222" s="32"/>
+      <c r="L222" s="34"/>
       <c r="M222" s="4"/>
       <c r="N222" s="4"/>
       <c r="O222" s="4"/>
@@ -7633,7 +7678,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="32"/>
+      <c r="L223" s="34"/>
       <c r="M223" s="4"/>
       <c r="N223" s="4"/>
       <c r="O223" s="4"/>
@@ -7661,7 +7706,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
       <c r="K224" s="4"/>
-      <c r="L224" s="32"/>
+      <c r="L224" s="34"/>
       <c r="M224" s="4"/>
       <c r="N224" s="4"/>
       <c r="O224" s="4"/>
@@ -7689,7 +7734,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
-      <c r="L225" s="32"/>
+      <c r="L225" s="34"/>
       <c r="M225" s="4"/>
       <c r="N225" s="4"/>
       <c r="O225" s="4"/>
@@ -7717,7 +7762,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
-      <c r="L226" s="32"/>
+      <c r="L226" s="34"/>
       <c r="M226" s="4"/>
       <c r="N226" s="4"/>
       <c r="O226" s="4"/>
@@ -7745,7 +7790,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
       <c r="K227" s="4"/>
-      <c r="L227" s="32"/>
+      <c r="L227" s="34"/>
       <c r="M227" s="4"/>
       <c r="N227" s="4"/>
       <c r="O227" s="4"/>
@@ -7773,7 +7818,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
       <c r="K228" s="4"/>
-      <c r="L228" s="32"/>
+      <c r="L228" s="34"/>
       <c r="M228" s="4"/>
       <c r="N228" s="4"/>
       <c r="O228" s="4"/>
@@ -7801,7 +7846,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
       <c r="K229" s="4"/>
-      <c r="L229" s="32"/>
+      <c r="L229" s="34"/>
       <c r="M229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="4"/>
@@ -7829,7 +7874,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
-      <c r="L230" s="32"/>
+      <c r="L230" s="34"/>
       <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="4"/>
@@ -7857,7 +7902,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
-      <c r="L231" s="32"/>
+      <c r="L231" s="34"/>
       <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="4"/>
@@ -7885,7 +7930,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
-      <c r="L232" s="32"/>
+      <c r="L232" s="34"/>
       <c r="M232" s="4"/>
       <c r="N232" s="4"/>
       <c r="O232" s="4"/>
@@ -7913,7 +7958,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="32"/>
+      <c r="L233" s="34"/>
       <c r="M233" s="4"/>
       <c r="N233" s="4"/>
       <c r="O233" s="4"/>
@@ -7941,7 +7986,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
       <c r="K234" s="4"/>
-      <c r="L234" s="32"/>
+      <c r="L234" s="34"/>
       <c r="M234" s="4"/>
       <c r="N234" s="4"/>
       <c r="O234" s="4"/>
@@ -7969,7 +8014,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
       <c r="K235" s="4"/>
-      <c r="L235" s="32"/>
+      <c r="L235" s="34"/>
       <c r="M235" s="4"/>
       <c r="N235" s="4"/>
       <c r="O235" s="4"/>
@@ -7997,7 +8042,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
       <c r="K236" s="4"/>
-      <c r="L236" s="32"/>
+      <c r="L236" s="34"/>
       <c r="M236" s="4"/>
       <c r="N236" s="4"/>
       <c r="O236" s="4"/>
@@ -8025,7 +8070,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
       <c r="K237" s="4"/>
-      <c r="L237" s="32"/>
+      <c r="L237" s="34"/>
       <c r="M237" s="4"/>
       <c r="N237" s="4"/>
       <c r="O237" s="4"/>
@@ -8053,7 +8098,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
       <c r="K238" s="4"/>
-      <c r="L238" s="32"/>
+      <c r="L238" s="34"/>
       <c r="M238" s="4"/>
       <c r="N238" s="4"/>
       <c r="O238" s="4"/>
@@ -8081,7 +8126,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
       <c r="K239" s="4"/>
-      <c r="L239" s="32"/>
+      <c r="L239" s="34"/>
       <c r="M239" s="4"/>
       <c r="N239" s="4"/>
       <c r="O239" s="4"/>
@@ -8109,7 +8154,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
       <c r="K240" s="4"/>
-      <c r="L240" s="32"/>
+      <c r="L240" s="34"/>
       <c r="M240" s="4"/>
       <c r="N240" s="4"/>
       <c r="O240" s="4"/>
@@ -8137,7 +8182,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
-      <c r="L241" s="32"/>
+      <c r="L241" s="34"/>
       <c r="M241" s="4"/>
       <c r="N241" s="4"/>
       <c r="O241" s="4"/>
@@ -8165,7 +8210,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
-      <c r="L242" s="32"/>
+      <c r="L242" s="34"/>
       <c r="M242" s="4"/>
       <c r="N242" s="4"/>
       <c r="O242" s="4"/>
@@ -8193,7 +8238,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="32"/>
+      <c r="L243" s="34"/>
       <c r="M243" s="4"/>
       <c r="N243" s="4"/>
       <c r="O243" s="4"/>
@@ -8221,7 +8266,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="32"/>
+      <c r="L244" s="34"/>
       <c r="M244" s="4"/>
       <c r="N244" s="4"/>
       <c r="O244" s="4"/>
@@ -8249,7 +8294,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
       <c r="K245" s="4"/>
-      <c r="L245" s="32"/>
+      <c r="L245" s="34"/>
       <c r="M245" s="4"/>
       <c r="N245" s="4"/>
       <c r="O245" s="4"/>
@@ -8277,7 +8322,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="32"/>
+      <c r="L246" s="34"/>
       <c r="M246" s="4"/>
       <c r="N246" s="4"/>
       <c r="O246" s="4"/>
@@ -8305,7 +8350,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
       <c r="K247" s="4"/>
-      <c r="L247" s="32"/>
+      <c r="L247" s="34"/>
       <c r="M247" s="4"/>
       <c r="N247" s="4"/>
       <c r="O247" s="4"/>
@@ -8333,7 +8378,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
-      <c r="L248" s="32"/>
+      <c r="L248" s="34"/>
       <c r="M248" s="4"/>
       <c r="N248" s="4"/>
       <c r="O248" s="4"/>
@@ -8361,7 +8406,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
-      <c r="L249" s="32"/>
+      <c r="L249" s="34"/>
       <c r="M249" s="4"/>
       <c r="N249" s="4"/>
       <c r="O249" s="4"/>
@@ -8389,7 +8434,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
-      <c r="L250" s="32"/>
+      <c r="L250" s="34"/>
       <c r="M250" s="4"/>
       <c r="N250" s="4"/>
       <c r="O250" s="4"/>
@@ -8417,7 +8462,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
-      <c r="L251" s="32"/>
+      <c r="L251" s="34"/>
       <c r="M251" s="4"/>
       <c r="N251" s="4"/>
       <c r="O251" s="4"/>
@@ -8445,7 +8490,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
-      <c r="L252" s="32"/>
+      <c r="L252" s="34"/>
       <c r="M252" s="4"/>
       <c r="N252" s="4"/>
       <c r="O252" s="4"/>
@@ -8473,7 +8518,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
-      <c r="L253" s="32"/>
+      <c r="L253" s="34"/>
       <c r="M253" s="4"/>
       <c r="N253" s="4"/>
       <c r="O253" s="4"/>
@@ -8501,7 +8546,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="32"/>
+      <c r="L254" s="34"/>
       <c r="M254" s="4"/>
       <c r="N254" s="4"/>
       <c r="O254" s="4"/>
@@ -8529,7 +8574,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="32"/>
+      <c r="L255" s="34"/>
       <c r="M255" s="4"/>
       <c r="N255" s="4"/>
       <c r="O255" s="4"/>
@@ -8557,7 +8602,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="32"/>
+      <c r="L256" s="34"/>
       <c r="M256" s="4"/>
       <c r="N256" s="4"/>
       <c r="O256" s="4"/>
@@ -8585,7 +8630,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="32"/>
+      <c r="L257" s="34"/>
       <c r="M257" s="4"/>
       <c r="N257" s="4"/>
       <c r="O257" s="4"/>
@@ -8613,7 +8658,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
-      <c r="L258" s="32"/>
+      <c r="L258" s="34"/>
       <c r="M258" s="4"/>
       <c r="N258" s="4"/>
       <c r="O258" s="4"/>
@@ -8641,7 +8686,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
-      <c r="L259" s="32"/>
+      <c r="L259" s="34"/>
       <c r="M259" s="4"/>
       <c r="N259" s="4"/>
       <c r="O259" s="4"/>
@@ -8669,7 +8714,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
       <c r="K260" s="4"/>
-      <c r="L260" s="32"/>
+      <c r="L260" s="34"/>
       <c r="M260" s="4"/>
       <c r="N260" s="4"/>
       <c r="O260" s="4"/>
@@ -8697,7 +8742,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
       <c r="K261" s="4"/>
-      <c r="L261" s="32"/>
+      <c r="L261" s="34"/>
       <c r="M261" s="4"/>
       <c r="N261" s="4"/>
       <c r="O261" s="4"/>
@@ -8725,7 +8770,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
       <c r="K262" s="4"/>
-      <c r="L262" s="32"/>
+      <c r="L262" s="34"/>
       <c r="M262" s="4"/>
       <c r="N262" s="4"/>
       <c r="O262" s="4"/>
@@ -8753,7 +8798,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
-      <c r="L263" s="32"/>
+      <c r="L263" s="34"/>
       <c r="M263" s="4"/>
       <c r="N263" s="4"/>
       <c r="O263" s="4"/>
@@ -8781,7 +8826,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
       <c r="K264" s="4"/>
-      <c r="L264" s="32"/>
+      <c r="L264" s="34"/>
       <c r="M264" s="4"/>
       <c r="N264" s="4"/>
       <c r="O264" s="4"/>
@@ -8809,7 +8854,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
       <c r="K265" s="4"/>
-      <c r="L265" s="32"/>
+      <c r="L265" s="34"/>
       <c r="M265" s="4"/>
       <c r="N265" s="4"/>
       <c r="O265" s="4"/>
@@ -8837,7 +8882,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
       <c r="K266" s="4"/>
-      <c r="L266" s="32"/>
+      <c r="L266" s="34"/>
       <c r="M266" s="4"/>
       <c r="N266" s="4"/>
       <c r="O266" s="4"/>
@@ -8865,7 +8910,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
       <c r="K267" s="4"/>
-      <c r="L267" s="32"/>
+      <c r="L267" s="34"/>
       <c r="M267" s="4"/>
       <c r="N267" s="4"/>
       <c r="O267" s="4"/>
@@ -8893,7 +8938,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
-      <c r="L268" s="32"/>
+      <c r="L268" s="34"/>
       <c r="M268" s="4"/>
       <c r="N268" s="4"/>
       <c r="O268" s="4"/>
@@ -8921,7 +8966,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
       <c r="K269" s="4"/>
-      <c r="L269" s="32"/>
+      <c r="L269" s="34"/>
       <c r="M269" s="4"/>
       <c r="N269" s="4"/>
       <c r="O269" s="4"/>
@@ -8949,7 +8994,7 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
       <c r="K270" s="4"/>
-      <c r="L270" s="32"/>
+      <c r="L270" s="34"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
       <c r="O270" s="4"/>
@@ -8977,7 +9022,7 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
       <c r="K271" s="4"/>
-      <c r="L271" s="32"/>
+      <c r="L271" s="34"/>
       <c r="M271" s="4"/>
       <c r="N271" s="4"/>
       <c r="O271" s="4"/>
@@ -9005,7 +9050,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
       <c r="K272" s="4"/>
-      <c r="L272" s="32"/>
+      <c r="L272" s="34"/>
       <c r="M272" s="4"/>
       <c r="N272" s="4"/>
       <c r="O272" s="4"/>
@@ -9033,7 +9078,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
       <c r="K273" s="4"/>
-      <c r="L273" s="32"/>
+      <c r="L273" s="34"/>
       <c r="M273" s="4"/>
       <c r="N273" s="4"/>
       <c r="O273" s="4"/>
@@ -9061,7 +9106,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
-      <c r="L274" s="32"/>
+      <c r="L274" s="34"/>
       <c r="M274" s="4"/>
       <c r="N274" s="4"/>
       <c r="O274" s="4"/>
@@ -9089,7 +9134,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
-      <c r="L275" s="32"/>
+      <c r="L275" s="34"/>
       <c r="M275" s="4"/>
       <c r="N275" s="4"/>
       <c r="O275" s="4"/>
@@ -9117,7 +9162,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
       <c r="K276" s="4"/>
-      <c r="L276" s="32"/>
+      <c r="L276" s="34"/>
       <c r="M276" s="4"/>
       <c r="N276" s="4"/>
       <c r="O276" s="4"/>
@@ -9145,7 +9190,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
       <c r="K277" s="4"/>
-      <c r="L277" s="32"/>
+      <c r="L277" s="34"/>
       <c r="M277" s="4"/>
       <c r="N277" s="4"/>
       <c r="O277" s="4"/>
@@ -9173,7 +9218,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
       <c r="K278" s="4"/>
-      <c r="L278" s="32"/>
+      <c r="L278" s="34"/>
       <c r="M278" s="4"/>
       <c r="N278" s="4"/>
       <c r="O278" s="4"/>
@@ -9201,7 +9246,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
-      <c r="L279" s="32"/>
+      <c r="L279" s="34"/>
       <c r="M279" s="4"/>
       <c r="N279" s="4"/>
       <c r="O279" s="4"/>
@@ -9229,7 +9274,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
-      <c r="L280" s="32"/>
+      <c r="L280" s="34"/>
       <c r="M280" s="4"/>
       <c r="N280" s="4"/>
       <c r="O280" s="4"/>
@@ -9257,7 +9302,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
-      <c r="L281" s="32"/>
+      <c r="L281" s="34"/>
       <c r="M281" s="4"/>
       <c r="N281" s="4"/>
       <c r="O281" s="4"/>
@@ -9285,7 +9330,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
-      <c r="L282" s="32"/>
+      <c r="L282" s="34"/>
       <c r="M282" s="4"/>
       <c r="N282" s="4"/>
       <c r="O282" s="4"/>
@@ -9313,7 +9358,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
       <c r="K283" s="4"/>
-      <c r="L283" s="32"/>
+      <c r="L283" s="34"/>
       <c r="M283" s="4"/>
       <c r="N283" s="4"/>
       <c r="O283" s="4"/>
@@ -9341,7 +9386,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
       <c r="K284" s="4"/>
-      <c r="L284" s="32"/>
+      <c r="L284" s="34"/>
       <c r="M284" s="4"/>
       <c r="N284" s="4"/>
       <c r="O284" s="4"/>
@@ -9369,7 +9414,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
       <c r="K285" s="4"/>
-      <c r="L285" s="32"/>
+      <c r="L285" s="34"/>
       <c r="M285" s="4"/>
       <c r="N285" s="4"/>
       <c r="O285" s="4"/>
@@ -9397,7 +9442,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
       <c r="K286" s="4"/>
-      <c r="L286" s="32"/>
+      <c r="L286" s="34"/>
       <c r="M286" s="4"/>
       <c r="N286" s="4"/>
       <c r="O286" s="4"/>
@@ -9425,7 +9470,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
       <c r="K287" s="4"/>
-      <c r="L287" s="32"/>
+      <c r="L287" s="34"/>
       <c r="M287" s="4"/>
       <c r="N287" s="4"/>
       <c r="O287" s="4"/>
@@ -9453,7 +9498,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
       <c r="K288" s="4"/>
-      <c r="L288" s="32"/>
+      <c r="L288" s="34"/>
       <c r="M288" s="4"/>
       <c r="N288" s="4"/>
       <c r="O288" s="4"/>
@@ -9481,7 +9526,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
       <c r="K289" s="4"/>
-      <c r="L289" s="32"/>
+      <c r="L289" s="34"/>
       <c r="M289" s="4"/>
       <c r="N289" s="4"/>
       <c r="O289" s="4"/>
@@ -9509,7 +9554,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
       <c r="K290" s="4"/>
-      <c r="L290" s="32"/>
+      <c r="L290" s="34"/>
       <c r="M290" s="4"/>
       <c r="N290" s="4"/>
       <c r="O290" s="4"/>
@@ -9537,7 +9582,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
       <c r="K291" s="4"/>
-      <c r="L291" s="32"/>
+      <c r="L291" s="34"/>
       <c r="M291" s="4"/>
       <c r="N291" s="4"/>
       <c r="O291" s="4"/>
@@ -9565,7 +9610,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
       <c r="K292" s="4"/>
-      <c r="L292" s="32"/>
+      <c r="L292" s="34"/>
       <c r="M292" s="4"/>
       <c r="N292" s="4"/>
       <c r="O292" s="4"/>
@@ -9593,7 +9638,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
       <c r="K293" s="4"/>
-      <c r="L293" s="32"/>
+      <c r="L293" s="34"/>
       <c r="M293" s="4"/>
       <c r="N293" s="4"/>
       <c r="O293" s="4"/>
@@ -9621,7 +9666,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
       <c r="K294" s="4"/>
-      <c r="L294" s="32"/>
+      <c r="L294" s="34"/>
       <c r="M294" s="4"/>
       <c r="N294" s="4"/>
       <c r="O294" s="4"/>
@@ -9649,7 +9694,7 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
       <c r="K295" s="4"/>
-      <c r="L295" s="32"/>
+      <c r="L295" s="34"/>
       <c r="M295" s="4"/>
       <c r="N295" s="4"/>
       <c r="O295" s="4"/>
@@ -9677,7 +9722,7 @@
       <c r="I296" s="4"/>
       <c r="J296" s="4"/>
       <c r="K296" s="4"/>
-      <c r="L296" s="32"/>
+      <c r="L296" s="34"/>
       <c r="M296" s="4"/>
       <c r="N296" s="4"/>
       <c r="O296" s="4"/>
@@ -9705,7 +9750,7 @@
       <c r="I297" s="4"/>
       <c r="J297" s="4"/>
       <c r="K297" s="4"/>
-      <c r="L297" s="32"/>
+      <c r="L297" s="34"/>
       <c r="M297" s="4"/>
       <c r="N297" s="4"/>
       <c r="O297" s="4"/>
@@ -9733,7 +9778,7 @@
       <c r="I298" s="4"/>
       <c r="J298" s="4"/>
       <c r="K298" s="4"/>
-      <c r="L298" s="32"/>
+      <c r="L298" s="34"/>
       <c r="M298" s="4"/>
       <c r="N298" s="4"/>
       <c r="O298" s="4"/>
@@ -9761,7 +9806,7 @@
       <c r="I299" s="4"/>
       <c r="J299" s="4"/>
       <c r="K299" s="4"/>
-      <c r="L299" s="32"/>
+      <c r="L299" s="34"/>
       <c r="M299" s="4"/>
       <c r="N299" s="4"/>
       <c r="O299" s="4"/>
@@ -9789,7 +9834,7 @@
       <c r="I300" s="4"/>
       <c r="J300" s="4"/>
       <c r="K300" s="4"/>
-      <c r="L300" s="32"/>
+      <c r="L300" s="34"/>
       <c r="M300" s="4"/>
       <c r="N300" s="4"/>
       <c r="O300" s="4"/>
@@ -9817,7 +9862,7 @@
       <c r="I301" s="4"/>
       <c r="J301" s="4"/>
       <c r="K301" s="4"/>
-      <c r="L301" s="32"/>
+      <c r="L301" s="34"/>
       <c r="M301" s="4"/>
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
@@ -9845,7 +9890,7 @@
       <c r="I302" s="4"/>
       <c r="J302" s="4"/>
       <c r="K302" s="4"/>
-      <c r="L302" s="32"/>
+      <c r="L302" s="34"/>
       <c r="M302" s="4"/>
       <c r="N302" s="4"/>
       <c r="O302" s="4"/>
@@ -9873,7 +9918,7 @@
       <c r="I303" s="4"/>
       <c r="J303" s="4"/>
       <c r="K303" s="4"/>
-      <c r="L303" s="32"/>
+      <c r="L303" s="34"/>
       <c r="M303" s="4"/>
       <c r="N303" s="4"/>
       <c r="O303" s="4"/>
@@ -9901,7 +9946,7 @@
       <c r="I304" s="4"/>
       <c r="J304" s="4"/>
       <c r="K304" s="4"/>
-      <c r="L304" s="32"/>
+      <c r="L304" s="34"/>
       <c r="M304" s="4"/>
       <c r="N304" s="4"/>
       <c r="O304" s="4"/>
@@ -9929,7 +9974,7 @@
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
-      <c r="L305" s="32"/>
+      <c r="L305" s="34"/>
       <c r="M305" s="4"/>
       <c r="N305" s="4"/>
       <c r="O305" s="4"/>
@@ -9957,7 +10002,7 @@
       <c r="I306" s="4"/>
       <c r="J306" s="4"/>
       <c r="K306" s="4"/>
-      <c r="L306" s="32"/>
+      <c r="L306" s="34"/>
       <c r="M306" s="4"/>
       <c r="N306" s="4"/>
       <c r="O306" s="4"/>
@@ -9985,7 +10030,7 @@
       <c r="I307" s="4"/>
       <c r="J307" s="4"/>
       <c r="K307" s="4"/>
-      <c r="L307" s="32"/>
+      <c r="L307" s="34"/>
       <c r="M307" s="4"/>
       <c r="N307" s="4"/>
       <c r="O307" s="4"/>
@@ -10013,7 +10058,7 @@
       <c r="I308" s="4"/>
       <c r="J308" s="4"/>
       <c r="K308" s="4"/>
-      <c r="L308" s="32"/>
+      <c r="L308" s="34"/>
       <c r="M308" s="4"/>
       <c r="N308" s="4"/>
       <c r="O308" s="4"/>
@@ -10041,7 +10086,7 @@
       <c r="I309" s="4"/>
       <c r="J309" s="4"/>
       <c r="K309" s="4"/>
-      <c r="L309" s="32"/>
+      <c r="L309" s="34"/>
       <c r="M309" s="4"/>
       <c r="N309" s="4"/>
       <c r="O309" s="4"/>
@@ -10069,7 +10114,7 @@
       <c r="I310" s="4"/>
       <c r="J310" s="4"/>
       <c r="K310" s="4"/>
-      <c r="L310" s="32"/>
+      <c r="L310" s="34"/>
       <c r="M310" s="4"/>
       <c r="N310" s="4"/>
       <c r="O310" s="4"/>
@@ -10097,7 +10142,7 @@
       <c r="I311" s="4"/>
       <c r="J311" s="4"/>
       <c r="K311" s="4"/>
-      <c r="L311" s="32"/>
+      <c r="L311" s="34"/>
       <c r="M311" s="4"/>
       <c r="N311" s="4"/>
       <c r="O311" s="4"/>
@@ -10125,7 +10170,7 @@
       <c r="I312" s="4"/>
       <c r="J312" s="4"/>
       <c r="K312" s="4"/>
-      <c r="L312" s="32"/>
+      <c r="L312" s="34"/>
       <c r="M312" s="4"/>
       <c r="N312" s="4"/>
       <c r="O312" s="4"/>
@@ -10153,7 +10198,7 @@
       <c r="I313" s="4"/>
       <c r="J313" s="4"/>
       <c r="K313" s="4"/>
-      <c r="L313" s="32"/>
+      <c r="L313" s="34"/>
       <c r="M313" s="4"/>
       <c r="N313" s="4"/>
       <c r="O313" s="4"/>
@@ -10181,7 +10226,7 @@
       <c r="I314" s="4"/>
       <c r="J314" s="4"/>
       <c r="K314" s="4"/>
-      <c r="L314" s="32"/>
+      <c r="L314" s="34"/>
       <c r="M314" s="4"/>
       <c r="N314" s="4"/>
       <c r="O314" s="4"/>
@@ -10209,7 +10254,7 @@
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
-      <c r="L315" s="32"/>
+      <c r="L315" s="34"/>
       <c r="M315" s="4"/>
       <c r="N315" s="4"/>
       <c r="O315" s="4"/>
@@ -10237,7 +10282,7 @@
       <c r="I316" s="4"/>
       <c r="J316" s="4"/>
       <c r="K316" s="4"/>
-      <c r="L316" s="32"/>
+      <c r="L316" s="34"/>
       <c r="M316" s="4"/>
       <c r="N316" s="4"/>
       <c r="O316" s="4"/>
@@ -10265,7 +10310,7 @@
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
-      <c r="L317" s="32"/>
+      <c r="L317" s="34"/>
       <c r="M317" s="4"/>
       <c r="N317" s="4"/>
       <c r="O317" s="4"/>
@@ -10293,7 +10338,7 @@
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
-      <c r="L318" s="32"/>
+      <c r="L318" s="34"/>
       <c r="M318" s="4"/>
       <c r="N318" s="4"/>
       <c r="O318" s="4"/>
@@ -10321,7 +10366,7 @@
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
-      <c r="L319" s="32"/>
+      <c r="L319" s="34"/>
       <c r="M319" s="4"/>
       <c r="N319" s="4"/>
       <c r="O319" s="4"/>
@@ -10349,7 +10394,7 @@
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
-      <c r="L320" s="32"/>
+      <c r="L320" s="34"/>
       <c r="M320" s="4"/>
       <c r="N320" s="4"/>
       <c r="O320" s="4"/>
@@ -10377,7 +10422,7 @@
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
-      <c r="L321" s="32"/>
+      <c r="L321" s="34"/>
       <c r="M321" s="4"/>
       <c r="N321" s="4"/>
       <c r="O321" s="4"/>
@@ -10405,7 +10450,7 @@
       <c r="I322" s="4"/>
       <c r="J322" s="4"/>
       <c r="K322" s="4"/>
-      <c r="L322" s="32"/>
+      <c r="L322" s="34"/>
       <c r="M322" s="4"/>
       <c r="N322" s="4"/>
       <c r="O322" s="4"/>
@@ -10433,7 +10478,7 @@
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
-      <c r="L323" s="32"/>
+      <c r="L323" s="34"/>
       <c r="M323" s="4"/>
       <c r="N323" s="4"/>
       <c r="O323" s="4"/>
@@ -10461,7 +10506,7 @@
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
-      <c r="L324" s="32"/>
+      <c r="L324" s="34"/>
       <c r="M324" s="4"/>
       <c r="N324" s="4"/>
       <c r="O324" s="4"/>
@@ -10489,7 +10534,7 @@
       <c r="I325" s="4"/>
       <c r="J325" s="4"/>
       <c r="K325" s="4"/>
-      <c r="L325" s="32"/>
+      <c r="L325" s="34"/>
       <c r="M325" s="4"/>
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
@@ -10517,7 +10562,7 @@
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
-      <c r="L326" s="32"/>
+      <c r="L326" s="34"/>
       <c r="M326" s="4"/>
       <c r="N326" s="4"/>
       <c r="O326" s="4"/>
@@ -10545,7 +10590,7 @@
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
-      <c r="L327" s="32"/>
+      <c r="L327" s="34"/>
       <c r="M327" s="4"/>
       <c r="N327" s="4"/>
       <c r="O327" s="4"/>
@@ -10573,7 +10618,7 @@
       <c r="I328" s="4"/>
       <c r="J328" s="4"/>
       <c r="K328" s="4"/>
-      <c r="L328" s="32"/>
+      <c r="L328" s="34"/>
       <c r="M328" s="4"/>
       <c r="N328" s="4"/>
       <c r="O328" s="4"/>
@@ -10601,7 +10646,7 @@
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
       <c r="K329" s="4"/>
-      <c r="L329" s="32"/>
+      <c r="L329" s="34"/>
       <c r="M329" s="4"/>
       <c r="N329" s="4"/>
       <c r="O329" s="4"/>
@@ -10629,7 +10674,7 @@
       <c r="I330" s="4"/>
       <c r="J330" s="4"/>
       <c r="K330" s="4"/>
-      <c r="L330" s="32"/>
+      <c r="L330" s="34"/>
       <c r="M330" s="4"/>
       <c r="N330" s="4"/>
       <c r="O330" s="4"/>
@@ -10657,7 +10702,7 @@
       <c r="I331" s="4"/>
       <c r="J331" s="4"/>
       <c r="K331" s="4"/>
-      <c r="L331" s="32"/>
+      <c r="L331" s="34"/>
       <c r="M331" s="4"/>
       <c r="N331" s="4"/>
       <c r="O331" s="4"/>
@@ -10685,7 +10730,7 @@
       <c r="I332" s="4"/>
       <c r="J332" s="4"/>
       <c r="K332" s="4"/>
-      <c r="L332" s="32"/>
+      <c r="L332" s="34"/>
       <c r="M332" s="4"/>
       <c r="N332" s="4"/>
       <c r="O332" s="4"/>
@@ -10713,7 +10758,7 @@
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
-      <c r="L333" s="32"/>
+      <c r="L333" s="34"/>
       <c r="M333" s="4"/>
       <c r="N333" s="4"/>
       <c r="O333" s="4"/>
@@ -10741,7 +10786,7 @@
       <c r="I334" s="4"/>
       <c r="J334" s="4"/>
       <c r="K334" s="4"/>
-      <c r="L334" s="32"/>
+      <c r="L334" s="34"/>
       <c r="M334" s="4"/>
       <c r="N334" s="4"/>
       <c r="O334" s="4"/>
@@ -10769,7 +10814,7 @@
       <c r="I335" s="4"/>
       <c r="J335" s="4"/>
       <c r="K335" s="4"/>
-      <c r="L335" s="32"/>
+      <c r="L335" s="34"/>
       <c r="M335" s="4"/>
       <c r="N335" s="4"/>
       <c r="O335" s="4"/>
@@ -10797,7 +10842,7 @@
       <c r="I336" s="4"/>
       <c r="J336" s="4"/>
       <c r="K336" s="4"/>
-      <c r="L336" s="32"/>
+      <c r="L336" s="34"/>
       <c r="M336" s="4"/>
       <c r="N336" s="4"/>
       <c r="O336" s="4"/>
@@ -10825,7 +10870,7 @@
       <c r="I337" s="4"/>
       <c r="J337" s="4"/>
       <c r="K337" s="4"/>
-      <c r="L337" s="32"/>
+      <c r="L337" s="34"/>
       <c r="M337" s="4"/>
       <c r="N337" s="4"/>
       <c r="O337" s="4"/>
@@ -10853,7 +10898,7 @@
       <c r="I338" s="4"/>
       <c r="J338" s="4"/>
       <c r="K338" s="4"/>
-      <c r="L338" s="32"/>
+      <c r="L338" s="34"/>
       <c r="M338" s="4"/>
       <c r="N338" s="4"/>
       <c r="O338" s="4"/>
@@ -10881,7 +10926,7 @@
       <c r="I339" s="4"/>
       <c r="J339" s="4"/>
       <c r="K339" s="4"/>
-      <c r="L339" s="32"/>
+      <c r="L339" s="34"/>
       <c r="M339" s="4"/>
       <c r="N339" s="4"/>
       <c r="O339" s="4"/>
@@ -10909,7 +10954,7 @@
       <c r="I340" s="4"/>
       <c r="J340" s="4"/>
       <c r="K340" s="4"/>
-      <c r="L340" s="32"/>
+      <c r="L340" s="34"/>
       <c r="M340" s="4"/>
       <c r="N340" s="4"/>
       <c r="O340" s="4"/>
@@ -10937,7 +10982,7 @@
       <c r="I341" s="4"/>
       <c r="J341" s="4"/>
       <c r="K341" s="4"/>
-      <c r="L341" s="32"/>
+      <c r="L341" s="34"/>
       <c r="M341" s="4"/>
       <c r="N341" s="4"/>
       <c r="O341" s="4"/>
@@ -10965,7 +11010,7 @@
       <c r="I342" s="4"/>
       <c r="J342" s="4"/>
       <c r="K342" s="4"/>
-      <c r="L342" s="32"/>
+      <c r="L342" s="34"/>
       <c r="M342" s="4"/>
       <c r="N342" s="4"/>
       <c r="O342" s="4"/>
@@ -10993,7 +11038,7 @@
       <c r="I343" s="4"/>
       <c r="J343" s="4"/>
       <c r="K343" s="4"/>
-      <c r="L343" s="32"/>
+      <c r="L343" s="34"/>
       <c r="M343" s="4"/>
       <c r="N343" s="4"/>
       <c r="O343" s="4"/>
@@ -11021,7 +11066,7 @@
       <c r="I344" s="4"/>
       <c r="J344" s="4"/>
       <c r="K344" s="4"/>
-      <c r="L344" s="32"/>
+      <c r="L344" s="34"/>
       <c r="M344" s="4"/>
       <c r="N344" s="4"/>
       <c r="O344" s="4"/>
@@ -11049,7 +11094,7 @@
       <c r="I345" s="4"/>
       <c r="J345" s="4"/>
       <c r="K345" s="4"/>
-      <c r="L345" s="32"/>
+      <c r="L345" s="34"/>
       <c r="M345" s="4"/>
       <c r="N345" s="4"/>
       <c r="O345" s="4"/>
@@ -11077,7 +11122,7 @@
       <c r="I346" s="4"/>
       <c r="J346" s="4"/>
       <c r="K346" s="4"/>
-      <c r="L346" s="32"/>
+      <c r="L346" s="34"/>
       <c r="M346" s="4"/>
       <c r="N346" s="4"/>
       <c r="O346" s="4"/>
@@ -11105,7 +11150,7 @@
       <c r="I347" s="4"/>
       <c r="J347" s="4"/>
       <c r="K347" s="4"/>
-      <c r="L347" s="32"/>
+      <c r="L347" s="34"/>
       <c r="M347" s="4"/>
       <c r="N347" s="4"/>
       <c r="O347" s="4"/>
@@ -11133,7 +11178,7 @@
       <c r="I348" s="4"/>
       <c r="J348" s="4"/>
       <c r="K348" s="4"/>
-      <c r="L348" s="32"/>
+      <c r="L348" s="34"/>
       <c r="M348" s="4"/>
       <c r="N348" s="4"/>
       <c r="O348" s="4"/>
@@ -11161,7 +11206,7 @@
       <c r="I349" s="4"/>
       <c r="J349" s="4"/>
       <c r="K349" s="4"/>
-      <c r="L349" s="32"/>
+      <c r="L349" s="34"/>
       <c r="M349" s="4"/>
       <c r="N349" s="4"/>
       <c r="O349" s="4"/>
@@ -11189,7 +11234,7 @@
       <c r="I350" s="4"/>
       <c r="J350" s="4"/>
       <c r="K350" s="4"/>
-      <c r="L350" s="32"/>
+      <c r="L350" s="34"/>
       <c r="M350" s="4"/>
       <c r="N350" s="4"/>
       <c r="O350" s="4"/>
@@ -11217,7 +11262,7 @@
       <c r="I351" s="4"/>
       <c r="J351" s="4"/>
       <c r="K351" s="4"/>
-      <c r="L351" s="32"/>
+      <c r="L351" s="34"/>
       <c r="M351" s="4"/>
       <c r="N351" s="4"/>
       <c r="O351" s="4"/>
@@ -11245,7 +11290,7 @@
       <c r="I352" s="4"/>
       <c r="J352" s="4"/>
       <c r="K352" s="4"/>
-      <c r="L352" s="32"/>
+      <c r="L352" s="34"/>
       <c r="M352" s="4"/>
       <c r="N352" s="4"/>
       <c r="O352" s="4"/>
@@ -11273,7 +11318,7 @@
       <c r="I353" s="4"/>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
-      <c r="L353" s="32"/>
+      <c r="L353" s="34"/>
       <c r="M353" s="4"/>
       <c r="N353" s="4"/>
       <c r="O353" s="4"/>
@@ -11301,7 +11346,7 @@
       <c r="I354" s="4"/>
       <c r="J354" s="4"/>
       <c r="K354" s="4"/>
-      <c r="L354" s="32"/>
+      <c r="L354" s="34"/>
       <c r="M354" s="4"/>
       <c r="N354" s="4"/>
       <c r="O354" s="4"/>
@@ -11329,7 +11374,7 @@
       <c r="I355" s="4"/>
       <c r="J355" s="4"/>
       <c r="K355" s="4"/>
-      <c r="L355" s="32"/>
+      <c r="L355" s="34"/>
       <c r="M355" s="4"/>
       <c r="N355" s="4"/>
       <c r="O355" s="4"/>
@@ -11357,7 +11402,7 @@
       <c r="I356" s="4"/>
       <c r="J356" s="4"/>
       <c r="K356" s="4"/>
-      <c r="L356" s="32"/>
+      <c r="L356" s="34"/>
       <c r="M356" s="4"/>
       <c r="N356" s="4"/>
       <c r="O356" s="4"/>
@@ -11385,7 +11430,7 @@
       <c r="I357" s="4"/>
       <c r="J357" s="4"/>
       <c r="K357" s="4"/>
-      <c r="L357" s="32"/>
+      <c r="L357" s="34"/>
       <c r="M357" s="4"/>
       <c r="N357" s="4"/>
       <c r="O357" s="4"/>
@@ -11413,7 +11458,7 @@
       <c r="I358" s="4"/>
       <c r="J358" s="4"/>
       <c r="K358" s="4"/>
-      <c r="L358" s="32"/>
+      <c r="L358" s="34"/>
       <c r="M358" s="4"/>
       <c r="N358" s="4"/>
       <c r="O358" s="4"/>
@@ -11441,7 +11486,7 @@
       <c r="I359" s="4"/>
       <c r="J359" s="4"/>
       <c r="K359" s="4"/>
-      <c r="L359" s="32"/>
+      <c r="L359" s="34"/>
       <c r="M359" s="4"/>
       <c r="N359" s="4"/>
       <c r="O359" s="4"/>
@@ -11469,7 +11514,7 @@
       <c r="I360" s="4"/>
       <c r="J360" s="4"/>
       <c r="K360" s="4"/>
-      <c r="L360" s="32"/>
+      <c r="L360" s="34"/>
       <c r="M360" s="4"/>
       <c r="N360" s="4"/>
       <c r="O360" s="4"/>
@@ -11497,7 +11542,7 @@
       <c r="I361" s="4"/>
       <c r="J361" s="4"/>
       <c r="K361" s="4"/>
-      <c r="L361" s="32"/>
+      <c r="L361" s="34"/>
       <c r="M361" s="4"/>
       <c r="N361" s="4"/>
       <c r="O361" s="4"/>
@@ -11525,7 +11570,7 @@
       <c r="I362" s="4"/>
       <c r="J362" s="4"/>
       <c r="K362" s="4"/>
-      <c r="L362" s="32"/>
+      <c r="L362" s="34"/>
       <c r="M362" s="4"/>
       <c r="N362" s="4"/>
       <c r="O362" s="4"/>
@@ -11553,7 +11598,7 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
       <c r="K363" s="4"/>
-      <c r="L363" s="32"/>
+      <c r="L363" s="34"/>
       <c r="M363" s="4"/>
       <c r="N363" s="4"/>
       <c r="O363" s="4"/>
@@ -11581,7 +11626,7 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
-      <c r="L364" s="32"/>
+      <c r="L364" s="34"/>
       <c r="M364" s="4"/>
       <c r="N364" s="4"/>
       <c r="O364" s="4"/>
@@ -11609,7 +11654,7 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
-      <c r="L365" s="32"/>
+      <c r="L365" s="34"/>
       <c r="M365" s="4"/>
       <c r="N365" s="4"/>
       <c r="O365" s="4"/>
@@ -11637,7 +11682,7 @@
       <c r="I366" s="4"/>
       <c r="J366" s="4"/>
       <c r="K366" s="4"/>
-      <c r="L366" s="32"/>
+      <c r="L366" s="34"/>
       <c r="M366" s="4"/>
       <c r="N366" s="4"/>
       <c r="O366" s="4"/>
@@ -11665,7 +11710,7 @@
       <c r="I367" s="4"/>
       <c r="J367" s="4"/>
       <c r="K367" s="4"/>
-      <c r="L367" s="32"/>
+      <c r="L367" s="34"/>
       <c r="M367" s="4"/>
       <c r="N367" s="4"/>
       <c r="O367" s="4"/>
@@ -11693,7 +11738,7 @@
       <c r="I368" s="4"/>
       <c r="J368" s="4"/>
       <c r="K368" s="4"/>
-      <c r="L368" s="32"/>
+      <c r="L368" s="34"/>
       <c r="M368" s="4"/>
       <c r="N368" s="4"/>
       <c r="O368" s="4"/>
@@ -11721,7 +11766,7 @@
       <c r="I369" s="4"/>
       <c r="J369" s="4"/>
       <c r="K369" s="4"/>
-      <c r="L369" s="32"/>
+      <c r="L369" s="34"/>
       <c r="M369" s="4"/>
       <c r="N369" s="4"/>
       <c r="O369" s="4"/>
@@ -11749,7 +11794,7 @@
       <c r="I370" s="4"/>
       <c r="J370" s="4"/>
       <c r="K370" s="4"/>
-      <c r="L370" s="32"/>
+      <c r="L370" s="34"/>
       <c r="M370" s="4"/>
       <c r="N370" s="4"/>
       <c r="O370" s="4"/>
@@ -11777,7 +11822,7 @@
       <c r="I371" s="4"/>
       <c r="J371" s="4"/>
       <c r="K371" s="4"/>
-      <c r="L371" s="32"/>
+      <c r="L371" s="34"/>
       <c r="M371" s="4"/>
       <c r="N371" s="4"/>
       <c r="O371" s="4"/>
@@ -11805,7 +11850,7 @@
       <c r="I372" s="4"/>
       <c r="J372" s="4"/>
       <c r="K372" s="4"/>
-      <c r="L372" s="32"/>
+      <c r="L372" s="34"/>
       <c r="M372" s="4"/>
       <c r="N372" s="4"/>
       <c r="O372" s="4"/>
@@ -11833,7 +11878,7 @@
       <c r="I373" s="4"/>
       <c r="J373" s="4"/>
       <c r="K373" s="4"/>
-      <c r="L373" s="32"/>
+      <c r="L373" s="34"/>
       <c r="M373" s="4"/>
       <c r="N373" s="4"/>
       <c r="O373" s="4"/>
@@ -11861,7 +11906,7 @@
       <c r="I374" s="4"/>
       <c r="J374" s="4"/>
       <c r="K374" s="4"/>
-      <c r="L374" s="32"/>
+      <c r="L374" s="34"/>
       <c r="M374" s="4"/>
       <c r="N374" s="4"/>
       <c r="O374" s="4"/>
@@ -11889,7 +11934,7 @@
       <c r="I375" s="4"/>
       <c r="J375" s="4"/>
       <c r="K375" s="4"/>
-      <c r="L375" s="32"/>
+      <c r="L375" s="34"/>
       <c r="M375" s="4"/>
       <c r="N375" s="4"/>
       <c r="O375" s="4"/>
@@ -11917,7 +11962,7 @@
       <c r="I376" s="4"/>
       <c r="J376" s="4"/>
       <c r="K376" s="4"/>
-      <c r="L376" s="32"/>
+      <c r="L376" s="34"/>
       <c r="M376" s="4"/>
       <c r="N376" s="4"/>
       <c r="O376" s="4"/>
@@ -11945,7 +11990,7 @@
       <c r="I377" s="4"/>
       <c r="J377" s="4"/>
       <c r="K377" s="4"/>
-      <c r="L377" s="32"/>
+      <c r="L377" s="34"/>
       <c r="M377" s="4"/>
       <c r="N377" s="4"/>
       <c r="O377" s="4"/>
@@ -11973,7 +12018,7 @@
       <c r="I378" s="4"/>
       <c r="J378" s="4"/>
       <c r="K378" s="4"/>
-      <c r="L378" s="32"/>
+      <c r="L378" s="34"/>
       <c r="M378" s="4"/>
       <c r="N378" s="4"/>
       <c r="O378" s="4"/>
@@ -12001,7 +12046,7 @@
       <c r="I379" s="4"/>
       <c r="J379" s="4"/>
       <c r="K379" s="4"/>
-      <c r="L379" s="32"/>
+      <c r="L379" s="34"/>
       <c r="M379" s="4"/>
       <c r="N379" s="4"/>
       <c r="O379" s="4"/>
@@ -12029,7 +12074,7 @@
       <c r="I380" s="4"/>
       <c r="J380" s="4"/>
       <c r="K380" s="4"/>
-      <c r="L380" s="32"/>
+      <c r="L380" s="34"/>
       <c r="M380" s="4"/>
       <c r="N380" s="4"/>
       <c r="O380" s="4"/>
@@ -12057,7 +12102,7 @@
       <c r="I381" s="4"/>
       <c r="J381" s="4"/>
       <c r="K381" s="4"/>
-      <c r="L381" s="32"/>
+      <c r="L381" s="34"/>
       <c r="M381" s="4"/>
       <c r="N381" s="4"/>
       <c r="O381" s="4"/>
@@ -12085,7 +12130,7 @@
       <c r="I382" s="4"/>
       <c r="J382" s="4"/>
       <c r="K382" s="4"/>
-      <c r="L382" s="32"/>
+      <c r="L382" s="34"/>
       <c r="M382" s="4"/>
       <c r="N382" s="4"/>
       <c r="O382" s="4"/>
@@ -12113,7 +12158,7 @@
       <c r="I383" s="4"/>
       <c r="J383" s="4"/>
       <c r="K383" s="4"/>
-      <c r="L383" s="32"/>
+      <c r="L383" s="34"/>
       <c r="M383" s="4"/>
       <c r="N383" s="4"/>
       <c r="O383" s="4"/>
@@ -12141,7 +12186,7 @@
       <c r="I384" s="4"/>
       <c r="J384" s="4"/>
       <c r="K384" s="4"/>
-      <c r="L384" s="32"/>
+      <c r="L384" s="34"/>
       <c r="M384" s="4"/>
       <c r="N384" s="4"/>
       <c r="O384" s="4"/>
@@ -12169,7 +12214,7 @@
       <c r="I385" s="4"/>
       <c r="J385" s="4"/>
       <c r="K385" s="4"/>
-      <c r="L385" s="32"/>
+      <c r="L385" s="34"/>
       <c r="M385" s="4"/>
       <c r="N385" s="4"/>
       <c r="O385" s="4"/>
@@ -12197,7 +12242,7 @@
       <c r="I386" s="4"/>
       <c r="J386" s="4"/>
       <c r="K386" s="4"/>
-      <c r="L386" s="32"/>
+      <c r="L386" s="34"/>
       <c r="M386" s="4"/>
       <c r="N386" s="4"/>
       <c r="O386" s="4"/>
@@ -12225,7 +12270,7 @@
       <c r="I387" s="4"/>
       <c r="J387" s="4"/>
       <c r="K387" s="4"/>
-      <c r="L387" s="32"/>
+      <c r="L387" s="34"/>
       <c r="M387" s="4"/>
       <c r="N387" s="4"/>
       <c r="O387" s="4"/>
@@ -12253,7 +12298,7 @@
       <c r="I388" s="4"/>
       <c r="J388" s="4"/>
       <c r="K388" s="4"/>
-      <c r="L388" s="32"/>
+      <c r="L388" s="34"/>
       <c r="M388" s="4"/>
       <c r="N388" s="4"/>
       <c r="O388" s="4"/>
@@ -12281,7 +12326,7 @@
       <c r="I389" s="4"/>
       <c r="J389" s="4"/>
       <c r="K389" s="4"/>
-      <c r="L389" s="32"/>
+      <c r="L389" s="34"/>
       <c r="M389" s="4"/>
       <c r="N389" s="4"/>
       <c r="O389" s="4"/>
@@ -12309,7 +12354,7 @@
       <c r="I390" s="4"/>
       <c r="J390" s="4"/>
       <c r="K390" s="4"/>
-      <c r="L390" s="32"/>
+      <c r="L390" s="34"/>
       <c r="M390" s="4"/>
       <c r="N390" s="4"/>
       <c r="O390" s="4"/>
@@ -12337,7 +12382,7 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
-      <c r="L391" s="32"/>
+      <c r="L391" s="34"/>
       <c r="M391" s="4"/>
       <c r="N391" s="4"/>
       <c r="O391" s="4"/>
@@ -12365,7 +12410,7 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
-      <c r="L392" s="32"/>
+      <c r="L392" s="34"/>
       <c r="M392" s="4"/>
       <c r="N392" s="4"/>
       <c r="O392" s="4"/>
@@ -12393,7 +12438,7 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
-      <c r="L393" s="32"/>
+      <c r="L393" s="34"/>
       <c r="M393" s="4"/>
       <c r="N393" s="4"/>
       <c r="O393" s="4"/>
@@ -12421,7 +12466,7 @@
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
-      <c r="L394" s="32"/>
+      <c r="L394" s="34"/>
       <c r="M394" s="4"/>
       <c r="N394" s="4"/>
       <c r="O394" s="4"/>
@@ -12449,7 +12494,7 @@
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
-      <c r="L395" s="32"/>
+      <c r="L395" s="34"/>
       <c r="M395" s="4"/>
       <c r="N395" s="4"/>
       <c r="O395" s="4"/>
@@ -12477,7 +12522,7 @@
       <c r="I396" s="4"/>
       <c r="J396" s="4"/>
       <c r="K396" s="4"/>
-      <c r="L396" s="32"/>
+      <c r="L396" s="34"/>
       <c r="M396" s="4"/>
       <c r="N396" s="4"/>
       <c r="O396" s="4"/>
@@ -12505,7 +12550,7 @@
       <c r="I397" s="4"/>
       <c r="J397" s="4"/>
       <c r="K397" s="4"/>
-      <c r="L397" s="32"/>
+      <c r="L397" s="34"/>
       <c r="M397" s="4"/>
       <c r="N397" s="4"/>
       <c r="O397" s="4"/>
@@ -12533,7 +12578,7 @@
       <c r="I398" s="4"/>
       <c r="J398" s="4"/>
       <c r="K398" s="4"/>
-      <c r="L398" s="32"/>
+      <c r="L398" s="34"/>
       <c r="M398" s="4"/>
       <c r="N398" s="4"/>
       <c r="O398" s="4"/>
@@ -12561,7 +12606,7 @@
       <c r="I399" s="4"/>
       <c r="J399" s="4"/>
       <c r="K399" s="4"/>
-      <c r="L399" s="32"/>
+      <c r="L399" s="34"/>
       <c r="M399" s="4"/>
       <c r="N399" s="4"/>
       <c r="O399" s="4"/>
@@ -12589,7 +12634,7 @@
       <c r="I400" s="4"/>
       <c r="J400" s="4"/>
       <c r="K400" s="4"/>
-      <c r="L400" s="32"/>
+      <c r="L400" s="34"/>
       <c r="M400" s="4"/>
       <c r="N400" s="4"/>
       <c r="O400" s="4"/>
@@ -12617,7 +12662,7 @@
       <c r="I401" s="4"/>
       <c r="J401" s="4"/>
       <c r="K401" s="4"/>
-      <c r="L401" s="32"/>
+      <c r="L401" s="34"/>
       <c r="M401" s="4"/>
       <c r="N401" s="4"/>
       <c r="O401" s="4"/>
@@ -12645,7 +12690,7 @@
       <c r="I402" s="4"/>
       <c r="J402" s="4"/>
       <c r="K402" s="4"/>
-      <c r="L402" s="32"/>
+      <c r="L402" s="34"/>
       <c r="M402" s="4"/>
       <c r="N402" s="4"/>
       <c r="O402" s="4"/>
@@ -12673,7 +12718,7 @@
       <c r="I403" s="4"/>
       <c r="J403" s="4"/>
       <c r="K403" s="4"/>
-      <c r="L403" s="32"/>
+      <c r="L403" s="34"/>
       <c r="M403" s="4"/>
       <c r="N403" s="4"/>
       <c r="O403" s="4"/>
@@ -12701,7 +12746,7 @@
       <c r="I404" s="4"/>
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
-      <c r="L404" s="32"/>
+      <c r="L404" s="34"/>
       <c r="M404" s="4"/>
       <c r="N404" s="4"/>
       <c r="O404" s="4"/>
@@ -12729,7 +12774,7 @@
       <c r="I405" s="4"/>
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
-      <c r="L405" s="32"/>
+      <c r="L405" s="34"/>
       <c r="M405" s="4"/>
       <c r="N405" s="4"/>
       <c r="O405" s="4"/>
@@ -12757,7 +12802,7 @@
       <c r="I406" s="4"/>
       <c r="J406" s="4"/>
       <c r="K406" s="4"/>
-      <c r="L406" s="32"/>
+      <c r="L406" s="34"/>
       <c r="M406" s="4"/>
       <c r="N406" s="4"/>
       <c r="O406" s="4"/>
@@ -12785,7 +12830,7 @@
       <c r="I407" s="4"/>
       <c r="J407" s="4"/>
       <c r="K407" s="4"/>
-      <c r="L407" s="32"/>
+      <c r="L407" s="34"/>
       <c r="M407" s="4"/>
       <c r="N407" s="4"/>
       <c r="O407" s="4"/>
@@ -12813,7 +12858,7 @@
       <c r="I408" s="4"/>
       <c r="J408" s="4"/>
       <c r="K408" s="4"/>
-      <c r="L408" s="32"/>
+      <c r="L408" s="34"/>
       <c r="M408" s="4"/>
       <c r="N408" s="4"/>
       <c r="O408" s="4"/>
@@ -12841,7 +12886,7 @@
       <c r="I409" s="4"/>
       <c r="J409" s="4"/>
       <c r="K409" s="4"/>
-      <c r="L409" s="32"/>
+      <c r="L409" s="34"/>
       <c r="M409" s="4"/>
       <c r="N409" s="4"/>
       <c r="O409" s="4"/>
@@ -12869,7 +12914,7 @@
       <c r="I410" s="4"/>
       <c r="J410" s="4"/>
       <c r="K410" s="4"/>
-      <c r="L410" s="32"/>
+      <c r="L410" s="34"/>
       <c r="M410" s="4"/>
       <c r="N410" s="4"/>
       <c r="O410" s="4"/>
@@ -12897,7 +12942,7 @@
       <c r="I411" s="4"/>
       <c r="J411" s="4"/>
       <c r="K411" s="4"/>
-      <c r="L411" s="32"/>
+      <c r="L411" s="34"/>
       <c r="M411" s="4"/>
       <c r="N411" s="4"/>
       <c r="O411" s="4"/>
@@ -12925,7 +12970,7 @@
       <c r="I412" s="4"/>
       <c r="J412" s="4"/>
       <c r="K412" s="4"/>
-      <c r="L412" s="32"/>
+      <c r="L412" s="34"/>
       <c r="M412" s="4"/>
       <c r="N412" s="4"/>
       <c r="O412" s="4"/>
@@ -12953,7 +12998,7 @@
       <c r="I413" s="4"/>
       <c r="J413" s="4"/>
       <c r="K413" s="4"/>
-      <c r="L413" s="32"/>
+      <c r="L413" s="34"/>
       <c r="M413" s="4"/>
       <c r="N413" s="4"/>
       <c r="O413" s="4"/>
@@ -12981,7 +13026,7 @@
       <c r="I414" s="4"/>
       <c r="J414" s="4"/>
       <c r="K414" s="4"/>
-      <c r="L414" s="32"/>
+      <c r="L414" s="34"/>
       <c r="M414" s="4"/>
       <c r="N414" s="4"/>
       <c r="O414" s="4"/>
@@ -13009,7 +13054,7 @@
       <c r="I415" s="4"/>
       <c r="J415" s="4"/>
       <c r="K415" s="4"/>
-      <c r="L415" s="32"/>
+      <c r="L415" s="34"/>
       <c r="M415" s="4"/>
       <c r="N415" s="4"/>
       <c r="O415" s="4"/>
@@ -13037,7 +13082,7 @@
       <c r="I416" s="4"/>
       <c r="J416" s="4"/>
       <c r="K416" s="4"/>
-      <c r="L416" s="32"/>
+      <c r="L416" s="34"/>
       <c r="M416" s="4"/>
       <c r="N416" s="4"/>
       <c r="O416" s="4"/>
@@ -13065,7 +13110,7 @@
       <c r="I417" s="4"/>
       <c r="J417" s="4"/>
       <c r="K417" s="4"/>
-      <c r="L417" s="32"/>
+      <c r="L417" s="34"/>
       <c r="M417" s="4"/>
       <c r="N417" s="4"/>
       <c r="O417" s="4"/>
@@ -13093,7 +13138,7 @@
       <c r="I418" s="4"/>
       <c r="J418" s="4"/>
       <c r="K418" s="4"/>
-      <c r="L418" s="32"/>
+      <c r="L418" s="34"/>
       <c r="M418" s="4"/>
       <c r="N418" s="4"/>
       <c r="O418" s="4"/>
@@ -13121,7 +13166,7 @@
       <c r="I419" s="4"/>
       <c r="J419" s="4"/>
       <c r="K419" s="4"/>
-      <c r="L419" s="32"/>
+      <c r="L419" s="34"/>
       <c r="M419" s="4"/>
       <c r="N419" s="4"/>
       <c r="O419" s="4"/>
@@ -13149,7 +13194,7 @@
       <c r="I420" s="4"/>
       <c r="J420" s="4"/>
       <c r="K420" s="4"/>
-      <c r="L420" s="32"/>
+      <c r="L420" s="34"/>
       <c r="M420" s="4"/>
       <c r="N420" s="4"/>
       <c r="O420" s="4"/>
@@ -13177,7 +13222,7 @@
       <c r="I421" s="4"/>
       <c r="J421" s="4"/>
       <c r="K421" s="4"/>
-      <c r="L421" s="32"/>
+      <c r="L421" s="34"/>
       <c r="M421" s="4"/>
       <c r="N421" s="4"/>
       <c r="O421" s="4"/>
@@ -13205,7 +13250,7 @@
       <c r="I422" s="4"/>
       <c r="J422" s="4"/>
       <c r="K422" s="4"/>
-      <c r="L422" s="32"/>
+      <c r="L422" s="34"/>
       <c r="M422" s="4"/>
       <c r="N422" s="4"/>
       <c r="O422" s="4"/>
@@ -13233,7 +13278,7 @@
       <c r="I423" s="4"/>
       <c r="J423" s="4"/>
       <c r="K423" s="4"/>
-      <c r="L423" s="32"/>
+      <c r="L423" s="34"/>
       <c r="M423" s="4"/>
       <c r="N423" s="4"/>
       <c r="O423" s="4"/>
@@ -13261,7 +13306,7 @@
       <c r="I424" s="4"/>
       <c r="J424" s="4"/>
       <c r="K424" s="4"/>
-      <c r="L424" s="32"/>
+      <c r="L424" s="34"/>
       <c r="M424" s="4"/>
       <c r="N424" s="4"/>
       <c r="O424" s="4"/>
@@ -13289,7 +13334,7 @@
       <c r="I425" s="4"/>
       <c r="J425" s="4"/>
       <c r="K425" s="4"/>
-      <c r="L425" s="32"/>
+      <c r="L425" s="34"/>
       <c r="M425" s="4"/>
       <c r="N425" s="4"/>
       <c r="O425" s="4"/>
@@ -13317,7 +13362,7 @@
       <c r="I426" s="4"/>
       <c r="J426" s="4"/>
       <c r="K426" s="4"/>
-      <c r="L426" s="32"/>
+      <c r="L426" s="34"/>
       <c r="M426" s="4"/>
       <c r="N426" s="4"/>
       <c r="O426" s="4"/>
@@ -13345,7 +13390,7 @@
       <c r="I427" s="4"/>
       <c r="J427" s="4"/>
       <c r="K427" s="4"/>
-      <c r="L427" s="32"/>
+      <c r="L427" s="34"/>
       <c r="M427" s="4"/>
       <c r="N427" s="4"/>
       <c r="O427" s="4"/>
@@ -13373,7 +13418,7 @@
       <c r="I428" s="4"/>
       <c r="J428" s="4"/>
       <c r="K428" s="4"/>
-      <c r="L428" s="32"/>
+      <c r="L428" s="34"/>
       <c r="M428" s="4"/>
       <c r="N428" s="4"/>
       <c r="O428" s="4"/>
@@ -13401,7 +13446,7 @@
       <c r="I429" s="4"/>
       <c r="J429" s="4"/>
       <c r="K429" s="4"/>
-      <c r="L429" s="32"/>
+      <c r="L429" s="34"/>
       <c r="M429" s="4"/>
       <c r="N429" s="4"/>
       <c r="O429" s="4"/>
@@ -13429,7 +13474,7 @@
       <c r="I430" s="4"/>
       <c r="J430" s="4"/>
       <c r="K430" s="4"/>
-      <c r="L430" s="32"/>
+      <c r="L430" s="34"/>
       <c r="M430" s="4"/>
       <c r="N430" s="4"/>
       <c r="O430" s="4"/>
@@ -13457,7 +13502,7 @@
       <c r="I431" s="4"/>
       <c r="J431" s="4"/>
       <c r="K431" s="4"/>
-      <c r="L431" s="32"/>
+      <c r="L431" s="34"/>
       <c r="M431" s="4"/>
       <c r="N431" s="4"/>
       <c r="O431" s="4"/>
@@ -13485,7 +13530,7 @@
       <c r="I432" s="4"/>
       <c r="J432" s="4"/>
       <c r="K432" s="4"/>
-      <c r="L432" s="32"/>
+      <c r="L432" s="34"/>
       <c r="M432" s="4"/>
       <c r="N432" s="4"/>
       <c r="O432" s="4"/>
@@ -13513,7 +13558,7 @@
       <c r="I433" s="4"/>
       <c r="J433" s="4"/>
       <c r="K433" s="4"/>
-      <c r="L433" s="32"/>
+      <c r="L433" s="34"/>
       <c r="M433" s="4"/>
       <c r="N433" s="4"/>
       <c r="O433" s="4"/>
@@ -13541,7 +13586,7 @@
       <c r="I434" s="4"/>
       <c r="J434" s="4"/>
       <c r="K434" s="4"/>
-      <c r="L434" s="32"/>
+      <c r="L434" s="34"/>
       <c r="M434" s="4"/>
       <c r="N434" s="4"/>
       <c r="O434" s="4"/>
@@ -13569,7 +13614,7 @@
       <c r="I435" s="4"/>
       <c r="J435" s="4"/>
       <c r="K435" s="4"/>
-      <c r="L435" s="32"/>
+      <c r="L435" s="34"/>
       <c r="M435" s="4"/>
       <c r="N435" s="4"/>
       <c r="O435" s="4"/>
@@ -13597,7 +13642,7 @@
       <c r="I436" s="4"/>
       <c r="J436" s="4"/>
       <c r="K436" s="4"/>
-      <c r="L436" s="32"/>
+      <c r="L436" s="34"/>
       <c r="M436" s="4"/>
       <c r="N436" s="4"/>
       <c r="O436" s="4"/>
@@ -13625,7 +13670,7 @@
       <c r="I437" s="4"/>
       <c r="J437" s="4"/>
       <c r="K437" s="4"/>
-      <c r="L437" s="32"/>
+      <c r="L437" s="34"/>
       <c r="M437" s="4"/>
       <c r="N437" s="4"/>
       <c r="O437" s="4"/>
@@ -13653,7 +13698,7 @@
       <c r="I438" s="4"/>
       <c r="J438" s="4"/>
       <c r="K438" s="4"/>
-      <c r="L438" s="32"/>
+      <c r="L438" s="34"/>
       <c r="M438" s="4"/>
       <c r="N438" s="4"/>
       <c r="O438" s="4"/>
@@ -13681,7 +13726,7 @@
       <c r="I439" s="4"/>
       <c r="J439" s="4"/>
       <c r="K439" s="4"/>
-      <c r="L439" s="32"/>
+      <c r="L439" s="34"/>
       <c r="M439" s="4"/>
       <c r="N439" s="4"/>
       <c r="O439" s="4"/>
@@ -13709,7 +13754,7 @@
       <c r="I440" s="4"/>
       <c r="J440" s="4"/>
       <c r="K440" s="4"/>
-      <c r="L440" s="32"/>
+      <c r="L440" s="34"/>
       <c r="M440" s="4"/>
       <c r="N440" s="4"/>
       <c r="O440" s="4"/>
@@ -13737,7 +13782,7 @@
       <c r="I441" s="4"/>
       <c r="J441" s="4"/>
       <c r="K441" s="4"/>
-      <c r="L441" s="32"/>
+      <c r="L441" s="34"/>
       <c r="M441" s="4"/>
       <c r="N441" s="4"/>
       <c r="O441" s="4"/>
@@ -13765,7 +13810,7 @@
       <c r="I442" s="4"/>
       <c r="J442" s="4"/>
       <c r="K442" s="4"/>
-      <c r="L442" s="32"/>
+      <c r="L442" s="34"/>
       <c r="M442" s="4"/>
       <c r="N442" s="4"/>
       <c r="O442" s="4"/>
@@ -13793,7 +13838,7 @@
       <c r="I443" s="4"/>
       <c r="J443" s="4"/>
       <c r="K443" s="4"/>
-      <c r="L443" s="32"/>
+      <c r="L443" s="34"/>
       <c r="M443" s="4"/>
       <c r="N443" s="4"/>
       <c r="O443" s="4"/>
@@ -13821,7 +13866,7 @@
       <c r="I444" s="4"/>
       <c r="J444" s="4"/>
       <c r="K444" s="4"/>
-      <c r="L444" s="32"/>
+      <c r="L444" s="34"/>
       <c r="M444" s="4"/>
       <c r="N444" s="4"/>
       <c r="O444" s="4"/>
@@ -13849,7 +13894,7 @@
       <c r="I445" s="4"/>
       <c r="J445" s="4"/>
       <c r="K445" s="4"/>
-      <c r="L445" s="32"/>
+      <c r="L445" s="34"/>
       <c r="M445" s="4"/>
       <c r="N445" s="4"/>
       <c r="O445" s="4"/>
@@ -13877,7 +13922,7 @@
       <c r="I446" s="4"/>
       <c r="J446" s="4"/>
       <c r="K446" s="4"/>
-      <c r="L446" s="32"/>
+      <c r="L446" s="34"/>
       <c r="M446" s="4"/>
       <c r="N446" s="4"/>
       <c r="O446" s="4"/>
@@ -13905,7 +13950,7 @@
       <c r="I447" s="4"/>
       <c r="J447" s="4"/>
       <c r="K447" s="4"/>
-      <c r="L447" s="32"/>
+      <c r="L447" s="34"/>
       <c r="M447" s="4"/>
       <c r="N447" s="4"/>
       <c r="O447" s="4"/>
@@ -13933,7 +13978,7 @@
       <c r="I448" s="4"/>
       <c r="J448" s="4"/>
       <c r="K448" s="4"/>
-      <c r="L448" s="32"/>
+      <c r="L448" s="34"/>
       <c r="M448" s="4"/>
       <c r="N448" s="4"/>
       <c r="O448" s="4"/>
@@ -13961,7 +14006,7 @@
       <c r="I449" s="4"/>
       <c r="J449" s="4"/>
       <c r="K449" s="4"/>
-      <c r="L449" s="32"/>
+      <c r="L449" s="34"/>
       <c r="M449" s="4"/>
       <c r="N449" s="4"/>
       <c r="O449" s="4"/>
@@ -13989,7 +14034,7 @@
       <c r="I450" s="4"/>
       <c r="J450" s="4"/>
       <c r="K450" s="4"/>
-      <c r="L450" s="32"/>
+      <c r="L450" s="34"/>
       <c r="M450" s="4"/>
       <c r="N450" s="4"/>
       <c r="O450" s="4"/>
@@ -14017,7 +14062,7 @@
       <c r="I451" s="4"/>
       <c r="J451" s="4"/>
       <c r="K451" s="4"/>
-      <c r="L451" s="32"/>
+      <c r="L451" s="34"/>
       <c r="M451" s="4"/>
       <c r="N451" s="4"/>
       <c r="O451" s="4"/>
@@ -14045,7 +14090,7 @@
       <c r="I452" s="4"/>
       <c r="J452" s="4"/>
       <c r="K452" s="4"/>
-      <c r="L452" s="32"/>
+      <c r="L452" s="34"/>
       <c r="M452" s="4"/>
       <c r="N452" s="4"/>
       <c r="O452" s="4"/>
@@ -14073,7 +14118,7 @@
       <c r="I453" s="4"/>
       <c r="J453" s="4"/>
       <c r="K453" s="4"/>
-      <c r="L453" s="32"/>
+      <c r="L453" s="34"/>
       <c r="M453" s="4"/>
       <c r="N453" s="4"/>
       <c r="O453" s="4"/>
@@ -14101,7 +14146,7 @@
       <c r="I454" s="4"/>
       <c r="J454" s="4"/>
       <c r="K454" s="4"/>
-      <c r="L454" s="32"/>
+      <c r="L454" s="34"/>
       <c r="M454" s="4"/>
       <c r="N454" s="4"/>
       <c r="O454" s="4"/>
@@ -14129,7 +14174,7 @@
       <c r="I455" s="4"/>
       <c r="J455" s="4"/>
       <c r="K455" s="4"/>
-      <c r="L455" s="32"/>
+      <c r="L455" s="34"/>
       <c r="M455" s="4"/>
       <c r="N455" s="4"/>
       <c r="O455" s="4"/>
@@ -14157,7 +14202,7 @@
       <c r="I456" s="4"/>
       <c r="J456" s="4"/>
       <c r="K456" s="4"/>
-      <c r="L456" s="32"/>
+      <c r="L456" s="34"/>
       <c r="M456" s="4"/>
       <c r="N456" s="4"/>
       <c r="O456" s="4"/>
@@ -14185,7 +14230,7 @@
       <c r="I457" s="4"/>
       <c r="J457" s="4"/>
       <c r="K457" s="4"/>
-      <c r="L457" s="32"/>
+      <c r="L457" s="34"/>
       <c r="M457" s="4"/>
       <c r="N457" s="4"/>
       <c r="O457" s="4"/>
@@ -14213,7 +14258,7 @@
       <c r="I458" s="4"/>
       <c r="J458" s="4"/>
       <c r="K458" s="4"/>
-      <c r="L458" s="32"/>
+      <c r="L458" s="34"/>
       <c r="M458" s="4"/>
       <c r="N458" s="4"/>
       <c r="O458" s="4"/>
@@ -14241,7 +14286,7 @@
       <c r="I459" s="4"/>
       <c r="J459" s="4"/>
       <c r="K459" s="4"/>
-      <c r="L459" s="32"/>
+      <c r="L459" s="34"/>
       <c r="M459" s="4"/>
       <c r="N459" s="4"/>
       <c r="O459" s="4"/>
@@ -14269,7 +14314,7 @@
       <c r="I460" s="4"/>
       <c r="J460" s="4"/>
       <c r="K460" s="4"/>
-      <c r="L460" s="32"/>
+      <c r="L460" s="34"/>
       <c r="M460" s="4"/>
       <c r="N460" s="4"/>
       <c r="O460" s="4"/>
@@ -14297,7 +14342,7 @@
       <c r="I461" s="4"/>
       <c r="J461" s="4"/>
       <c r="K461" s="4"/>
-      <c r="L461" s="32"/>
+      <c r="L461" s="34"/>
       <c r="M461" s="4"/>
       <c r="N461" s="4"/>
       <c r="O461" s="4"/>
@@ -14325,7 +14370,7 @@
       <c r="I462" s="4"/>
       <c r="J462" s="4"/>
       <c r="K462" s="4"/>
-      <c r="L462" s="32"/>
+      <c r="L462" s="34"/>
       <c r="M462" s="4"/>
       <c r="N462" s="4"/>
       <c r="O462" s="4"/>
@@ -14353,7 +14398,7 @@
       <c r="I463" s="4"/>
       <c r="J463" s="4"/>
       <c r="K463" s="4"/>
-      <c r="L463" s="32"/>
+      <c r="L463" s="34"/>
       <c r="M463" s="4"/>
       <c r="N463" s="4"/>
       <c r="O463" s="4"/>
@@ -14381,7 +14426,7 @@
       <c r="I464" s="4"/>
       <c r="J464" s="4"/>
       <c r="K464" s="4"/>
-      <c r="L464" s="32"/>
+      <c r="L464" s="34"/>
       <c r="M464" s="4"/>
       <c r="N464" s="4"/>
       <c r="O464" s="4"/>
@@ -14409,7 +14454,7 @@
       <c r="I465" s="4"/>
       <c r="J465" s="4"/>
       <c r="K465" s="4"/>
-      <c r="L465" s="32"/>
+      <c r="L465" s="34"/>
       <c r="M465" s="4"/>
       <c r="N465" s="4"/>
       <c r="O465" s="4"/>
@@ -14437,7 +14482,7 @@
       <c r="I466" s="4"/>
       <c r="J466" s="4"/>
       <c r="K466" s="4"/>
-      <c r="L466" s="32"/>
+      <c r="L466" s="34"/>
       <c r="M466" s="4"/>
       <c r="N466" s="4"/>
       <c r="O466" s="4"/>
@@ -14465,7 +14510,7 @@
       <c r="I467" s="4"/>
       <c r="J467" s="4"/>
       <c r="K467" s="4"/>
-      <c r="L467" s="32"/>
+      <c r="L467" s="34"/>
       <c r="M467" s="4"/>
       <c r="N467" s="4"/>
       <c r="O467" s="4"/>
@@ -14493,7 +14538,7 @@
       <c r="I468" s="4"/>
       <c r="J468" s="4"/>
       <c r="K468" s="4"/>
-      <c r="L468" s="32"/>
+      <c r="L468" s="34"/>
       <c r="M468" s="4"/>
       <c r="N468" s="4"/>
       <c r="O468" s="4"/>
@@ -14521,7 +14566,7 @@
       <c r="I469" s="4"/>
       <c r="J469" s="4"/>
       <c r="K469" s="4"/>
-      <c r="L469" s="32"/>
+      <c r="L469" s="34"/>
       <c r="M469" s="4"/>
       <c r="N469" s="4"/>
       <c r="O469" s="4"/>
@@ -14549,7 +14594,7 @@
       <c r="I470" s="4"/>
       <c r="J470" s="4"/>
       <c r="K470" s="4"/>
-      <c r="L470" s="32"/>
+      <c r="L470" s="34"/>
       <c r="M470" s="4"/>
       <c r="N470" s="4"/>
       <c r="O470" s="4"/>
@@ -14577,7 +14622,7 @@
       <c r="I471" s="4"/>
       <c r="J471" s="4"/>
       <c r="K471" s="4"/>
-      <c r="L471" s="32"/>
+      <c r="L471" s="34"/>
       <c r="M471" s="4"/>
       <c r="N471" s="4"/>
       <c r="O471" s="4"/>
@@ -14605,7 +14650,7 @@
       <c r="I472" s="4"/>
       <c r="J472" s="4"/>
       <c r="K472" s="4"/>
-      <c r="L472" s="32"/>
+      <c r="L472" s="34"/>
       <c r="M472" s="4"/>
       <c r="N472" s="4"/>
       <c r="O472" s="4"/>
@@ -14633,7 +14678,7 @@
       <c r="I473" s="4"/>
       <c r="J473" s="4"/>
       <c r="K473" s="4"/>
-      <c r="L473" s="32"/>
+      <c r="L473" s="34"/>
       <c r="M473" s="4"/>
       <c r="N473" s="4"/>
       <c r="O473" s="4"/>
@@ -14661,7 +14706,7 @@
       <c r="I474" s="4"/>
       <c r="J474" s="4"/>
       <c r="K474" s="4"/>
-      <c r="L474" s="32"/>
+      <c r="L474" s="34"/>
       <c r="M474" s="4"/>
       <c r="N474" s="4"/>
       <c r="O474" s="4"/>
@@ -14689,7 +14734,7 @@
       <c r="I475" s="4"/>
       <c r="J475" s="4"/>
       <c r="K475" s="4"/>
-      <c r="L475" s="32"/>
+      <c r="L475" s="34"/>
       <c r="M475" s="4"/>
       <c r="N475" s="4"/>
       <c r="O475" s="4"/>
@@ -14717,7 +14762,7 @@
       <c r="I476" s="4"/>
       <c r="J476" s="4"/>
       <c r="K476" s="4"/>
-      <c r="L476" s="32"/>
+      <c r="L476" s="34"/>
       <c r="M476" s="4"/>
       <c r="N476" s="4"/>
       <c r="O476" s="4"/>
@@ -14745,7 +14790,7 @@
       <c r="I477" s="4"/>
       <c r="J477" s="4"/>
       <c r="K477" s="4"/>
-      <c r="L477" s="32"/>
+      <c r="L477" s="34"/>
       <c r="M477" s="4"/>
       <c r="N477" s="4"/>
       <c r="O477" s="4"/>
@@ -14773,7 +14818,7 @@
       <c r="I478" s="4"/>
       <c r="J478" s="4"/>
       <c r="K478" s="4"/>
-      <c r="L478" s="32"/>
+      <c r="L478" s="34"/>
       <c r="M478" s="4"/>
       <c r="N478" s="4"/>
       <c r="O478" s="4"/>
@@ -14801,7 +14846,7 @@
       <c r="I479" s="4"/>
       <c r="J479" s="4"/>
       <c r="K479" s="4"/>
-      <c r="L479" s="32"/>
+      <c r="L479" s="34"/>
       <c r="M479" s="4"/>
       <c r="N479" s="4"/>
       <c r="O479" s="4"/>
@@ -14829,7 +14874,7 @@
       <c r="I480" s="4"/>
       <c r="J480" s="4"/>
       <c r="K480" s="4"/>
-      <c r="L480" s="32"/>
+      <c r="L480" s="34"/>
       <c r="M480" s="4"/>
       <c r="N480" s="4"/>
       <c r="O480" s="4"/>
@@ -14857,7 +14902,7 @@
       <c r="I481" s="4"/>
       <c r="J481" s="4"/>
       <c r="K481" s="4"/>
-      <c r="L481" s="32"/>
+      <c r="L481" s="34"/>
       <c r="M481" s="4"/>
       <c r="N481" s="4"/>
       <c r="O481" s="4"/>
@@ -14885,7 +14930,7 @@
       <c r="I482" s="4"/>
       <c r="J482" s="4"/>
       <c r="K482" s="4"/>
-      <c r="L482" s="32"/>
+      <c r="L482" s="34"/>
       <c r="M482" s="4"/>
       <c r="N482" s="4"/>
       <c r="O482" s="4"/>
@@ -14913,7 +14958,7 @@
       <c r="I483" s="4"/>
       <c r="J483" s="4"/>
       <c r="K483" s="4"/>
-      <c r="L483" s="32"/>
+      <c r="L483" s="34"/>
       <c r="M483" s="4"/>
       <c r="N483" s="4"/>
       <c r="O483" s="4"/>
@@ -14941,7 +14986,7 @@
       <c r="I484" s="4"/>
       <c r="J484" s="4"/>
       <c r="K484" s="4"/>
-      <c r="L484" s="32"/>
+      <c r="L484" s="34"/>
       <c r="M484" s="4"/>
       <c r="N484" s="4"/>
       <c r="O484" s="4"/>
@@ -14969,7 +15014,7 @@
       <c r="I485" s="4"/>
       <c r="J485" s="4"/>
       <c r="K485" s="4"/>
-      <c r="L485" s="32"/>
+      <c r="L485" s="34"/>
       <c r="M485" s="4"/>
       <c r="N485" s="4"/>
       <c r="O485" s="4"/>
@@ -14997,7 +15042,7 @@
       <c r="I486" s="4"/>
       <c r="J486" s="4"/>
       <c r="K486" s="4"/>
-      <c r="L486" s="32"/>
+      <c r="L486" s="34"/>
       <c r="M486" s="4"/>
       <c r="N486" s="4"/>
       <c r="O486" s="4"/>
@@ -15025,7 +15070,7 @@
       <c r="I487" s="4"/>
       <c r="J487" s="4"/>
       <c r="K487" s="4"/>
-      <c r="L487" s="32"/>
+      <c r="L487" s="34"/>
       <c r="M487" s="4"/>
       <c r="N487" s="4"/>
       <c r="O487" s="4"/>
@@ -15053,7 +15098,7 @@
       <c r="I488" s="4"/>
       <c r="J488" s="4"/>
       <c r="K488" s="4"/>
-      <c r="L488" s="32"/>
+      <c r="L488" s="34"/>
       <c r="M488" s="4"/>
       <c r="N488" s="4"/>
       <c r="O488" s="4"/>
@@ -15081,7 +15126,7 @@
       <c r="I489" s="4"/>
       <c r="J489" s="4"/>
       <c r="K489" s="4"/>
-      <c r="L489" s="32"/>
+      <c r="L489" s="34"/>
       <c r="M489" s="4"/>
       <c r="N489" s="4"/>
       <c r="O489" s="4"/>
@@ -15109,7 +15154,7 @@
       <c r="I490" s="4"/>
       <c r="J490" s="4"/>
       <c r="K490" s="4"/>
-      <c r="L490" s="32"/>
+      <c r="L490" s="34"/>
       <c r="M490" s="4"/>
       <c r="N490" s="4"/>
       <c r="O490" s="4"/>
@@ -15137,7 +15182,7 @@
       <c r="I491" s="4"/>
       <c r="J491" s="4"/>
       <c r="K491" s="4"/>
-      <c r="L491" s="32"/>
+      <c r="L491" s="34"/>
       <c r="M491" s="4"/>
       <c r="N491" s="4"/>
       <c r="O491" s="4"/>
@@ -15165,7 +15210,7 @@
       <c r="I492" s="4"/>
       <c r="J492" s="4"/>
       <c r="K492" s="4"/>
-      <c r="L492" s="32"/>
+      <c r="L492" s="34"/>
       <c r="M492" s="4"/>
       <c r="N492" s="4"/>
       <c r="O492" s="4"/>
@@ -15193,7 +15238,7 @@
       <c r="I493" s="4"/>
       <c r="J493" s="4"/>
       <c r="K493" s="4"/>
-      <c r="L493" s="32"/>
+      <c r="L493" s="34"/>
       <c r="M493" s="4"/>
       <c r="N493" s="4"/>
       <c r="O493" s="4"/>
@@ -15221,7 +15266,7 @@
       <c r="I494" s="4"/>
       <c r="J494" s="4"/>
       <c r="K494" s="4"/>
-      <c r="L494" s="32"/>
+      <c r="L494" s="34"/>
       <c r="M494" s="4"/>
       <c r="N494" s="4"/>
       <c r="O494" s="4"/>
@@ -15249,7 +15294,7 @@
       <c r="I495" s="4"/>
       <c r="J495" s="4"/>
       <c r="K495" s="4"/>
-      <c r="L495" s="32"/>
+      <c r="L495" s="34"/>
       <c r="M495" s="4"/>
       <c r="N495" s="4"/>
       <c r="O495" s="4"/>
@@ -15277,7 +15322,7 @@
       <c r="I496" s="4"/>
       <c r="J496" s="4"/>
       <c r="K496" s="4"/>
-      <c r="L496" s="32"/>
+      <c r="L496" s="34"/>
       <c r="M496" s="4"/>
       <c r="N496" s="4"/>
       <c r="O496" s="4"/>
@@ -15305,7 +15350,7 @@
       <c r="I497" s="4"/>
       <c r="J497" s="4"/>
       <c r="K497" s="4"/>
-      <c r="L497" s="32"/>
+      <c r="L497" s="34"/>
       <c r="M497" s="4"/>
       <c r="N497" s="4"/>
       <c r="O497" s="4"/>
@@ -15333,7 +15378,7 @@
       <c r="I498" s="4"/>
       <c r="J498" s="4"/>
       <c r="K498" s="4"/>
-      <c r="L498" s="32"/>
+      <c r="L498" s="34"/>
       <c r="M498" s="4"/>
       <c r="N498" s="4"/>
       <c r="O498" s="4"/>
@@ -15361,7 +15406,7 @@
       <c r="I499" s="4"/>
       <c r="J499" s="4"/>
       <c r="K499" s="4"/>
-      <c r="L499" s="32"/>
+      <c r="L499" s="34"/>
       <c r="M499" s="4"/>
       <c r="N499" s="4"/>
       <c r="O499" s="4"/>
@@ -15389,7 +15434,7 @@
       <c r="I500" s="4"/>
       <c r="J500" s="4"/>
       <c r="K500" s="4"/>
-      <c r="L500" s="32"/>
+      <c r="L500" s="34"/>
       <c r="M500" s="4"/>
       <c r="N500" s="4"/>
       <c r="O500" s="4"/>
@@ -15417,7 +15462,7 @@
       <c r="I501" s="4"/>
       <c r="J501" s="4"/>
       <c r="K501" s="4"/>
-      <c r="L501" s="32"/>
+      <c r="L501" s="34"/>
       <c r="M501" s="4"/>
       <c r="N501" s="4"/>
       <c r="O501" s="4"/>
@@ -15445,7 +15490,7 @@
       <c r="I502" s="4"/>
       <c r="J502" s="4"/>
       <c r="K502" s="4"/>
-      <c r="L502" s="32"/>
+      <c r="L502" s="34"/>
       <c r="M502" s="4"/>
       <c r="N502" s="4"/>
       <c r="O502" s="4"/>
@@ -15473,7 +15518,7 @@
       <c r="I503" s="4"/>
       <c r="J503" s="4"/>
       <c r="K503" s="4"/>
-      <c r="L503" s="32"/>
+      <c r="L503" s="34"/>
       <c r="M503" s="4"/>
       <c r="N503" s="4"/>
       <c r="O503" s="4"/>
@@ -15501,7 +15546,7 @@
       <c r="I504" s="4"/>
       <c r="J504" s="4"/>
       <c r="K504" s="4"/>
-      <c r="L504" s="32"/>
+      <c r="L504" s="34"/>
       <c r="M504" s="4"/>
       <c r="N504" s="4"/>
       <c r="O504" s="4"/>
@@ -15529,7 +15574,7 @@
       <c r="I505" s="4"/>
       <c r="J505" s="4"/>
       <c r="K505" s="4"/>
-      <c r="L505" s="32"/>
+      <c r="L505" s="34"/>
       <c r="M505" s="4"/>
       <c r="N505" s="4"/>
       <c r="O505" s="4"/>
@@ -15557,7 +15602,7 @@
       <c r="I506" s="4"/>
       <c r="J506" s="4"/>
       <c r="K506" s="4"/>
-      <c r="L506" s="32"/>
+      <c r="L506" s="34"/>
       <c r="M506" s="4"/>
       <c r="N506" s="4"/>
       <c r="O506" s="4"/>
@@ -15585,7 +15630,7 @@
       <c r="I507" s="4"/>
       <c r="J507" s="4"/>
       <c r="K507" s="4"/>
-      <c r="L507" s="32"/>
+      <c r="L507" s="34"/>
       <c r="M507" s="4"/>
       <c r="N507" s="4"/>
       <c r="O507" s="4"/>
@@ -15613,7 +15658,7 @@
       <c r="I508" s="4"/>
       <c r="J508" s="4"/>
       <c r="K508" s="4"/>
-      <c r="L508" s="32"/>
+      <c r="L508" s="34"/>
       <c r="M508" s="4"/>
       <c r="N508" s="4"/>
       <c r="O508" s="4"/>
@@ -15641,7 +15686,7 @@
       <c r="I509" s="4"/>
       <c r="J509" s="4"/>
       <c r="K509" s="4"/>
-      <c r="L509" s="32"/>
+      <c r="L509" s="34"/>
       <c r="M509" s="4"/>
       <c r="N509" s="4"/>
       <c r="O509" s="4"/>
@@ -15669,7 +15714,7 @@
       <c r="I510" s="4"/>
       <c r="J510" s="4"/>
       <c r="K510" s="4"/>
-      <c r="L510" s="32"/>
+      <c r="L510" s="34"/>
       <c r="M510" s="4"/>
       <c r="N510" s="4"/>
       <c r="O510" s="4"/>
@@ -15697,7 +15742,7 @@
       <c r="I511" s="4"/>
       <c r="J511" s="4"/>
       <c r="K511" s="4"/>
-      <c r="L511" s="32"/>
+      <c r="L511" s="34"/>
       <c r="M511" s="4"/>
       <c r="N511" s="4"/>
       <c r="O511" s="4"/>
@@ -15725,7 +15770,7 @@
       <c r="I512" s="4"/>
       <c r="J512" s="4"/>
       <c r="K512" s="4"/>
-      <c r="L512" s="32"/>
+      <c r="L512" s="34"/>
       <c r="M512" s="4"/>
       <c r="N512" s="4"/>
       <c r="O512" s="4"/>
@@ -15753,7 +15798,7 @@
       <c r="I513" s="4"/>
       <c r="J513" s="4"/>
       <c r="K513" s="4"/>
-      <c r="L513" s="32"/>
+      <c r="L513" s="34"/>
       <c r="M513" s="4"/>
       <c r="N513" s="4"/>
       <c r="O513" s="4"/>
@@ -15781,7 +15826,7 @@
       <c r="I514" s="4"/>
       <c r="J514" s="4"/>
       <c r="K514" s="4"/>
-      <c r="L514" s="32"/>
+      <c r="L514" s="34"/>
       <c r="M514" s="4"/>
       <c r="N514" s="4"/>
       <c r="O514" s="4"/>
@@ -15809,7 +15854,7 @@
       <c r="I515" s="4"/>
       <c r="J515" s="4"/>
       <c r="K515" s="4"/>
-      <c r="L515" s="32"/>
+      <c r="L515" s="34"/>
       <c r="M515" s="4"/>
       <c r="N515" s="4"/>
       <c r="O515" s="4"/>
@@ -15837,7 +15882,7 @@
       <c r="I516" s="4"/>
       <c r="J516" s="4"/>
       <c r="K516" s="4"/>
-      <c r="L516" s="32"/>
+      <c r="L516" s="34"/>
       <c r="M516" s="4"/>
       <c r="N516" s="4"/>
       <c r="O516" s="4"/>
@@ -15865,7 +15910,7 @@
       <c r="I517" s="4"/>
       <c r="J517" s="4"/>
       <c r="K517" s="4"/>
-      <c r="L517" s="32"/>
+      <c r="L517" s="34"/>
       <c r="M517" s="4"/>
       <c r="N517" s="4"/>
       <c r="O517" s="4"/>
@@ -15893,7 +15938,7 @@
       <c r="I518" s="4"/>
       <c r="J518" s="4"/>
       <c r="K518" s="4"/>
-      <c r="L518" s="32"/>
+      <c r="L518" s="34"/>
       <c r="M518" s="4"/>
       <c r="N518" s="4"/>
       <c r="O518" s="4"/>
@@ -15921,7 +15966,7 @@
       <c r="I519" s="4"/>
       <c r="J519" s="4"/>
       <c r="K519" s="4"/>
-      <c r="L519" s="32"/>
+      <c r="L519" s="34"/>
       <c r="M519" s="4"/>
       <c r="N519" s="4"/>
       <c r="O519" s="4"/>
@@ -15949,7 +15994,7 @@
       <c r="I520" s="4"/>
       <c r="J520" s="4"/>
       <c r="K520" s="4"/>
-      <c r="L520" s="32"/>
+      <c r="L520" s="34"/>
       <c r="M520" s="4"/>
       <c r="N520" s="4"/>
       <c r="O520" s="4"/>
@@ -15977,7 +16022,7 @@
       <c r="I521" s="4"/>
       <c r="J521" s="4"/>
       <c r="K521" s="4"/>
-      <c r="L521" s="32"/>
+      <c r="L521" s="34"/>
       <c r="M521" s="4"/>
       <c r="N521" s="4"/>
       <c r="O521" s="4"/>
@@ -16005,7 +16050,7 @@
       <c r="I522" s="4"/>
       <c r="J522" s="4"/>
       <c r="K522" s="4"/>
-      <c r="L522" s="32"/>
+      <c r="L522" s="34"/>
       <c r="M522" s="4"/>
       <c r="N522" s="4"/>
       <c r="O522" s="4"/>
@@ -16033,7 +16078,7 @@
       <c r="I523" s="4"/>
       <c r="J523" s="4"/>
       <c r="K523" s="4"/>
-      <c r="L523" s="32"/>
+      <c r="L523" s="34"/>
       <c r="M523" s="4"/>
       <c r="N523" s="4"/>
       <c r="O523" s="4"/>
@@ -16061,7 +16106,7 @@
       <c r="I524" s="4"/>
       <c r="J524" s="4"/>
       <c r="K524" s="4"/>
-      <c r="L524" s="32"/>
+      <c r="L524" s="34"/>
       <c r="M524" s="4"/>
       <c r="N524" s="4"/>
       <c r="O524" s="4"/>
@@ -16089,7 +16134,7 @@
       <c r="I525" s="4"/>
       <c r="J525" s="4"/>
       <c r="K525" s="4"/>
-      <c r="L525" s="32"/>
+      <c r="L525" s="34"/>
       <c r="M525" s="4"/>
       <c r="N525" s="4"/>
       <c r="O525" s="4"/>
@@ -16117,7 +16162,7 @@
       <c r="I526" s="4"/>
       <c r="J526" s="4"/>
       <c r="K526" s="4"/>
-      <c r="L526" s="32"/>
+      <c r="L526" s="34"/>
       <c r="M526" s="4"/>
       <c r="N526" s="4"/>
       <c r="O526" s="4"/>
@@ -16145,7 +16190,7 @@
       <c r="I527" s="4"/>
       <c r="J527" s="4"/>
       <c r="K527" s="4"/>
-      <c r="L527" s="32"/>
+      <c r="L527" s="34"/>
       <c r="M527" s="4"/>
       <c r="N527" s="4"/>
       <c r="O527" s="4"/>
@@ -16173,7 +16218,7 @@
       <c r="I528" s="4"/>
       <c r="J528" s="4"/>
       <c r="K528" s="4"/>
-      <c r="L528" s="32"/>
+      <c r="L528" s="34"/>
       <c r="M528" s="4"/>
       <c r="N528" s="4"/>
       <c r="O528" s="4"/>
@@ -16201,7 +16246,7 @@
       <c r="I529" s="4"/>
       <c r="J529" s="4"/>
       <c r="K529" s="4"/>
-      <c r="L529" s="32"/>
+      <c r="L529" s="34"/>
       <c r="M529" s="4"/>
       <c r="N529" s="4"/>
       <c r="O529" s="4"/>
@@ -16229,7 +16274,7 @@
       <c r="I530" s="4"/>
       <c r="J530" s="4"/>
       <c r="K530" s="4"/>
-      <c r="L530" s="32"/>
+      <c r="L530" s="34"/>
       <c r="M530" s="4"/>
       <c r="N530" s="4"/>
       <c r="O530" s="4"/>
@@ -16257,7 +16302,7 @@
       <c r="I531" s="4"/>
       <c r="J531" s="4"/>
       <c r="K531" s="4"/>
-      <c r="L531" s="32"/>
+      <c r="L531" s="34"/>
       <c r="M531" s="4"/>
       <c r="N531" s="4"/>
       <c r="O531" s="4"/>
@@ -16285,7 +16330,7 @@
       <c r="I532" s="4"/>
       <c r="J532" s="4"/>
       <c r="K532" s="4"/>
-      <c r="L532" s="32"/>
+      <c r="L532" s="34"/>
       <c r="M532" s="4"/>
       <c r="N532" s="4"/>
       <c r="O532" s="4"/>
@@ -16313,7 +16358,7 @@
       <c r="I533" s="4"/>
       <c r="J533" s="4"/>
       <c r="K533" s="4"/>
-      <c r="L533" s="32"/>
+      <c r="L533" s="34"/>
       <c r="M533" s="4"/>
       <c r="N533" s="4"/>
       <c r="O533" s="4"/>
@@ -16341,7 +16386,7 @@
       <c r="I534" s="4"/>
       <c r="J534" s="4"/>
       <c r="K534" s="4"/>
-      <c r="L534" s="32"/>
+      <c r="L534" s="34"/>
       <c r="M534" s="4"/>
       <c r="N534" s="4"/>
       <c r="O534" s="4"/>
@@ -16369,7 +16414,7 @@
       <c r="I535" s="4"/>
       <c r="J535" s="4"/>
       <c r="K535" s="4"/>
-      <c r="L535" s="32"/>
+      <c r="L535" s="34"/>
       <c r="M535" s="4"/>
       <c r="N535" s="4"/>
       <c r="O535" s="4"/>
@@ -16397,7 +16442,7 @@
       <c r="I536" s="4"/>
       <c r="J536" s="4"/>
       <c r="K536" s="4"/>
-      <c r="L536" s="32"/>
+      <c r="L536" s="34"/>
       <c r="M536" s="4"/>
       <c r="N536" s="4"/>
       <c r="O536" s="4"/>
@@ -16425,7 +16470,7 @@
       <c r="I537" s="4"/>
       <c r="J537" s="4"/>
       <c r="K537" s="4"/>
-      <c r="L537" s="32"/>
+      <c r="L537" s="34"/>
       <c r="M537" s="4"/>
       <c r="N537" s="4"/>
       <c r="O537" s="4"/>
@@ -16453,7 +16498,7 @@
       <c r="I538" s="4"/>
       <c r="J538" s="4"/>
       <c r="K538" s="4"/>
-      <c r="L538" s="32"/>
+      <c r="L538" s="34"/>
       <c r="M538" s="4"/>
       <c r="N538" s="4"/>
       <c r="O538" s="4"/>
@@ -16481,7 +16526,7 @@
       <c r="I539" s="4"/>
       <c r="J539" s="4"/>
       <c r="K539" s="4"/>
-      <c r="L539" s="32"/>
+      <c r="L539" s="34"/>
       <c r="M539" s="4"/>
       <c r="N539" s="4"/>
       <c r="O539" s="4"/>
@@ -16509,7 +16554,7 @@
       <c r="I540" s="4"/>
       <c r="J540" s="4"/>
       <c r="K540" s="4"/>
-      <c r="L540" s="32"/>
+      <c r="L540" s="34"/>
       <c r="M540" s="4"/>
       <c r="N540" s="4"/>
       <c r="O540" s="4"/>
@@ -16537,7 +16582,7 @@
       <c r="I541" s="4"/>
       <c r="J541" s="4"/>
       <c r="K541" s="4"/>
-      <c r="L541" s="32"/>
+      <c r="L541" s="34"/>
       <c r="M541" s="4"/>
       <c r="N541" s="4"/>
       <c r="O541" s="4"/>
@@ -16565,7 +16610,7 @@
       <c r="I542" s="4"/>
       <c r="J542" s="4"/>
       <c r="K542" s="4"/>
-      <c r="L542" s="32"/>
+      <c r="L542" s="34"/>
       <c r="M542" s="4"/>
       <c r="N542" s="4"/>
       <c r="O542" s="4"/>
@@ -16593,7 +16638,7 @@
       <c r="I543" s="4"/>
       <c r="J543" s="4"/>
       <c r="K543" s="4"/>
-      <c r="L543" s="32"/>
+      <c r="L543" s="34"/>
       <c r="M543" s="4"/>
       <c r="N543" s="4"/>
       <c r="O543" s="4"/>
@@ -16621,7 +16666,7 @@
       <c r="I544" s="4"/>
       <c r="J544" s="4"/>
       <c r="K544" s="4"/>
-      <c r="L544" s="32"/>
+      <c r="L544" s="34"/>
       <c r="M544" s="4"/>
       <c r="N544" s="4"/>
       <c r="O544" s="4"/>
@@ -16649,7 +16694,7 @@
       <c r="I545" s="4"/>
       <c r="J545" s="4"/>
       <c r="K545" s="4"/>
-      <c r="L545" s="32"/>
+      <c r="L545" s="34"/>
       <c r="M545" s="4"/>
       <c r="N545" s="4"/>
       <c r="O545" s="4"/>
@@ -16677,7 +16722,7 @@
       <c r="I546" s="4"/>
       <c r="J546" s="4"/>
       <c r="K546" s="4"/>
-      <c r="L546" s="32"/>
+      <c r="L546" s="34"/>
       <c r="M546" s="4"/>
       <c r="N546" s="4"/>
       <c r="O546" s="4"/>
@@ -16705,7 +16750,7 @@
       <c r="I547" s="4"/>
       <c r="J547" s="4"/>
       <c r="K547" s="4"/>
-      <c r="L547" s="32"/>
+      <c r="L547" s="34"/>
       <c r="M547" s="4"/>
       <c r="N547" s="4"/>
       <c r="O547" s="4"/>
@@ -16733,7 +16778,7 @@
       <c r="I548" s="4"/>
       <c r="J548" s="4"/>
       <c r="K548" s="4"/>
-      <c r="L548" s="32"/>
+      <c r="L548" s="34"/>
       <c r="M548" s="4"/>
       <c r="N548" s="4"/>
       <c r="O548" s="4"/>
@@ -16761,7 +16806,7 @@
       <c r="I549" s="4"/>
       <c r="J549" s="4"/>
       <c r="K549" s="4"/>
-      <c r="L549" s="32"/>
+      <c r="L549" s="34"/>
       <c r="M549" s="4"/>
       <c r="N549" s="4"/>
       <c r="O549" s="4"/>
@@ -16789,7 +16834,7 @@
       <c r="I550" s="4"/>
       <c r="J550" s="4"/>
       <c r="K550" s="4"/>
-      <c r="L550" s="32"/>
+      <c r="L550" s="34"/>
       <c r="M550" s="4"/>
       <c r="N550" s="4"/>
       <c r="O550" s="4"/>
@@ -16817,7 +16862,7 @@
       <c r="I551" s="4"/>
       <c r="J551" s="4"/>
       <c r="K551" s="4"/>
-      <c r="L551" s="32"/>
+      <c r="L551" s="34"/>
       <c r="M551" s="4"/>
       <c r="N551" s="4"/>
       <c r="O551" s="4"/>
@@ -16845,7 +16890,7 @@
       <c r="I552" s="4"/>
       <c r="J552" s="4"/>
       <c r="K552" s="4"/>
-      <c r="L552" s="32"/>
+      <c r="L552" s="34"/>
       <c r="M552" s="4"/>
       <c r="N552" s="4"/>
       <c r="O552" s="4"/>
@@ -16873,7 +16918,7 @@
       <c r="I553" s="4"/>
       <c r="J553" s="4"/>
       <c r="K553" s="4"/>
-      <c r="L553" s="32"/>
+      <c r="L553" s="34"/>
       <c r="M553" s="4"/>
       <c r="N553" s="4"/>
       <c r="O553" s="4"/>
@@ -16901,7 +16946,7 @@
       <c r="I554" s="4"/>
       <c r="J554" s="4"/>
       <c r="K554" s="4"/>
-      <c r="L554" s="32"/>
+      <c r="L554" s="34"/>
       <c r="M554" s="4"/>
       <c r="N554" s="4"/>
       <c r="O554" s="4"/>
@@ -16929,7 +16974,7 @@
       <c r="I555" s="4"/>
       <c r="J555" s="4"/>
       <c r="K555" s="4"/>
-      <c r="L555" s="32"/>
+      <c r="L555" s="34"/>
       <c r="M555" s="4"/>
       <c r="N555" s="4"/>
       <c r="O555" s="4"/>
@@ -16957,7 +17002,7 @@
       <c r="I556" s="4"/>
       <c r="J556" s="4"/>
       <c r="K556" s="4"/>
-      <c r="L556" s="32"/>
+      <c r="L556" s="34"/>
       <c r="M556" s="4"/>
       <c r="N556" s="4"/>
       <c r="O556" s="4"/>
@@ -16985,7 +17030,7 @@
       <c r="I557" s="4"/>
       <c r="J557" s="4"/>
       <c r="K557" s="4"/>
-      <c r="L557" s="32"/>
+      <c r="L557" s="34"/>
       <c r="M557" s="4"/>
       <c r="N557" s="4"/>
       <c r="O557" s="4"/>
@@ -17013,7 +17058,7 @@
       <c r="I558" s="4"/>
       <c r="J558" s="4"/>
       <c r="K558" s="4"/>
-      <c r="L558" s="32"/>
+      <c r="L558" s="34"/>
       <c r="M558" s="4"/>
       <c r="N558" s="4"/>
       <c r="O558" s="4"/>
@@ -17041,7 +17086,7 @@
       <c r="I559" s="4"/>
       <c r="J559" s="4"/>
       <c r="K559" s="4"/>
-      <c r="L559" s="32"/>
+      <c r="L559" s="34"/>
       <c r="M559" s="4"/>
       <c r="N559" s="4"/>
       <c r="O559" s="4"/>
@@ -17069,7 +17114,7 @@
       <c r="I560" s="4"/>
       <c r="J560" s="4"/>
       <c r="K560" s="4"/>
-      <c r="L560" s="32"/>
+      <c r="L560" s="34"/>
       <c r="M560" s="4"/>
       <c r="N560" s="4"/>
       <c r="O560" s="4"/>
@@ -17097,7 +17142,7 @@
       <c r="I561" s="4"/>
       <c r="J561" s="4"/>
       <c r="K561" s="4"/>
-      <c r="L561" s="32"/>
+      <c r="L561" s="34"/>
       <c r="M561" s="4"/>
       <c r="N561" s="4"/>
       <c r="O561" s="4"/>
@@ -17125,7 +17170,7 @@
       <c r="I562" s="4"/>
       <c r="J562" s="4"/>
       <c r="K562" s="4"/>
-      <c r="L562" s="32"/>
+      <c r="L562" s="34"/>
       <c r="M562" s="4"/>
       <c r="N562" s="4"/>
       <c r="O562" s="4"/>
@@ -17153,7 +17198,7 @@
       <c r="I563" s="4"/>
       <c r="J563" s="4"/>
       <c r="K563" s="4"/>
-      <c r="L563" s="32"/>
+      <c r="L563" s="34"/>
       <c r="M563" s="4"/>
       <c r="N563" s="4"/>
       <c r="O563" s="4"/>
@@ -17181,7 +17226,7 @@
       <c r="I564" s="4"/>
       <c r="J564" s="4"/>
       <c r="K564" s="4"/>
-      <c r="L564" s="32"/>
+      <c r="L564" s="34"/>
       <c r="M564" s="4"/>
       <c r="N564" s="4"/>
       <c r="O564" s="4"/>
@@ -17209,7 +17254,7 @@
       <c r="I565" s="4"/>
       <c r="J565" s="4"/>
       <c r="K565" s="4"/>
-      <c r="L565" s="32"/>
+      <c r="L565" s="34"/>
       <c r="M565" s="4"/>
       <c r="N565" s="4"/>
       <c r="O565" s="4"/>
@@ -17237,7 +17282,7 @@
       <c r="I566" s="4"/>
       <c r="J566" s="4"/>
       <c r="K566" s="4"/>
-      <c r="L566" s="32"/>
+      <c r="L566" s="34"/>
       <c r="M566" s="4"/>
       <c r="N566" s="4"/>
       <c r="O566" s="4"/>
@@ -17265,7 +17310,7 @@
       <c r="I567" s="4"/>
       <c r="J567" s="4"/>
       <c r="K567" s="4"/>
-      <c r="L567" s="32"/>
+      <c r="L567" s="34"/>
       <c r="M567" s="4"/>
       <c r="N567" s="4"/>
       <c r="O567" s="4"/>
@@ -17293,7 +17338,7 @@
       <c r="I568" s="4"/>
       <c r="J568" s="4"/>
       <c r="K568" s="4"/>
-      <c r="L568" s="32"/>
+      <c r="L568" s="34"/>
       <c r="M568" s="4"/>
       <c r="N568" s="4"/>
       <c r="O568" s="4"/>
@@ -17321,7 +17366,7 @@
       <c r="I569" s="4"/>
       <c r="J569" s="4"/>
       <c r="K569" s="4"/>
-      <c r="L569" s="32"/>
+      <c r="L569" s="34"/>
       <c r="M569" s="4"/>
       <c r="N569" s="4"/>
       <c r="O569" s="4"/>
@@ -17349,7 +17394,7 @@
       <c r="I570" s="4"/>
       <c r="J570" s="4"/>
       <c r="K570" s="4"/>
-      <c r="L570" s="32"/>
+      <c r="L570" s="34"/>
       <c r="M570" s="4"/>
       <c r="N570" s="4"/>
       <c r="O570" s="4"/>
@@ -17377,7 +17422,7 @@
       <c r="I571" s="4"/>
       <c r="J571" s="4"/>
       <c r="K571" s="4"/>
-      <c r="L571" s="32"/>
+      <c r="L571" s="34"/>
       <c r="M571" s="4"/>
       <c r="N571" s="4"/>
       <c r="O571" s="4"/>
@@ -17405,7 +17450,7 @@
       <c r="I572" s="4"/>
       <c r="J572" s="4"/>
       <c r="K572" s="4"/>
-      <c r="L572" s="32"/>
+      <c r="L572" s="34"/>
       <c r="M572" s="4"/>
       <c r="N572" s="4"/>
       <c r="O572" s="4"/>
@@ -17433,7 +17478,7 @@
       <c r="I573" s="4"/>
       <c r="J573" s="4"/>
       <c r="K573" s="4"/>
-      <c r="L573" s="32"/>
+      <c r="L573" s="34"/>
       <c r="M573" s="4"/>
       <c r="N573" s="4"/>
       <c r="O573" s="4"/>
@@ -17461,7 +17506,7 @@
       <c r="I574" s="4"/>
       <c r="J574" s="4"/>
       <c r="K574" s="4"/>
-      <c r="L574" s="32"/>
+      <c r="L574" s="34"/>
       <c r="M574" s="4"/>
       <c r="N574" s="4"/>
       <c r="O574" s="4"/>
@@ -17489,7 +17534,7 @@
       <c r="I575" s="4"/>
       <c r="J575" s="4"/>
       <c r="K575" s="4"/>
-      <c r="L575" s="32"/>
+      <c r="L575" s="34"/>
       <c r="M575" s="4"/>
       <c r="N575" s="4"/>
       <c r="O575" s="4"/>
@@ -17517,7 +17562,7 @@
       <c r="I576" s="4"/>
       <c r="J576" s="4"/>
       <c r="K576" s="4"/>
-      <c r="L576" s="32"/>
+      <c r="L576" s="34"/>
       <c r="M576" s="4"/>
       <c r="N576" s="4"/>
       <c r="O576" s="4"/>
@@ -17545,7 +17590,7 @@
       <c r="I577" s="4"/>
       <c r="J577" s="4"/>
       <c r="K577" s="4"/>
-      <c r="L577" s="32"/>
+      <c r="L577" s="34"/>
       <c r="M577" s="4"/>
       <c r="N577" s="4"/>
       <c r="O577" s="4"/>
@@ -17573,7 +17618,7 @@
       <c r="I578" s="4"/>
       <c r="J578" s="4"/>
       <c r="K578" s="4"/>
-      <c r="L578" s="32"/>
+      <c r="L578" s="34"/>
       <c r="M578" s="4"/>
       <c r="N578" s="4"/>
       <c r="O578" s="4"/>
@@ -17601,7 +17646,7 @@
       <c r="I579" s="4"/>
       <c r="J579" s="4"/>
       <c r="K579" s="4"/>
-      <c r="L579" s="32"/>
+      <c r="L579" s="34"/>
       <c r="M579" s="4"/>
       <c r="N579" s="4"/>
       <c r="O579" s="4"/>
@@ -17629,7 +17674,7 @@
       <c r="I580" s="4"/>
       <c r="J580" s="4"/>
       <c r="K580" s="4"/>
-      <c r="L580" s="32"/>
+      <c r="L580" s="34"/>
       <c r="M580" s="4"/>
       <c r="N580" s="4"/>
       <c r="O580" s="4"/>
@@ -17657,7 +17702,7 @@
       <c r="I581" s="4"/>
       <c r="J581" s="4"/>
       <c r="K581" s="4"/>
-      <c r="L581" s="32"/>
+      <c r="L581" s="34"/>
       <c r="M581" s="4"/>
       <c r="N581" s="4"/>
       <c r="O581" s="4"/>
@@ -17685,7 +17730,7 @@
       <c r="I582" s="4"/>
       <c r="J582" s="4"/>
       <c r="K582" s="4"/>
-      <c r="L582" s="32"/>
+      <c r="L582" s="34"/>
       <c r="M582" s="4"/>
       <c r="N582" s="4"/>
       <c r="O582" s="4"/>
@@ -17713,7 +17758,7 @@
       <c r="I583" s="4"/>
       <c r="J583" s="4"/>
       <c r="K583" s="4"/>
-      <c r="L583" s="32"/>
+      <c r="L583" s="34"/>
       <c r="M583" s="4"/>
       <c r="N583" s="4"/>
       <c r="O583" s="4"/>
@@ -17741,7 +17786,7 @@
       <c r="I584" s="4"/>
       <c r="J584" s="4"/>
       <c r="K584" s="4"/>
-      <c r="L584" s="32"/>
+      <c r="L584" s="34"/>
       <c r="M584" s="4"/>
       <c r="N584" s="4"/>
       <c r="O584" s="4"/>
@@ -17769,7 +17814,7 @@
       <c r="I585" s="4"/>
       <c r="J585" s="4"/>
       <c r="K585" s="4"/>
-      <c r="L585" s="32"/>
+      <c r="L585" s="34"/>
       <c r="M585" s="4"/>
       <c r="N585" s="4"/>
       <c r="O585" s="4"/>
@@ -17797,7 +17842,7 @@
       <c r="I586" s="4"/>
       <c r="J586" s="4"/>
       <c r="K586" s="4"/>
-      <c r="L586" s="32"/>
+      <c r="L586" s="34"/>
       <c r="M586" s="4"/>
       <c r="N586" s="4"/>
       <c r="O586" s="4"/>
@@ -17825,7 +17870,7 @@
       <c r="I587" s="4"/>
       <c r="J587" s="4"/>
       <c r="K587" s="4"/>
-      <c r="L587" s="32"/>
+      <c r="L587" s="34"/>
       <c r="M587" s="4"/>
       <c r="N587" s="4"/>
       <c r="O587" s="4"/>
@@ -17853,7 +17898,7 @@
       <c r="I588" s="4"/>
       <c r="J588" s="4"/>
       <c r="K588" s="4"/>
-      <c r="L588" s="32"/>
+      <c r="L588" s="34"/>
       <c r="M588" s="4"/>
       <c r="N588" s="4"/>
       <c r="O588" s="4"/>
@@ -17881,7 +17926,7 @@
       <c r="I589" s="4"/>
       <c r="J589" s="4"/>
       <c r="K589" s="4"/>
-      <c r="L589" s="32"/>
+      <c r="L589" s="34"/>
       <c r="M589" s="4"/>
       <c r="N589" s="4"/>
       <c r="O589" s="4"/>
@@ -17909,7 +17954,7 @@
       <c r="I590" s="4"/>
       <c r="J590" s="4"/>
       <c r="K590" s="4"/>
-      <c r="L590" s="32"/>
+      <c r="L590" s="34"/>
       <c r="M590" s="4"/>
       <c r="N590" s="4"/>
       <c r="O590" s="4"/>
@@ -17937,7 +17982,7 @@
       <c r="I591" s="4"/>
       <c r="J591" s="4"/>
       <c r="K591" s="4"/>
-      <c r="L591" s="32"/>
+      <c r="L591" s="34"/>
       <c r="M591" s="4"/>
       <c r="N591" s="4"/>
       <c r="O591" s="4"/>
@@ -17965,7 +18010,7 @@
       <c r="I592" s="4"/>
       <c r="J592" s="4"/>
       <c r="K592" s="4"/>
-      <c r="L592" s="32"/>
+      <c r="L592" s="34"/>
       <c r="M592" s="4"/>
       <c r="N592" s="4"/>
       <c r="O592" s="4"/>
@@ -17993,7 +18038,7 @@
       <c r="I593" s="4"/>
       <c r="J593" s="4"/>
       <c r="K593" s="4"/>
-      <c r="L593" s="32"/>
+      <c r="L593" s="34"/>
       <c r="M593" s="4"/>
       <c r="N593" s="4"/>
       <c r="O593" s="4"/>
@@ -18021,7 +18066,7 @@
       <c r="I594" s="4"/>
       <c r="J594" s="4"/>
       <c r="K594" s="4"/>
-      <c r="L594" s="32"/>
+      <c r="L594" s="34"/>
       <c r="M594" s="4"/>
       <c r="N594" s="4"/>
       <c r="O594" s="4"/>
@@ -18049,7 +18094,7 @@
       <c r="I595" s="4"/>
       <c r="J595" s="4"/>
       <c r="K595" s="4"/>
-      <c r="L595" s="32"/>
+      <c r="L595" s="34"/>
       <c r="M595" s="4"/>
       <c r="N595" s="4"/>
       <c r="O595" s="4"/>
@@ -18077,7 +18122,7 @@
       <c r="I596" s="4"/>
       <c r="J596" s="4"/>
       <c r="K596" s="4"/>
-      <c r="L596" s="32"/>
+      <c r="L596" s="34"/>
       <c r="M596" s="4"/>
       <c r="N596" s="4"/>
       <c r="O596" s="4"/>
@@ -18105,7 +18150,7 @@
       <c r="I597" s="4"/>
       <c r="J597" s="4"/>
       <c r="K597" s="4"/>
-      <c r="L597" s="32"/>
+      <c r="L597" s="34"/>
       <c r="M597" s="4"/>
       <c r="N597" s="4"/>
       <c r="O597" s="4"/>
@@ -18133,7 +18178,7 @@
       <c r="I598" s="4"/>
       <c r="J598" s="4"/>
       <c r="K598" s="4"/>
-      <c r="L598" s="32"/>
+      <c r="L598" s="34"/>
       <c r="M598" s="4"/>
       <c r="N598" s="4"/>
       <c r="O598" s="4"/>
@@ -18161,7 +18206,7 @@
       <c r="I599" s="4"/>
       <c r="J599" s="4"/>
       <c r="K599" s="4"/>
-      <c r="L599" s="32"/>
+      <c r="L599" s="34"/>
       <c r="M599" s="4"/>
       <c r="N599" s="4"/>
       <c r="O599" s="4"/>
@@ -18189,7 +18234,7 @@
       <c r="I600" s="4"/>
       <c r="J600" s="4"/>
       <c r="K600" s="4"/>
-      <c r="L600" s="32"/>
+      <c r="L600" s="34"/>
       <c r="M600" s="4"/>
       <c r="N600" s="4"/>
       <c r="O600" s="4"/>
@@ -18217,7 +18262,7 @@
       <c r="I601" s="4"/>
       <c r="J601" s="4"/>
       <c r="K601" s="4"/>
-      <c r="L601" s="32"/>
+      <c r="L601" s="34"/>
       <c r="M601" s="4"/>
       <c r="N601" s="4"/>
       <c r="O601" s="4"/>
@@ -18245,7 +18290,7 @@
       <c r="I602" s="4"/>
       <c r="J602" s="4"/>
       <c r="K602" s="4"/>
-      <c r="L602" s="32"/>
+      <c r="L602" s="34"/>
       <c r="M602" s="4"/>
       <c r="N602" s="4"/>
       <c r="O602" s="4"/>
@@ -18273,7 +18318,7 @@
       <c r="I603" s="4"/>
       <c r="J603" s="4"/>
       <c r="K603" s="4"/>
-      <c r="L603" s="32"/>
+      <c r="L603" s="34"/>
       <c r="M603" s="4"/>
       <c r="N603" s="4"/>
       <c r="O603" s="4"/>
@@ -18301,7 +18346,7 @@
       <c r="I604" s="4"/>
       <c r="J604" s="4"/>
       <c r="K604" s="4"/>
-      <c r="L604" s="32"/>
+      <c r="L604" s="34"/>
       <c r="M604" s="4"/>
       <c r="N604" s="4"/>
       <c r="O604" s="4"/>
@@ -18329,7 +18374,7 @@
       <c r="I605" s="4"/>
       <c r="J605" s="4"/>
       <c r="K605" s="4"/>
-      <c r="L605" s="32"/>
+      <c r="L605" s="34"/>
       <c r="M605" s="4"/>
       <c r="N605" s="4"/>
       <c r="O605" s="4"/>
@@ -18357,7 +18402,7 @@
       <c r="I606" s="4"/>
       <c r="J606" s="4"/>
       <c r="K606" s="4"/>
-      <c r="L606" s="32"/>
+      <c r="L606" s="34"/>
       <c r="M606" s="4"/>
       <c r="N606" s="4"/>
       <c r="O606" s="4"/>
@@ -18385,7 +18430,7 @@
       <c r="I607" s="4"/>
       <c r="J607" s="4"/>
       <c r="K607" s="4"/>
-      <c r="L607" s="32"/>
+      <c r="L607" s="34"/>
       <c r="M607" s="4"/>
       <c r="N607" s="4"/>
       <c r="O607" s="4"/>
@@ -18413,7 +18458,7 @@
       <c r="I608" s="4"/>
       <c r="J608" s="4"/>
       <c r="K608" s="4"/>
-      <c r="L608" s="32"/>
+      <c r="L608" s="34"/>
       <c r="M608" s="4"/>
       <c r="N608" s="4"/>
       <c r="O608" s="4"/>
@@ -18441,7 +18486,7 @@
       <c r="I609" s="4"/>
       <c r="J609" s="4"/>
       <c r="K609" s="4"/>
-      <c r="L609" s="32"/>
+      <c r="L609" s="34"/>
       <c r="M609" s="4"/>
       <c r="N609" s="4"/>
       <c r="O609" s="4"/>
@@ -18469,7 +18514,7 @@
       <c r="I610" s="4"/>
       <c r="J610" s="4"/>
       <c r="K610" s="4"/>
-      <c r="L610" s="32"/>
+      <c r="L610" s="34"/>
       <c r="M610" s="4"/>
       <c r="N610" s="4"/>
       <c r="O610" s="4"/>
@@ -18497,7 +18542,7 @@
       <c r="I611" s="4"/>
       <c r="J611" s="4"/>
       <c r="K611" s="4"/>
-      <c r="L611" s="32"/>
+      <c r="L611" s="34"/>
       <c r="M611" s="4"/>
       <c r="N611" s="4"/>
       <c r="O611" s="4"/>
@@ -18525,7 +18570,7 @@
       <c r="I612" s="4"/>
       <c r="J612" s="4"/>
       <c r="K612" s="4"/>
-      <c r="L612" s="32"/>
+      <c r="L612" s="34"/>
       <c r="M612" s="4"/>
       <c r="N612" s="4"/>
       <c r="O612" s="4"/>
@@ -18553,7 +18598,7 @@
       <c r="I613" s="4"/>
       <c r="J613" s="4"/>
       <c r="K613" s="4"/>
-      <c r="L613" s="32"/>
+      <c r="L613" s="34"/>
       <c r="M613" s="4"/>
       <c r="N613" s="4"/>
       <c r="O613" s="4"/>
@@ -18581,7 +18626,7 @@
       <c r="I614" s="4"/>
       <c r="J614" s="4"/>
       <c r="K614" s="4"/>
-      <c r="L614" s="32"/>
+      <c r="L614" s="34"/>
       <c r="M614" s="4"/>
       <c r="N614" s="4"/>
       <c r="O614" s="4"/>
@@ -18609,7 +18654,7 @@
       <c r="I615" s="4"/>
       <c r="J615" s="4"/>
       <c r="K615" s="4"/>
-      <c r="L615" s="32"/>
+      <c r="L615" s="34"/>
       <c r="M615" s="4"/>
       <c r="N615" s="4"/>
       <c r="O615" s="4"/>
@@ -18637,7 +18682,7 @@
       <c r="I616" s="4"/>
       <c r="J616" s="4"/>
       <c r="K616" s="4"/>
-      <c r="L616" s="32"/>
+      <c r="L616" s="34"/>
       <c r="M616" s="4"/>
       <c r="N616" s="4"/>
       <c r="O616" s="4"/>
@@ -18665,7 +18710,7 @@
       <c r="I617" s="4"/>
       <c r="J617" s="4"/>
       <c r="K617" s="4"/>
-      <c r="L617" s="32"/>
+      <c r="L617" s="34"/>
       <c r="M617" s="4"/>
       <c r="N617" s="4"/>
       <c r="O617" s="4"/>
@@ -18693,7 +18738,7 @@
       <c r="I618" s="4"/>
       <c r="J618" s="4"/>
       <c r="K618" s="4"/>
-      <c r="L618" s="32"/>
+      <c r="L618" s="34"/>
       <c r="M618" s="4"/>
       <c r="N618" s="4"/>
       <c r="O618" s="4"/>
@@ -18721,7 +18766,7 @@
       <c r="I619" s="4"/>
       <c r="J619" s="4"/>
       <c r="K619" s="4"/>
-      <c r="L619" s="32"/>
+      <c r="L619" s="34"/>
       <c r="M619" s="4"/>
       <c r="N619" s="4"/>
       <c r="O619" s="4"/>
@@ -18749,7 +18794,7 @@
       <c r="I620" s="4"/>
       <c r="J620" s="4"/>
       <c r="K620" s="4"/>
-      <c r="L620" s="32"/>
+      <c r="L620" s="34"/>
       <c r="M620" s="4"/>
       <c r="N620" s="4"/>
       <c r="O620" s="4"/>
@@ -18777,7 +18822,7 @@
       <c r="I621" s="4"/>
       <c r="J621" s="4"/>
       <c r="K621" s="4"/>
-      <c r="L621" s="32"/>
+      <c r="L621" s="34"/>
       <c r="M621" s="4"/>
       <c r="N621" s="4"/>
       <c r="O621" s="4"/>
@@ -18805,7 +18850,7 @@
       <c r="I622" s="4"/>
       <c r="J622" s="4"/>
       <c r="K622" s="4"/>
-      <c r="L622" s="32"/>
+      <c r="L622" s="34"/>
       <c r="M622" s="4"/>
       <c r="N622" s="4"/>
       <c r="O622" s="4"/>
@@ -18833,7 +18878,7 @@
       <c r="I623" s="4"/>
       <c r="J623" s="4"/>
       <c r="K623" s="4"/>
-      <c r="L623" s="32"/>
+      <c r="L623" s="34"/>
       <c r="M623" s="4"/>
       <c r="N623" s="4"/>
       <c r="O623" s="4"/>
@@ -18861,7 +18906,7 @@
       <c r="I624" s="4"/>
       <c r="J624" s="4"/>
       <c r="K624" s="4"/>
-      <c r="L624" s="32"/>
+      <c r="L624" s="34"/>
       <c r="M624" s="4"/>
       <c r="N624" s="4"/>
       <c r="O624" s="4"/>
@@ -18889,7 +18934,7 @@
       <c r="I625" s="4"/>
       <c r="J625" s="4"/>
       <c r="K625" s="4"/>
-      <c r="L625" s="32"/>
+      <c r="L625" s="34"/>
       <c r="M625" s="4"/>
       <c r="N625" s="4"/>
       <c r="O625" s="4"/>
@@ -18917,7 +18962,7 @@
       <c r="I626" s="4"/>
       <c r="J626" s="4"/>
       <c r="K626" s="4"/>
-      <c r="L626" s="32"/>
+      <c r="L626" s="34"/>
       <c r="M626" s="4"/>
       <c r="N626" s="4"/>
       <c r="O626" s="4"/>
@@ -18945,7 +18990,7 @@
       <c r="I627" s="4"/>
       <c r="J627" s="4"/>
       <c r="K627" s="4"/>
-      <c r="L627" s="32"/>
+      <c r="L627" s="34"/>
       <c r="M627" s="4"/>
       <c r="N627" s="4"/>
       <c r="O627" s="4"/>
@@ -18973,7 +19018,7 @@
       <c r="I628" s="4"/>
       <c r="J628" s="4"/>
       <c r="K628" s="4"/>
-      <c r="L628" s="32"/>
+      <c r="L628" s="34"/>
       <c r="M628" s="4"/>
       <c r="N628" s="4"/>
       <c r="O628" s="4"/>
@@ -19001,7 +19046,7 @@
       <c r="I629" s="4"/>
       <c r="J629" s="4"/>
       <c r="K629" s="4"/>
-      <c r="L629" s="32"/>
+      <c r="L629" s="34"/>
       <c r="M629" s="4"/>
       <c r="N629" s="4"/>
       <c r="O629" s="4"/>
@@ -19029,7 +19074,7 @@
       <c r="I630" s="4"/>
       <c r="J630" s="4"/>
       <c r="K630" s="4"/>
-      <c r="L630" s="32"/>
+      <c r="L630" s="34"/>
       <c r="M630" s="4"/>
       <c r="N630" s="4"/>
       <c r="O630" s="4"/>
@@ -19057,7 +19102,7 @@
       <c r="I631" s="4"/>
       <c r="J631" s="4"/>
       <c r="K631" s="4"/>
-      <c r="L631" s="32"/>
+      <c r="L631" s="34"/>
       <c r="M631" s="4"/>
       <c r="N631" s="4"/>
       <c r="O631" s="4"/>
@@ -19085,7 +19130,7 @@
       <c r="I632" s="4"/>
       <c r="J632" s="4"/>
       <c r="K632" s="4"/>
-      <c r="L632" s="32"/>
+      <c r="L632" s="34"/>
       <c r="M632" s="4"/>
       <c r="N632" s="4"/>
       <c r="O632" s="4"/>
@@ -19113,7 +19158,7 @@
       <c r="I633" s="4"/>
       <c r="J633" s="4"/>
       <c r="K633" s="4"/>
-      <c r="L633" s="32"/>
+      <c r="L633" s="34"/>
       <c r="M633" s="4"/>
       <c r="N633" s="4"/>
       <c r="O633" s="4"/>
@@ -19141,7 +19186,7 @@
       <c r="I634" s="4"/>
       <c r="J634" s="4"/>
       <c r="K634" s="4"/>
-      <c r="L634" s="32"/>
+      <c r="L634" s="34"/>
       <c r="M634" s="4"/>
       <c r="N634" s="4"/>
       <c r="O634" s="4"/>
@@ -19169,7 +19214,7 @@
       <c r="I635" s="4"/>
       <c r="J635" s="4"/>
       <c r="K635" s="4"/>
-      <c r="L635" s="32"/>
+      <c r="L635" s="34"/>
       <c r="M635" s="4"/>
       <c r="N635" s="4"/>
       <c r="O635" s="4"/>
@@ -19197,7 +19242,7 @@
       <c r="I636" s="4"/>
       <c r="J636" s="4"/>
       <c r="K636" s="4"/>
-      <c r="L636" s="32"/>
+      <c r="L636" s="34"/>
       <c r="M636" s="4"/>
       <c r="N636" s="4"/>
       <c r="O636" s="4"/>
@@ -19225,7 +19270,7 @@
       <c r="I637" s="4"/>
       <c r="J637" s="4"/>
       <c r="K637" s="4"/>
-      <c r="L637" s="32"/>
+      <c r="L637" s="34"/>
       <c r="M637" s="4"/>
       <c r="N637" s="4"/>
       <c r="O637" s="4"/>
@@ -19253,7 +19298,7 @@
       <c r="I638" s="4"/>
       <c r="J638" s="4"/>
       <c r="K638" s="4"/>
-      <c r="L638" s="32"/>
+      <c r="L638" s="34"/>
       <c r="M638" s="4"/>
       <c r="N638" s="4"/>
       <c r="O638" s="4"/>
@@ -19281,7 +19326,7 @@
       <c r="I639" s="4"/>
       <c r="J639" s="4"/>
       <c r="K639" s="4"/>
-      <c r="L639" s="32"/>
+      <c r="L639" s="34"/>
       <c r="M639" s="4"/>
       <c r="N639" s="4"/>
       <c r="O639" s="4"/>
@@ -19309,7 +19354,7 @@
       <c r="I640" s="4"/>
       <c r="J640" s="4"/>
       <c r="K640" s="4"/>
-      <c r="L640" s="32"/>
+      <c r="L640" s="34"/>
       <c r="M640" s="4"/>
       <c r="N640" s="4"/>
       <c r="O640" s="4"/>
@@ -19337,7 +19382,7 @@
       <c r="I641" s="4"/>
       <c r="J641" s="4"/>
       <c r="K641" s="4"/>
-      <c r="L641" s="32"/>
+      <c r="L641" s="34"/>
       <c r="M641" s="4"/>
       <c r="N641" s="4"/>
       <c r="O641" s="4"/>
@@ -19365,7 +19410,7 @@
       <c r="I642" s="4"/>
       <c r="J642" s="4"/>
       <c r="K642" s="4"/>
-      <c r="L642" s="32"/>
+      <c r="L642" s="34"/>
       <c r="M642" s="4"/>
       <c r="N642" s="4"/>
       <c r="O642" s="4"/>
@@ -19393,7 +19438,7 @@
       <c r="I643" s="4"/>
       <c r="J643" s="4"/>
       <c r="K643" s="4"/>
-      <c r="L643" s="32"/>
+      <c r="L643" s="34"/>
       <c r="M643" s="4"/>
       <c r="N643" s="4"/>
       <c r="O643" s="4"/>
@@ -19421,7 +19466,7 @@
       <c r="I644" s="4"/>
       <c r="J644" s="4"/>
       <c r="K644" s="4"/>
-      <c r="L644" s="32"/>
+      <c r="L644" s="34"/>
       <c r="M644" s="4"/>
       <c r="N644" s="4"/>
       <c r="O644" s="4"/>
@@ -19449,7 +19494,7 @@
       <c r="I645" s="4"/>
       <c r="J645" s="4"/>
       <c r="K645" s="4"/>
-      <c r="L645" s="32"/>
+      <c r="L645" s="34"/>
       <c r="M645" s="4"/>
       <c r="N645" s="4"/>
       <c r="O645" s="4"/>
@@ -19477,7 +19522,7 @@
       <c r="I646" s="4"/>
       <c r="J646" s="4"/>
       <c r="K646" s="4"/>
-      <c r="L646" s="32"/>
+      <c r="L646" s="34"/>
       <c r="M646" s="4"/>
       <c r="N646" s="4"/>
       <c r="O646" s="4"/>
@@ -19505,7 +19550,7 @@
       <c r="I647" s="4"/>
       <c r="J647" s="4"/>
       <c r="K647" s="4"/>
-      <c r="L647" s="32"/>
+      <c r="L647" s="34"/>
       <c r="M647" s="4"/>
       <c r="N647" s="4"/>
       <c r="O647" s="4"/>
@@ -19533,7 +19578,7 @@
       <c r="I648" s="4"/>
       <c r="J648" s="4"/>
       <c r="K648" s="4"/>
-      <c r="L648" s="32"/>
+      <c r="L648" s="34"/>
       <c r="M648" s="4"/>
       <c r="N648" s="4"/>
       <c r="O648" s="4"/>
@@ -19561,7 +19606,7 @@
       <c r="I649" s="4"/>
       <c r="J649" s="4"/>
       <c r="K649" s="4"/>
-      <c r="L649" s="32"/>
+      <c r="L649" s="34"/>
       <c r="M649" s="4"/>
       <c r="N649" s="4"/>
       <c r="O649" s="4"/>
@@ -19589,7 +19634,7 @@
       <c r="I650" s="4"/>
       <c r="J650" s="4"/>
       <c r="K650" s="4"/>
-      <c r="L650" s="32"/>
+      <c r="L650" s="34"/>
       <c r="M650" s="4"/>
       <c r="N650" s="4"/>
       <c r="O650" s="4"/>
@@ -19617,7 +19662,7 @@
       <c r="I651" s="4"/>
       <c r="J651" s="4"/>
       <c r="K651" s="4"/>
-      <c r="L651" s="32"/>
+      <c r="L651" s="34"/>
       <c r="M651" s="4"/>
       <c r="N651" s="4"/>
       <c r="O651" s="4"/>
@@ -19645,7 +19690,7 @@
       <c r="I652" s="4"/>
       <c r="J652" s="4"/>
       <c r="K652" s="4"/>
-      <c r="L652" s="32"/>
+      <c r="L652" s="34"/>
       <c r="M652" s="4"/>
       <c r="N652" s="4"/>
       <c r="O652" s="4"/>
@@ -19673,7 +19718,7 @@
       <c r="I653" s="4"/>
       <c r="J653" s="4"/>
       <c r="K653" s="4"/>
-      <c r="L653" s="32"/>
+      <c r="L653" s="34"/>
       <c r="M653" s="4"/>
       <c r="N653" s="4"/>
       <c r="O653" s="4"/>
@@ -19701,7 +19746,7 @@
       <c r="I654" s="4"/>
       <c r="J654" s="4"/>
       <c r="K654" s="4"/>
-      <c r="L654" s="32"/>
+      <c r="L654" s="34"/>
       <c r="M654" s="4"/>
       <c r="N654" s="4"/>
       <c r="O654" s="4"/>
@@ -19729,7 +19774,7 @@
       <c r="I655" s="4"/>
       <c r="J655" s="4"/>
       <c r="K655" s="4"/>
-      <c r="L655" s="32"/>
+      <c r="L655" s="34"/>
       <c r="M655" s="4"/>
       <c r="N655" s="4"/>
       <c r="O655" s="4"/>
@@ -19757,7 +19802,7 @@
       <c r="I656" s="4"/>
       <c r="J656" s="4"/>
       <c r="K656" s="4"/>
-      <c r="L656" s="32"/>
+      <c r="L656" s="34"/>
       <c r="M656" s="4"/>
       <c r="N656" s="4"/>
       <c r="O656" s="4"/>
@@ -19785,7 +19830,7 @@
       <c r="I657" s="4"/>
       <c r="J657" s="4"/>
       <c r="K657" s="4"/>
-      <c r="L657" s="32"/>
+      <c r="L657" s="34"/>
       <c r="M657" s="4"/>
       <c r="N657" s="4"/>
       <c r="O657" s="4"/>
@@ -19813,7 +19858,7 @@
       <c r="I658" s="4"/>
       <c r="J658" s="4"/>
       <c r="K658" s="4"/>
-      <c r="L658" s="32"/>
+      <c r="L658" s="34"/>
       <c r="M658" s="4"/>
       <c r="N658" s="4"/>
       <c r="O658" s="4"/>
@@ -19841,7 +19886,7 @@
       <c r="I659" s="4"/>
       <c r="J659" s="4"/>
       <c r="K659" s="4"/>
-      <c r="L659" s="32"/>
+      <c r="L659" s="34"/>
       <c r="M659" s="4"/>
       <c r="N659" s="4"/>
       <c r="O659" s="4"/>
@@ -19869,7 +19914,7 @@
       <c r="I660" s="4"/>
       <c r="J660" s="4"/>
       <c r="K660" s="4"/>
-      <c r="L660" s="32"/>
+      <c r="L660" s="34"/>
       <c r="M660" s="4"/>
       <c r="N660" s="4"/>
       <c r="O660" s="4"/>
@@ -19897,7 +19942,7 @@
       <c r="I661" s="4"/>
       <c r="J661" s="4"/>
       <c r="K661" s="4"/>
-      <c r="L661" s="32"/>
+      <c r="L661" s="34"/>
       <c r="M661" s="4"/>
       <c r="N661" s="4"/>
       <c r="O661" s="4"/>
@@ -19925,7 +19970,7 @@
       <c r="I662" s="4"/>
       <c r="J662" s="4"/>
       <c r="K662" s="4"/>
-      <c r="L662" s="32"/>
+      <c r="L662" s="34"/>
       <c r="M662" s="4"/>
       <c r="N662" s="4"/>
       <c r="O662" s="4"/>
@@ -19953,7 +19998,7 @@
       <c r="I663" s="4"/>
       <c r="J663" s="4"/>
       <c r="K663" s="4"/>
-      <c r="L663" s="32"/>
+      <c r="L663" s="34"/>
       <c r="M663" s="4"/>
       <c r="N663" s="4"/>
       <c r="O663" s="4"/>
@@ -19981,7 +20026,7 @@
       <c r="I664" s="4"/>
       <c r="J664" s="4"/>
       <c r="K664" s="4"/>
-      <c r="L664" s="32"/>
+      <c r="L664" s="34"/>
       <c r="M664" s="4"/>
       <c r="N664" s="4"/>
       <c r="O664" s="4"/>
@@ -20009,7 +20054,7 @@
       <c r="I665" s="4"/>
       <c r="J665" s="4"/>
       <c r="K665" s="4"/>
-      <c r="L665" s="32"/>
+      <c r="L665" s="34"/>
       <c r="M665" s="4"/>
       <c r="N665" s="4"/>
       <c r="O665" s="4"/>
@@ -20037,7 +20082,7 @@
       <c r="I666" s="4"/>
       <c r="J666" s="4"/>
       <c r="K666" s="4"/>
-      <c r="L666" s="32"/>
+      <c r="L666" s="34"/>
       <c r="M666" s="4"/>
       <c r="N666" s="4"/>
       <c r="O666" s="4"/>
@@ -20065,7 +20110,7 @@
       <c r="I667" s="4"/>
       <c r="J667" s="4"/>
       <c r="K667" s="4"/>
-      <c r="L667" s="32"/>
+      <c r="L667" s="34"/>
       <c r="M667" s="4"/>
       <c r="N667" s="4"/>
       <c r="O667" s="4"/>
@@ -20093,7 +20138,7 @@
       <c r="I668" s="4"/>
       <c r="J668" s="4"/>
       <c r="K668" s="4"/>
-      <c r="L668" s="32"/>
+      <c r="L668" s="34"/>
       <c r="M668" s="4"/>
       <c r="N668" s="4"/>
       <c r="O668" s="4"/>
@@ -20121,7 +20166,7 @@
       <c r="I669" s="4"/>
       <c r="J669" s="4"/>
       <c r="K669" s="4"/>
-      <c r="L669" s="32"/>
+      <c r="L669" s="34"/>
       <c r="M669" s="4"/>
       <c r="N669" s="4"/>
       <c r="O669" s="4"/>
@@ -20149,7 +20194,7 @@
       <c r="I670" s="4"/>
       <c r="J670" s="4"/>
       <c r="K670" s="4"/>
-      <c r="L670" s="32"/>
+      <c r="L670" s="34"/>
       <c r="M670" s="4"/>
       <c r="N670" s="4"/>
       <c r="O670" s="4"/>
@@ -20177,7 +20222,7 @@
       <c r="I671" s="4"/>
       <c r="J671" s="4"/>
       <c r="K671" s="4"/>
-      <c r="L671" s="32"/>
+      <c r="L671" s="34"/>
       <c r="M671" s="4"/>
       <c r="N671" s="4"/>
       <c r="O671" s="4"/>
@@ -20205,7 +20250,7 @@
       <c r="I672" s="4"/>
       <c r="J672" s="4"/>
       <c r="K672" s="4"/>
-      <c r="L672" s="32"/>
+      <c r="L672" s="34"/>
       <c r="M672" s="4"/>
       <c r="N672" s="4"/>
       <c r="O672" s="4"/>
@@ -20233,7 +20278,7 @@
       <c r="I673" s="4"/>
       <c r="J673" s="4"/>
       <c r="K673" s="4"/>
-      <c r="L673" s="32"/>
+      <c r="L673" s="34"/>
       <c r="M673" s="4"/>
       <c r="N673" s="4"/>
       <c r="O673" s="4"/>
@@ -20261,7 +20306,7 @@
       <c r="I674" s="4"/>
       <c r="J674" s="4"/>
       <c r="K674" s="4"/>
-      <c r="L674" s="32"/>
+      <c r="L674" s="34"/>
       <c r="M674" s="4"/>
       <c r="N674" s="4"/>
       <c r="O674" s="4"/>
@@ -20289,7 +20334,7 @@
       <c r="I675" s="4"/>
       <c r="J675" s="4"/>
       <c r="K675" s="4"/>
-      <c r="L675" s="32"/>
+      <c r="L675" s="34"/>
       <c r="M675" s="4"/>
       <c r="N675" s="4"/>
       <c r="O675" s="4"/>
@@ -20317,7 +20362,7 @@
       <c r="I676" s="4"/>
       <c r="J676" s="4"/>
       <c r="K676" s="4"/>
-      <c r="L676" s="32"/>
+      <c r="L676" s="34"/>
       <c r="M676" s="4"/>
       <c r="N676" s="4"/>
       <c r="O676" s="4"/>
@@ -20345,7 +20390,7 @@
       <c r="I677" s="4"/>
       <c r="J677" s="4"/>
       <c r="K677" s="4"/>
-      <c r="L677" s="32"/>
+      <c r="L677" s="34"/>
       <c r="M677" s="4"/>
       <c r="N677" s="4"/>
       <c r="O677" s="4"/>
@@ -20373,7 +20418,7 @@
       <c r="I678" s="4"/>
       <c r="J678" s="4"/>
       <c r="K678" s="4"/>
-      <c r="L678" s="32"/>
+      <c r="L678" s="34"/>
       <c r="M678" s="4"/>
       <c r="N678" s="4"/>
       <c r="O678" s="4"/>
@@ -20401,7 +20446,7 @@
       <c r="I679" s="4"/>
       <c r="J679" s="4"/>
       <c r="K679" s="4"/>
-      <c r="L679" s="32"/>
+      <c r="L679" s="34"/>
       <c r="M679" s="4"/>
       <c r="N679" s="4"/>
       <c r="O679" s="4"/>
@@ -20429,7 +20474,7 @@
       <c r="I680" s="4"/>
       <c r="J680" s="4"/>
       <c r="K680" s="4"/>
-      <c r="L680" s="32"/>
+      <c r="L680" s="34"/>
       <c r="M680" s="4"/>
       <c r="N680" s="4"/>
       <c r="O680" s="4"/>
@@ -20457,7 +20502,7 @@
       <c r="I681" s="4"/>
       <c r="J681" s="4"/>
       <c r="K681" s="4"/>
-      <c r="L681" s="32"/>
+      <c r="L681" s="34"/>
       <c r="M681" s="4"/>
       <c r="N681" s="4"/>
       <c r="O681" s="4"/>
@@ -20485,7 +20530,7 @@
       <c r="I682" s="4"/>
       <c r="J682" s="4"/>
       <c r="K682" s="4"/>
-      <c r="L682" s="32"/>
+      <c r="L682" s="34"/>
       <c r="M682" s="4"/>
       <c r="N682" s="4"/>
       <c r="O682" s="4"/>
@@ -20513,7 +20558,7 @@
       <c r="I683" s="4"/>
       <c r="J683" s="4"/>
       <c r="K683" s="4"/>
-      <c r="L683" s="32"/>
+      <c r="L683" s="34"/>
       <c r="M683" s="4"/>
       <c r="N683" s="4"/>
       <c r="O683" s="4"/>
@@ -20541,7 +20586,7 @@
       <c r="I684" s="4"/>
       <c r="J684" s="4"/>
       <c r="K684" s="4"/>
-      <c r="L684" s="32"/>
+      <c r="L684" s="34"/>
       <c r="M684" s="4"/>
       <c r="N684" s="4"/>
       <c r="O684" s="4"/>
@@ -20569,7 +20614,7 @@
       <c r="I685" s="4"/>
       <c r="J685" s="4"/>
       <c r="K685" s="4"/>
-      <c r="L685" s="32"/>
+      <c r="L685" s="34"/>
       <c r="M685" s="4"/>
       <c r="N685" s="4"/>
       <c r="O685" s="4"/>
@@ -20597,7 +20642,7 @@
       <c r="I686" s="4"/>
       <c r="J686" s="4"/>
       <c r="K686" s="4"/>
-      <c r="L686" s="32"/>
+      <c r="L686" s="34"/>
       <c r="M686" s="4"/>
       <c r="N686" s="4"/>
       <c r="O686" s="4"/>
@@ -20625,7 +20670,7 @@
       <c r="I687" s="4"/>
       <c r="J687" s="4"/>
       <c r="K687" s="4"/>
-      <c r="L687" s="32"/>
+      <c r="L687" s="34"/>
       <c r="M687" s="4"/>
       <c r="N687" s="4"/>
       <c r="O687" s="4"/>
@@ -20653,7 +20698,7 @@
       <c r="I688" s="4"/>
       <c r="J688" s="4"/>
       <c r="K688" s="4"/>
-      <c r="L688" s="32"/>
+      <c r="L688" s="34"/>
       <c r="M688" s="4"/>
       <c r="N688" s="4"/>
       <c r="O688" s="4"/>
@@ -20681,7 +20726,7 @@
       <c r="I689" s="4"/>
       <c r="J689" s="4"/>
       <c r="K689" s="4"/>
-      <c r="L689" s="32"/>
+      <c r="L689" s="34"/>
       <c r="M689" s="4"/>
       <c r="N689" s="4"/>
       <c r="O689" s="4"/>
@@ -20709,7 +20754,7 @@
       <c r="I690" s="4"/>
       <c r="J690" s="4"/>
       <c r="K690" s="4"/>
-      <c r="L690" s="32"/>
+      <c r="L690" s="34"/>
       <c r="M690" s="4"/>
       <c r="N690" s="4"/>
       <c r="O690" s="4"/>
@@ -20737,7 +20782,7 @@
       <c r="I691" s="4"/>
       <c r="J691" s="4"/>
       <c r="K691" s="4"/>
-      <c r="L691" s="32"/>
+      <c r="L691" s="34"/>
       <c r="M691" s="4"/>
       <c r="N691" s="4"/>
       <c r="O691" s="4"/>
@@ -20765,7 +20810,7 @@
       <c r="I692" s="4"/>
       <c r="J692" s="4"/>
       <c r="K692" s="4"/>
-      <c r="L692" s="32"/>
+      <c r="L692" s="34"/>
       <c r="M692" s="4"/>
       <c r="N692" s="4"/>
       <c r="O692" s="4"/>
@@ -20793,7 +20838,7 @@
       <c r="I693" s="4"/>
       <c r="J693" s="4"/>
       <c r="K693" s="4"/>
-      <c r="L693" s="32"/>
+      <c r="L693" s="34"/>
       <c r="M693" s="4"/>
       <c r="N693" s="4"/>
       <c r="O693" s="4"/>
@@ -20821,7 +20866,7 @@
       <c r="I694" s="4"/>
       <c r="J694" s="4"/>
       <c r="K694" s="4"/>
-      <c r="L694" s="32"/>
+      <c r="L694" s="34"/>
       <c r="M694" s="4"/>
       <c r="N694" s="4"/>
       <c r="O694" s="4"/>
@@ -20849,7 +20894,7 @@
       <c r="I695" s="4"/>
       <c r="J695" s="4"/>
       <c r="K695" s="4"/>
-      <c r="L695" s="32"/>
+      <c r="L695" s="34"/>
       <c r="M695" s="4"/>
       <c r="N695" s="4"/>
       <c r="O695" s="4"/>
@@ -20877,7 +20922,7 @@
       <c r="I696" s="4"/>
       <c r="J696" s="4"/>
       <c r="K696" s="4"/>
-      <c r="L696" s="32"/>
+      <c r="L696" s="34"/>
       <c r="M696" s="4"/>
       <c r="N696" s="4"/>
       <c r="O696" s="4"/>
@@ -20905,7 +20950,7 @@
       <c r="I697" s="4"/>
       <c r="J697" s="4"/>
       <c r="K697" s="4"/>
-      <c r="L697" s="32"/>
+      <c r="L697" s="34"/>
       <c r="M697" s="4"/>
       <c r="N697" s="4"/>
       <c r="O697" s="4"/>
@@ -20933,7 +20978,7 @@
       <c r="I698" s="4"/>
       <c r="J698" s="4"/>
       <c r="K698" s="4"/>
-      <c r="L698" s="32"/>
+      <c r="L698" s="34"/>
       <c r="M698" s="4"/>
       <c r="N698" s="4"/>
       <c r="O698" s="4"/>
@@ -20961,7 +21006,7 @@
       <c r="I699" s="4"/>
       <c r="J699" s="4"/>
       <c r="K699" s="4"/>
-      <c r="L699" s="32"/>
+      <c r="L699" s="34"/>
       <c r="M699" s="4"/>
       <c r="N699" s="4"/>
       <c r="O699" s="4"/>
@@ -20989,7 +21034,7 @@
       <c r="I700" s="4"/>
       <c r="J700" s="4"/>
       <c r="K700" s="4"/>
-      <c r="L700" s="32"/>
+      <c r="L700" s="34"/>
       <c r="M700" s="4"/>
       <c r="N700" s="4"/>
       <c r="O700" s="4"/>
@@ -21017,7 +21062,7 @@
       <c r="I701" s="4"/>
       <c r="J701" s="4"/>
       <c r="K701" s="4"/>
-      <c r="L701" s="32"/>
+      <c r="L701" s="34"/>
       <c r="M701" s="4"/>
       <c r="N701" s="4"/>
       <c r="O701" s="4"/>
@@ -21045,7 +21090,7 @@
       <c r="I702" s="4"/>
       <c r="J702" s="4"/>
       <c r="K702" s="4"/>
-      <c r="L702" s="32"/>
+      <c r="L702" s="34"/>
       <c r="M702" s="4"/>
       <c r="N702" s="4"/>
       <c r="O702" s="4"/>
@@ -21073,7 +21118,7 @@
       <c r="I703" s="4"/>
       <c r="J703" s="4"/>
       <c r="K703" s="4"/>
-      <c r="L703" s="32"/>
+      <c r="L703" s="34"/>
       <c r="M703" s="4"/>
       <c r="N703" s="4"/>
       <c r="O703" s="4"/>
@@ -21101,7 +21146,7 @@
       <c r="I704" s="4"/>
       <c r="J704" s="4"/>
       <c r="K704" s="4"/>
-      <c r="L704" s="32"/>
+      <c r="L704" s="34"/>
       <c r="M704" s="4"/>
       <c r="N704" s="4"/>
       <c r="O704" s="4"/>
@@ -21129,7 +21174,7 @@
       <c r="I705" s="4"/>
       <c r="J705" s="4"/>
       <c r="K705" s="4"/>
-      <c r="L705" s="32"/>
+      <c r="L705" s="34"/>
       <c r="M705" s="4"/>
       <c r="N705" s="4"/>
       <c r="O705" s="4"/>
@@ -21157,7 +21202,7 @@
       <c r="I706" s="4"/>
       <c r="J706" s="4"/>
       <c r="K706" s="4"/>
-      <c r="L706" s="32"/>
+      <c r="L706" s="34"/>
       <c r="M706" s="4"/>
       <c r="N706" s="4"/>
       <c r="O706" s="4"/>
@@ -21185,7 +21230,7 @@
       <c r="I707" s="4"/>
       <c r="J707" s="4"/>
       <c r="K707" s="4"/>
-      <c r="L707" s="32"/>
+      <c r="L707" s="34"/>
       <c r="M707" s="4"/>
       <c r="N707" s="4"/>
       <c r="O707" s="4"/>
@@ -21213,7 +21258,7 @@
       <c r="I708" s="4"/>
       <c r="J708" s="4"/>
       <c r="K708" s="4"/>
-      <c r="L708" s="32"/>
+      <c r="L708" s="34"/>
       <c r="M708" s="4"/>
       <c r="N708" s="4"/>
       <c r="O708" s="4"/>
@@ -21241,7 +21286,7 @@
       <c r="I709" s="4"/>
       <c r="J709" s="4"/>
       <c r="K709" s="4"/>
-      <c r="L709" s="32"/>
+      <c r="L709" s="34"/>
       <c r="M709" s="4"/>
       <c r="N709" s="4"/>
       <c r="O709" s="4"/>
@@ -21269,7 +21314,7 @@
       <c r="I710" s="4"/>
       <c r="J710" s="4"/>
       <c r="K710" s="4"/>
-      <c r="L710" s="32"/>
+      <c r="L710" s="34"/>
       <c r="M710" s="4"/>
       <c r="N710" s="4"/>
       <c r="O710" s="4"/>
@@ -21297,7 +21342,7 @@
       <c r="I711" s="4"/>
       <c r="J711" s="4"/>
       <c r="K711" s="4"/>
-      <c r="L711" s="32"/>
+      <c r="L711" s="34"/>
       <c r="M711" s="4"/>
       <c r="N711" s="4"/>
       <c r="O711" s="4"/>
@@ -21325,7 +21370,7 @@
       <c r="I712" s="4"/>
       <c r="J712" s="4"/>
       <c r="K712" s="4"/>
-      <c r="L712" s="32"/>
+      <c r="L712" s="34"/>
       <c r="M712" s="4"/>
       <c r="N712" s="4"/>
       <c r="O712" s="4"/>
@@ -21353,7 +21398,7 @@
       <c r="I713" s="4"/>
       <c r="J713" s="4"/>
       <c r="K713" s="4"/>
-      <c r="L713" s="32"/>
+      <c r="L713" s="34"/>
       <c r="M713" s="4"/>
       <c r="N713" s="4"/>
       <c r="O713" s="4"/>
@@ -21381,7 +21426,7 @@
       <c r="I714" s="4"/>
       <c r="J714" s="4"/>
       <c r="K714" s="4"/>
-      <c r="L714" s="32"/>
+      <c r="L714" s="34"/>
       <c r="M714" s="4"/>
       <c r="N714" s="4"/>
       <c r="O714" s="4"/>
@@ -21409,7 +21454,7 @@
       <c r="I715" s="4"/>
       <c r="J715" s="4"/>
       <c r="K715" s="4"/>
-      <c r="L715" s="32"/>
+      <c r="L715" s="34"/>
       <c r="M715" s="4"/>
       <c r="N715" s="4"/>
       <c r="O715" s="4"/>
@@ -21437,7 +21482,7 @@
       <c r="I716" s="4"/>
       <c r="J716" s="4"/>
       <c r="K716" s="4"/>
-      <c r="L716" s="32"/>
+      <c r="L716" s="34"/>
       <c r="M716" s="4"/>
       <c r="N716" s="4"/>
       <c r="O716" s="4"/>
@@ -21465,7 +21510,7 @@
       <c r="I717" s="4"/>
       <c r="J717" s="4"/>
       <c r="K717" s="4"/>
-      <c r="L717" s="32"/>
+      <c r="L717" s="34"/>
       <c r="M717" s="4"/>
       <c r="N717" s="4"/>
       <c r="O717" s="4"/>
@@ -21493,7 +21538,7 @@
       <c r="I718" s="4"/>
       <c r="J718" s="4"/>
       <c r="K718" s="4"/>
-      <c r="L718" s="32"/>
+      <c r="L718" s="34"/>
       <c r="M718" s="4"/>
       <c r="N718" s="4"/>
       <c r="O718" s="4"/>
@@ -21521,7 +21566,7 @@
       <c r="I719" s="4"/>
       <c r="J719" s="4"/>
       <c r="K719" s="4"/>
-      <c r="L719" s="32"/>
+      <c r="L719" s="34"/>
       <c r="M719" s="4"/>
       <c r="N719" s="4"/>
       <c r="O719" s="4"/>
@@ -21549,7 +21594,7 @@
       <c r="I720" s="4"/>
       <c r="J720" s="4"/>
       <c r="K720" s="4"/>
-      <c r="L720" s="32"/>
+      <c r="L720" s="34"/>
       <c r="M720" s="4"/>
       <c r="N720" s="4"/>
       <c r="O720" s="4"/>
@@ -21577,7 +21622,7 @@
       <c r="I721" s="4"/>
       <c r="J721" s="4"/>
       <c r="K721" s="4"/>
-      <c r="L721" s="32"/>
+      <c r="L721" s="34"/>
       <c r="M721" s="4"/>
       <c r="N721" s="4"/>
       <c r="O721" s="4"/>
@@ -21605,7 +21650,7 @@
       <c r="I722" s="4"/>
       <c r="J722" s="4"/>
       <c r="K722" s="4"/>
-      <c r="L722" s="32"/>
+      <c r="L722" s="34"/>
       <c r="M722" s="4"/>
       <c r="N722" s="4"/>
       <c r="O722" s="4"/>
@@ -21633,7 +21678,7 @@
       <c r="I723" s="4"/>
       <c r="J723" s="4"/>
       <c r="K723" s="4"/>
-      <c r="L723" s="32"/>
+      <c r="L723" s="34"/>
       <c r="M723" s="4"/>
       <c r="N723" s="4"/>
       <c r="O723" s="4"/>
@@ -21661,7 +21706,7 @@
       <c r="I724" s="4"/>
       <c r="J724" s="4"/>
       <c r="K724" s="4"/>
-      <c r="L724" s="32"/>
+      <c r="L724" s="34"/>
       <c r="M724" s="4"/>
       <c r="N724" s="4"/>
       <c r="O724" s="4"/>
@@ -21689,7 +21734,7 @@
       <c r="I725" s="4"/>
       <c r="J725" s="4"/>
       <c r="K725" s="4"/>
-      <c r="L725" s="32"/>
+      <c r="L725" s="34"/>
       <c r="M725" s="4"/>
       <c r="N725" s="4"/>
       <c r="O725" s="4"/>
@@ -21717,7 +21762,7 @@
       <c r="I726" s="4"/>
       <c r="J726" s="4"/>
       <c r="K726" s="4"/>
-      <c r="L726" s="32"/>
+      <c r="L726" s="34"/>
       <c r="M726" s="4"/>
       <c r="N726" s="4"/>
       <c r="O726" s="4"/>
@@ -21745,7 +21790,7 @@
       <c r="I727" s="4"/>
       <c r="J727" s="4"/>
       <c r="K727" s="4"/>
-      <c r="L727" s="32"/>
+      <c r="L727" s="34"/>
       <c r="M727" s="4"/>
       <c r="N727" s="4"/>
       <c r="O727" s="4"/>
@@ -21773,7 +21818,7 @@
       <c r="I728" s="4"/>
       <c r="J728" s="4"/>
       <c r="K728" s="4"/>
-      <c r="L728" s="32"/>
+      <c r="L728" s="34"/>
       <c r="M728" s="4"/>
       <c r="N728" s="4"/>
       <c r="O728" s="4"/>
@@ -21801,7 +21846,7 @@
       <c r="I729" s="4"/>
       <c r="J729" s="4"/>
       <c r="K729" s="4"/>
-      <c r="L729" s="32"/>
+      <c r="L729" s="34"/>
       <c r="M729" s="4"/>
       <c r="N729" s="4"/>
       <c r="O729" s="4"/>
@@ -21829,7 +21874,7 @@
       <c r="I730" s="4"/>
       <c r="J730" s="4"/>
       <c r="K730" s="4"/>
-      <c r="L730" s="32"/>
+      <c r="L730" s="34"/>
       <c r="M730" s="4"/>
       <c r="N730" s="4"/>
       <c r="O730" s="4"/>
@@ -21857,7 +21902,7 @@
       <c r="I731" s="4"/>
       <c r="J731" s="4"/>
       <c r="K731" s="4"/>
-      <c r="L731" s="32"/>
+      <c r="L731" s="34"/>
       <c r="M731" s="4"/>
       <c r="N731" s="4"/>
       <c r="O731" s="4"/>
@@ -21885,7 +21930,7 @@
       <c r="I732" s="4"/>
       <c r="J732" s="4"/>
       <c r="K732" s="4"/>
-      <c r="L732" s="32"/>
+      <c r="L732" s="34"/>
       <c r="M732" s="4"/>
       <c r="N732" s="4"/>
       <c r="O732" s="4"/>
@@ -21913,7 +21958,7 @@
       <c r="I733" s="4"/>
       <c r="J733" s="4"/>
       <c r="K733" s="4"/>
-      <c r="L733" s="32"/>
+      <c r="L733" s="34"/>
       <c r="M733" s="4"/>
       <c r="N733" s="4"/>
       <c r="O733" s="4"/>
@@ -21941,7 +21986,7 @@
       <c r="I734" s="4"/>
       <c r="J734" s="4"/>
       <c r="K734" s="4"/>
-      <c r="L734" s="32"/>
+      <c r="L734" s="34"/>
       <c r="M734" s="4"/>
       <c r="N734" s="4"/>
       <c r="O734" s="4"/>
@@ -21969,7 +22014,7 @@
       <c r="I735" s="4"/>
       <c r="J735" s="4"/>
       <c r="K735" s="4"/>
-      <c r="L735" s="32"/>
+      <c r="L735" s="34"/>
       <c r="M735" s="4"/>
       <c r="N735" s="4"/>
       <c r="O735" s="4"/>
@@ -21997,7 +22042,7 @@
       <c r="I736" s="4"/>
       <c r="J736" s="4"/>
       <c r="K736" s="4"/>
-      <c r="L736" s="32"/>
+      <c r="L736" s="34"/>
       <c r="M736" s="4"/>
       <c r="N736" s="4"/>
       <c r="O736" s="4"/>
@@ -22025,7 +22070,7 @@
       <c r="I737" s="4"/>
       <c r="J737" s="4"/>
       <c r="K737" s="4"/>
-      <c r="L737" s="32"/>
+      <c r="L737" s="34"/>
       <c r="M737" s="4"/>
       <c r="N737" s="4"/>
       <c r="O737" s="4"/>
@@ -22053,7 +22098,7 @@
       <c r="I738" s="4"/>
       <c r="J738" s="4"/>
       <c r="K738" s="4"/>
-      <c r="L738" s="32"/>
+      <c r="L738" s="34"/>
       <c r="M738" s="4"/>
       <c r="N738" s="4"/>
       <c r="O738" s="4"/>
@@ -22081,7 +22126,7 @@
       <c r="I739" s="4"/>
       <c r="J739" s="4"/>
       <c r="K739" s="4"/>
-      <c r="L739" s="32"/>
+      <c r="L739" s="34"/>
       <c r="M739" s="4"/>
       <c r="N739" s="4"/>
       <c r="O739" s="4"/>
@@ -22109,7 +22154,7 @@
       <c r="I740" s="4"/>
       <c r="J740" s="4"/>
       <c r="K740" s="4"/>
-      <c r="L740" s="32"/>
+      <c r="L740" s="34"/>
       <c r="M740" s="4"/>
       <c r="N740" s="4"/>
       <c r="O740" s="4"/>
@@ -22137,7 +22182,7 @@
       <c r="I741" s="4"/>
       <c r="J741" s="4"/>
       <c r="K741" s="4"/>
-      <c r="L741" s="32"/>
+      <c r="L741" s="34"/>
       <c r="M741" s="4"/>
       <c r="N741" s="4"/>
       <c r="O741" s="4"/>
@@ -22165,7 +22210,7 @@
       <c r="I742" s="4"/>
       <c r="J742" s="4"/>
       <c r="K742" s="4"/>
-      <c r="L742" s="32"/>
+      <c r="L742" s="34"/>
       <c r="M742" s="4"/>
       <c r="N742" s="4"/>
       <c r="O742" s="4"/>
@@ -22193,7 +22238,7 @@
       <c r="I743" s="4"/>
       <c r="J743" s="4"/>
       <c r="K743" s="4"/>
-      <c r="L743" s="32"/>
+      <c r="L743" s="34"/>
       <c r="M743" s="4"/>
       <c r="N743" s="4"/>
       <c r="O743" s="4"/>
@@ -22221,7 +22266,7 @@
       <c r="I744" s="4"/>
       <c r="J744" s="4"/>
       <c r="K744" s="4"/>
-      <c r="L744" s="32"/>
+      <c r="L744" s="34"/>
       <c r="M744" s="4"/>
       <c r="N744" s="4"/>
       <c r="O744" s="4"/>
@@ -22249,7 +22294,7 @@
       <c r="I745" s="4"/>
       <c r="J745" s="4"/>
       <c r="K745" s="4"/>
-      <c r="L745" s="32"/>
+      <c r="L745" s="34"/>
       <c r="M745" s="4"/>
       <c r="N745" s="4"/>
       <c r="O745" s="4"/>
@@ -22277,7 +22322,7 @@
       <c r="I746" s="4"/>
       <c r="J746" s="4"/>
       <c r="K746" s="4"/>
-      <c r="L746" s="32"/>
+      <c r="L746" s="34"/>
       <c r="M746" s="4"/>
       <c r="N746" s="4"/>
       <c r="O746" s="4"/>
@@ -22305,7 +22350,7 @@
       <c r="I747" s="4"/>
       <c r="J747" s="4"/>
       <c r="K747" s="4"/>
-      <c r="L747" s="32"/>
+      <c r="L747" s="34"/>
       <c r="M747" s="4"/>
       <c r="N747" s="4"/>
       <c r="O747" s="4"/>
@@ -22333,7 +22378,7 @@
       <c r="I748" s="4"/>
       <c r="J748" s="4"/>
       <c r="K748" s="4"/>
-      <c r="L748" s="32"/>
+      <c r="L748" s="34"/>
       <c r="M748" s="4"/>
       <c r="N748" s="4"/>
       <c r="O748" s="4"/>
@@ -22361,7 +22406,7 @@
       <c r="I749" s="4"/>
       <c r="J749" s="4"/>
       <c r="K749" s="4"/>
-      <c r="L749" s="32"/>
+      <c r="L749" s="34"/>
       <c r="M749" s="4"/>
       <c r="N749" s="4"/>
       <c r="O749" s="4"/>
@@ -22389,7 +22434,7 @@
       <c r="I750" s="4"/>
       <c r="J750" s="4"/>
       <c r="K750" s="4"/>
-      <c r="L750" s="32"/>
+      <c r="L750" s="34"/>
       <c r="M750" s="4"/>
       <c r="N750" s="4"/>
       <c r="O750" s="4"/>
@@ -22417,7 +22462,7 @@
       <c r="I751" s="4"/>
       <c r="J751" s="4"/>
       <c r="K751" s="4"/>
-      <c r="L751" s="32"/>
+      <c r="L751" s="34"/>
       <c r="M751" s="4"/>
       <c r="N751" s="4"/>
       <c r="O751" s="4"/>
@@ -22445,7 +22490,7 @@
       <c r="I752" s="4"/>
       <c r="J752" s="4"/>
       <c r="K752" s="4"/>
-      <c r="L752" s="32"/>
+      <c r="L752" s="34"/>
       <c r="M752" s="4"/>
       <c r="N752" s="4"/>
       <c r="O752" s="4"/>
@@ -22473,7 +22518,7 @@
       <c r="I753" s="4"/>
       <c r="J753" s="4"/>
       <c r="K753" s="4"/>
-      <c r="L753" s="32"/>
+      <c r="L753" s="34"/>
       <c r="M753" s="4"/>
       <c r="N753" s="4"/>
       <c r="O753" s="4"/>
@@ -22501,7 +22546,7 @@
       <c r="I754" s="4"/>
       <c r="J754" s="4"/>
       <c r="K754" s="4"/>
-      <c r="L754" s="32"/>
+      <c r="L754" s="34"/>
       <c r="M754" s="4"/>
       <c r="N754" s="4"/>
       <c r="O754" s="4"/>
@@ -22529,7 +22574,7 @@
       <c r="I755" s="4"/>
       <c r="J755" s="4"/>
       <c r="K755" s="4"/>
-      <c r="L755" s="32"/>
+      <c r="L755" s="34"/>
       <c r="M755" s="4"/>
       <c r="N755" s="4"/>
       <c r="O755" s="4"/>
@@ -22557,7 +22602,7 @@
       <c r="I756" s="4"/>
       <c r="J756" s="4"/>
       <c r="K756" s="4"/>
-      <c r="L756" s="32"/>
+      <c r="L756" s="34"/>
       <c r="M756" s="4"/>
       <c r="N756" s="4"/>
       <c r="O756" s="4"/>
@@ -22585,7 +22630,7 @@
       <c r="I757" s="4"/>
       <c r="J757" s="4"/>
       <c r="K757" s="4"/>
-      <c r="L757" s="32"/>
+      <c r="L757" s="34"/>
       <c r="M757" s="4"/>
       <c r="N757" s="4"/>
       <c r="O757" s="4"/>
@@ -22613,7 +22658,7 @@
       <c r="I758" s="4"/>
       <c r="J758" s="4"/>
       <c r="K758" s="4"/>
-      <c r="L758" s="32"/>
+      <c r="L758" s="34"/>
       <c r="M758" s="4"/>
       <c r="N758" s="4"/>
       <c r="O758" s="4"/>
@@ -22641,7 +22686,7 @@
       <c r="I759" s="4"/>
       <c r="J759" s="4"/>
       <c r="K759" s="4"/>
-      <c r="L759" s="32"/>
+      <c r="L759" s="34"/>
       <c r="M759" s="4"/>
       <c r="N759" s="4"/>
       <c r="O759" s="4"/>
@@ -22669,7 +22714,7 @@
       <c r="I760" s="4"/>
       <c r="J760" s="4"/>
       <c r="K760" s="4"/>
-      <c r="L760" s="32"/>
+      <c r="L760" s="34"/>
       <c r="M760" s="4"/>
       <c r="N760" s="4"/>
       <c r="O760" s="4"/>
@@ -22697,7 +22742,7 @@
       <c r="I761" s="4"/>
       <c r="J761" s="4"/>
       <c r="K761" s="4"/>
-      <c r="L761" s="32"/>
+      <c r="L761" s="34"/>
       <c r="M761" s="4"/>
       <c r="N761" s="4"/>
       <c r="O761" s="4"/>
@@ -22725,7 +22770,7 @@
       <c r="I762" s="4"/>
       <c r="J762" s="4"/>
       <c r="K762" s="4"/>
-      <c r="L762" s="32"/>
+      <c r="L762" s="34"/>
       <c r="M762" s="4"/>
       <c r="N762" s="4"/>
       <c r="O762" s="4"/>
@@ -22753,7 +22798,7 @@
       <c r="I763" s="4"/>
       <c r="J763" s="4"/>
       <c r="K763" s="4"/>
-      <c r="L763" s="32"/>
+      <c r="L763" s="34"/>
       <c r="M763" s="4"/>
       <c r="N763" s="4"/>
       <c r="O763" s="4"/>
@@ -22781,7 +22826,7 @@
       <c r="I764" s="4"/>
       <c r="J764" s="4"/>
       <c r="K764" s="4"/>
-      <c r="L764" s="32"/>
+      <c r="L764" s="34"/>
       <c r="M764" s="4"/>
       <c r="N764" s="4"/>
       <c r="O764" s="4"/>
@@ -22809,7 +22854,7 @@
       <c r="I765" s="4"/>
       <c r="J765" s="4"/>
       <c r="K765" s="4"/>
-      <c r="L765" s="32"/>
+      <c r="L765" s="34"/>
       <c r="M765" s="4"/>
       <c r="N765" s="4"/>
       <c r="O765" s="4"/>
@@ -22837,7 +22882,7 @@
       <c r="I766" s="4"/>
       <c r="J766" s="4"/>
       <c r="K766" s="4"/>
-      <c r="L766" s="32"/>
+      <c r="L766" s="34"/>
       <c r="M766" s="4"/>
       <c r="N766" s="4"/>
       <c r="O766" s="4"/>
@@ -22865,7 +22910,7 @@
       <c r="I767" s="4"/>
       <c r="J767" s="4"/>
       <c r="K767" s="4"/>
-      <c r="L767" s="32"/>
+      <c r="L767" s="34"/>
       <c r="M767" s="4"/>
       <c r="N767" s="4"/>
       <c r="O767" s="4"/>
@@ -22893,7 +22938,7 @@
       <c r="I768" s="4"/>
       <c r="J768" s="4"/>
       <c r="K768" s="4"/>
-      <c r="L768" s="32"/>
+      <c r="L768" s="34"/>
       <c r="M768" s="4"/>
       <c r="N768" s="4"/>
       <c r="O768" s="4"/>
@@ -22921,7 +22966,7 @@
       <c r="I769" s="4"/>
       <c r="J769" s="4"/>
       <c r="K769" s="4"/>
-      <c r="L769" s="32"/>
+      <c r="L769" s="34"/>
       <c r="M769" s="4"/>
       <c r="N769" s="4"/>
       <c r="O769" s="4"/>
@@ -22949,7 +22994,7 @@
       <c r="I770" s="4"/>
       <c r="J770" s="4"/>
       <c r="K770" s="4"/>
-      <c r="L770" s="32"/>
+      <c r="L770" s="34"/>
       <c r="M770" s="4"/>
       <c r="N770" s="4"/>
       <c r="O770" s="4"/>
@@ -22977,7 +23022,7 @@
       <c r="I771" s="4"/>
       <c r="J771" s="4"/>
       <c r="K771" s="4"/>
-      <c r="L771" s="32"/>
+      <c r="L771" s="34"/>
       <c r="M771" s="4"/>
       <c r="N771" s="4"/>
       <c r="O771" s="4"/>
@@ -23005,7 +23050,7 @@
       <c r="I772" s="4"/>
       <c r="J772" s="4"/>
       <c r="K772" s="4"/>
-      <c r="L772" s="32"/>
+      <c r="L772" s="34"/>
       <c r="M772" s="4"/>
       <c r="N772" s="4"/>
       <c r="O772" s="4"/>
@@ -23033,7 +23078,7 @@
       <c r="I773" s="4"/>
       <c r="J773" s="4"/>
       <c r="K773" s="4"/>
-      <c r="L773" s="32"/>
+      <c r="L773" s="34"/>
       <c r="M773" s="4"/>
       <c r="N773" s="4"/>
       <c r="O773" s="4"/>
@@ -23061,7 +23106,7 @@
       <c r="I774" s="4"/>
       <c r="J774" s="4"/>
       <c r="K774" s="4"/>
-      <c r="L774" s="32"/>
+      <c r="L774" s="34"/>
       <c r="M774" s="4"/>
       <c r="N774" s="4"/>
       <c r="O774" s="4"/>
@@ -23089,7 +23134,7 @@
       <c r="I775" s="4"/>
       <c r="J775" s="4"/>
       <c r="K775" s="4"/>
-      <c r="L775" s="32"/>
+      <c r="L775" s="34"/>
       <c r="M775" s="4"/>
       <c r="N775" s="4"/>
       <c r="O775" s="4"/>
@@ -23117,7 +23162,7 @@
       <c r="I776" s="4"/>
       <c r="J776" s="4"/>
       <c r="K776" s="4"/>
-      <c r="L776" s="32"/>
+      <c r="L776" s="34"/>
       <c r="M776" s="4"/>
       <c r="N776" s="4"/>
       <c r="O776" s="4"/>
@@ -23145,7 +23190,7 @@
       <c r="I777" s="4"/>
       <c r="J777" s="4"/>
       <c r="K777" s="4"/>
-      <c r="L777" s="32"/>
+      <c r="L777" s="34"/>
       <c r="M777" s="4"/>
       <c r="N777" s="4"/>
       <c r="O777" s="4"/>
@@ -23173,7 +23218,7 @@
       <c r="I778" s="4"/>
       <c r="J778" s="4"/>
       <c r="K778" s="4"/>
-      <c r="L778" s="32"/>
+      <c r="L778" s="34"/>
       <c r="M778" s="4"/>
       <c r="N778" s="4"/>
       <c r="O778" s="4"/>
@@ -23201,7 +23246,7 @@
       <c r="I779" s="4"/>
       <c r="J779" s="4"/>
       <c r="K779" s="4"/>
-      <c r="L779" s="32"/>
+      <c r="L779" s="34"/>
       <c r="M779" s="4"/>
       <c r="N779" s="4"/>
       <c r="O779" s="4"/>
@@ -23229,7 +23274,7 @@
       <c r="I780" s="4"/>
       <c r="J780" s="4"/>
       <c r="K780" s="4"/>
-      <c r="L780" s="32"/>
+      <c r="L780" s="34"/>
       <c r="M780" s="4"/>
       <c r="N780" s="4"/>
       <c r="O780" s="4"/>
@@ -23257,7 +23302,7 @@
       <c r="I781" s="4"/>
       <c r="J781" s="4"/>
       <c r="K781" s="4"/>
-      <c r="L781" s="32"/>
+      <c r="L781" s="34"/>
       <c r="M781" s="4"/>
       <c r="N781" s="4"/>
       <c r="O781" s="4"/>
@@ -23285,7 +23330,7 @@
       <c r="I782" s="4"/>
       <c r="J782" s="4"/>
       <c r="K782" s="4"/>
-      <c r="L782" s="32"/>
+      <c r="L782" s="34"/>
       <c r="M782" s="4"/>
       <c r="N782" s="4"/>
       <c r="O782" s="4"/>
@@ -23313,7 +23358,7 @@
       <c r="I783" s="4"/>
       <c r="J783" s="4"/>
       <c r="K783" s="4"/>
-      <c r="L783" s="32"/>
+      <c r="L783" s="34"/>
       <c r="M783" s="4"/>
       <c r="N783" s="4"/>
       <c r="O783" s="4"/>
@@ -23341,7 +23386,7 @@
       <c r="I784" s="4"/>
       <c r="J784" s="4"/>
       <c r="K784" s="4"/>
-      <c r="L784" s="32"/>
+      <c r="L784" s="34"/>
       <c r="M784" s="4"/>
       <c r="N784" s="4"/>
       <c r="O784" s="4"/>
@@ -23369,7 +23414,7 @@
       <c r="I785" s="4"/>
       <c r="J785" s="4"/>
       <c r="K785" s="4"/>
-      <c r="L785" s="32"/>
+      <c r="L785" s="34"/>
       <c r="M785" s="4"/>
       <c r="N785" s="4"/>
       <c r="O785" s="4"/>
@@ -23397,7 +23442,7 @@
       <c r="I786" s="4"/>
       <c r="J786" s="4"/>
       <c r="K786" s="4"/>
-      <c r="L786" s="32"/>
+      <c r="L786" s="34"/>
       <c r="M786" s="4"/>
       <c r="N786" s="4"/>
       <c r="O786" s="4"/>
@@ -23425,7 +23470,7 @@
       <c r="I787" s="4"/>
       <c r="J787" s="4"/>
       <c r="K787" s="4"/>
-      <c r="L787" s="32"/>
+      <c r="L787" s="34"/>
       <c r="M787" s="4"/>
       <c r="N787" s="4"/>
       <c r="O787" s="4"/>
@@ -23453,7 +23498,7 @@
       <c r="I788" s="4"/>
       <c r="J788" s="4"/>
       <c r="K788" s="4"/>
-      <c r="L788" s="32"/>
+      <c r="L788" s="34"/>
       <c r="M788" s="4"/>
       <c r="N788" s="4"/>
       <c r="O788" s="4"/>
@@ -23481,7 +23526,7 @@
       <c r="I789" s="4"/>
       <c r="J789" s="4"/>
       <c r="K789" s="4"/>
-      <c r="L789" s="32"/>
+      <c r="L789" s="34"/>
       <c r="M789" s="4"/>
       <c r="N789" s="4"/>
       <c r="O789" s="4"/>
@@ -23509,7 +23554,7 @@
       <c r="I790" s="4"/>
       <c r="J790" s="4"/>
       <c r="K790" s="4"/>
-      <c r="L790" s="32"/>
+      <c r="L790" s="34"/>
       <c r="M790" s="4"/>
       <c r="N790" s="4"/>
       <c r="O790" s="4"/>
@@ -23537,7 +23582,7 @@
       <c r="I791" s="4"/>
       <c r="J791" s="4"/>
       <c r="K791" s="4"/>
-      <c r="L791" s="32"/>
+      <c r="L791" s="34"/>
       <c r="M791" s="4"/>
       <c r="N791" s="4"/>
       <c r="O791" s="4"/>
@@ -23565,7 +23610,7 @@
       <c r="I792" s="4"/>
       <c r="J792" s="4"/>
       <c r="K792" s="4"/>
-      <c r="L792" s="32"/>
+      <c r="L792" s="34"/>
       <c r="M792" s="4"/>
       <c r="N792" s="4"/>
       <c r="O792" s="4"/>
@@ -23593,7 +23638,7 @@
       <c r="I793" s="4"/>
       <c r="J793" s="4"/>
       <c r="K793" s="4"/>
-      <c r="L793" s="32"/>
+      <c r="L793" s="34"/>
       <c r="M793" s="4"/>
       <c r="N793" s="4"/>
       <c r="O793" s="4"/>
@@ -23621,7 +23666,7 @@
       <c r="I794" s="4"/>
       <c r="J794" s="4"/>
       <c r="K794" s="4"/>
-      <c r="L794" s="32"/>
+      <c r="L794" s="34"/>
       <c r="M794" s="4"/>
       <c r="N794" s="4"/>
       <c r="O794" s="4"/>
@@ -23649,7 +23694,7 @@
       <c r="I795" s="4"/>
       <c r="J795" s="4"/>
       <c r="K795" s="4"/>
-      <c r="L795" s="32"/>
+      <c r="L795" s="34"/>
       <c r="M795" s="4"/>
       <c r="N795" s="4"/>
       <c r="O795" s="4"/>
@@ -23677,7 +23722,7 @@
       <c r="I796" s="4"/>
       <c r="J796" s="4"/>
       <c r="K796" s="4"/>
-      <c r="L796" s="32"/>
+      <c r="L796" s="34"/>
       <c r="M796" s="4"/>
       <c r="N796" s="4"/>
       <c r="O796" s="4"/>
@@ -23705,7 +23750,7 @@
       <c r="I797" s="4"/>
       <c r="J797" s="4"/>
       <c r="K797" s="4"/>
-      <c r="L797" s="32"/>
+      <c r="L797" s="34"/>
       <c r="M797" s="4"/>
       <c r="N797" s="4"/>
       <c r="O797" s="4"/>
@@ -23733,7 +23778,7 @@
       <c r="I798" s="4"/>
       <c r="J798" s="4"/>
       <c r="K798" s="4"/>
-      <c r="L798" s="32"/>
+      <c r="L798" s="34"/>
       <c r="M798" s="4"/>
       <c r="N798" s="4"/>
       <c r="O798" s="4"/>
@@ -23761,7 +23806,7 @@
       <c r="I799" s="4"/>
       <c r="J799" s="4"/>
       <c r="K799" s="4"/>
-      <c r="L799" s="32"/>
+      <c r="L799" s="34"/>
       <c r="M799" s="4"/>
       <c r="N799" s="4"/>
       <c r="O799" s="4"/>
@@ -23789,7 +23834,7 @@
       <c r="I800" s="4"/>
       <c r="J800" s="4"/>
       <c r="K800" s="4"/>
-      <c r="L800" s="32"/>
+      <c r="L800" s="34"/>
       <c r="M800" s="4"/>
       <c r="N800" s="4"/>
       <c r="O800" s="4"/>
@@ -23817,7 +23862,7 @@
       <c r="I801" s="4"/>
       <c r="J801" s="4"/>
       <c r="K801" s="4"/>
-      <c r="L801" s="32"/>
+      <c r="L801" s="34"/>
       <c r="M801" s="4"/>
       <c r="N801" s="4"/>
       <c r="O801" s="4"/>
@@ -23845,7 +23890,7 @@
       <c r="I802" s="4"/>
       <c r="J802" s="4"/>
       <c r="K802" s="4"/>
-      <c r="L802" s="32"/>
+      <c r="L802" s="34"/>
       <c r="M802" s="4"/>
       <c r="N802" s="4"/>
       <c r="O802" s="4"/>
@@ -23873,7 +23918,7 @@
       <c r="I803" s="4"/>
       <c r="J803" s="4"/>
       <c r="K803" s="4"/>
-      <c r="L803" s="32"/>
+      <c r="L803" s="34"/>
       <c r="M803" s="4"/>
       <c r="N803" s="4"/>
       <c r="O803" s="4"/>
@@ -23901,7 +23946,7 @@
       <c r="I804" s="4"/>
       <c r="J804" s="4"/>
       <c r="K804" s="4"/>
-      <c r="L804" s="32"/>
+      <c r="L804" s="34"/>
       <c r="M804" s="4"/>
       <c r="N804" s="4"/>
       <c r="O804" s="4"/>
@@ -23929,7 +23974,7 @@
       <c r="I805" s="4"/>
       <c r="J805" s="4"/>
       <c r="K805" s="4"/>
-      <c r="L805" s="32"/>
+      <c r="L805" s="34"/>
       <c r="M805" s="4"/>
       <c r="N805" s="4"/>
       <c r="O805" s="4"/>
@@ -23957,7 +24002,7 @@
       <c r="I806" s="4"/>
       <c r="J806" s="4"/>
       <c r="K806" s="4"/>
-      <c r="L806" s="32"/>
+      <c r="L806" s="34"/>
       <c r="M806" s="4"/>
       <c r="N806" s="4"/>
       <c r="O806" s="4"/>
@@ -23985,7 +24030,7 @@
       <c r="I807" s="4"/>
       <c r="J807" s="4"/>
       <c r="K807" s="4"/>
-      <c r="L807" s="32"/>
+      <c r="L807" s="34"/>
       <c r="M807" s="4"/>
       <c r="N807" s="4"/>
       <c r="O807" s="4"/>
@@ -24013,7 +24058,7 @@
       <c r="I808" s="4"/>
       <c r="J808" s="4"/>
       <c r="K808" s="4"/>
-      <c r="L808" s="32"/>
+      <c r="L808" s="34"/>
       <c r="M808" s="4"/>
       <c r="N808" s="4"/>
       <c r="O808" s="4"/>
@@ -24041,7 +24086,7 @@
       <c r="I809" s="4"/>
       <c r="J809" s="4"/>
       <c r="K809" s="4"/>
-      <c r="L809" s="32"/>
+      <c r="L809" s="34"/>
       <c r="M809" s="4"/>
       <c r="N809" s="4"/>
       <c r="O809" s="4"/>
@@ -24069,7 +24114,7 @@
       <c r="I810" s="4"/>
       <c r="J810" s="4"/>
       <c r="K810" s="4"/>
-      <c r="L810" s="32"/>
+      <c r="L810" s="34"/>
       <c r="M810" s="4"/>
       <c r="N810" s="4"/>
       <c r="O810" s="4"/>
@@ -24097,7 +24142,7 @@
       <c r="I811" s="4"/>
       <c r="J811" s="4"/>
       <c r="K811" s="4"/>
-      <c r="L811" s="32"/>
+      <c r="L811" s="34"/>
       <c r="M811" s="4"/>
       <c r="N811" s="4"/>
       <c r="O811" s="4"/>
@@ -24125,7 +24170,7 @@
       <c r="I812" s="4"/>
       <c r="J812" s="4"/>
       <c r="K812" s="4"/>
-      <c r="L812" s="32"/>
+      <c r="L812" s="34"/>
       <c r="M812" s="4"/>
       <c r="N812" s="4"/>
       <c r="O812" s="4"/>
@@ -24153,7 +24198,7 @@
       <c r="I813" s="4"/>
       <c r="J813" s="4"/>
       <c r="K813" s="4"/>
-      <c r="L813" s="32"/>
+      <c r="L813" s="34"/>
       <c r="M813" s="4"/>
       <c r="N813" s="4"/>
       <c r="O813" s="4"/>
@@ -24181,7 +24226,7 @@
       <c r="I814" s="4"/>
       <c r="J814" s="4"/>
       <c r="K814" s="4"/>
-      <c r="L814" s="32"/>
+      <c r="L814" s="34"/>
       <c r="M814" s="4"/>
       <c r="N814" s="4"/>
       <c r="O814" s="4"/>
@@ -24209,7 +24254,7 @@
       <c r="I815" s="4"/>
       <c r="J815" s="4"/>
       <c r="K815" s="4"/>
-      <c r="L815" s="32"/>
+      <c r="L815" s="34"/>
       <c r="M815" s="4"/>
       <c r="N815" s="4"/>
       <c r="O815" s="4"/>
@@ -24237,7 +24282,7 @@
       <c r="I816" s="4"/>
       <c r="J816" s="4"/>
       <c r="K816" s="4"/>
-      <c r="L816" s="32"/>
+      <c r="L816" s="34"/>
       <c r="M816" s="4"/>
       <c r="N816" s="4"/>
       <c r="O816" s="4"/>
@@ -24265,7 +24310,7 @@
       <c r="I817" s="4"/>
       <c r="J817" s="4"/>
       <c r="K817" s="4"/>
-      <c r="L817" s="32"/>
+      <c r="L817" s="34"/>
       <c r="M817" s="4"/>
       <c r="N817" s="4"/>
       <c r="O817" s="4"/>
@@ -24293,7 +24338,7 @@
       <c r="I818" s="4"/>
       <c r="J818" s="4"/>
       <c r="K818" s="4"/>
-      <c r="L818" s="32"/>
+      <c r="L818" s="34"/>
       <c r="M818" s="4"/>
       <c r="N818" s="4"/>
       <c r="O818" s="4"/>
@@ -24321,7 +24366,7 @@
       <c r="I819" s="4"/>
       <c r="J819" s="4"/>
       <c r="K819" s="4"/>
-      <c r="L819" s="32"/>
+      <c r="L819" s="34"/>
       <c r="M819" s="4"/>
       <c r="N819" s="4"/>
       <c r="O819" s="4"/>
@@ -24349,7 +24394,7 @@
       <c r="I820" s="4"/>
       <c r="J820" s="4"/>
       <c r="K820" s="4"/>
-      <c r="L820" s="32"/>
+      <c r="L820" s="34"/>
       <c r="M820" s="4"/>
       <c r="N820" s="4"/>
       <c r="O820" s="4"/>
@@ -24377,7 +24422,7 @@
       <c r="I821" s="4"/>
       <c r="J821" s="4"/>
       <c r="K821" s="4"/>
-      <c r="L821" s="32"/>
+      <c r="L821" s="34"/>
       <c r="M821" s="4"/>
       <c r="N821" s="4"/>
       <c r="O821" s="4"/>
@@ -24405,7 +24450,7 @@
       <c r="I822" s="4"/>
       <c r="J822" s="4"/>
       <c r="K822" s="4"/>
-      <c r="L822" s="32"/>
+      <c r="L822" s="34"/>
       <c r="M822" s="4"/>
       <c r="N822" s="4"/>
       <c r="O822" s="4"/>
@@ -24433,7 +24478,7 @@
       <c r="I823" s="4"/>
       <c r="J823" s="4"/>
       <c r="K823" s="4"/>
-      <c r="L823" s="32"/>
+      <c r="L823" s="34"/>
       <c r="M823" s="4"/>
       <c r="N823" s="4"/>
       <c r="O823" s="4"/>
@@ -24461,7 +24506,7 @@
       <c r="I824" s="4"/>
       <c r="J824" s="4"/>
       <c r="K824" s="4"/>
-      <c r="L824" s="32"/>
+      <c r="L824" s="34"/>
       <c r="M824" s="4"/>
       <c r="N824" s="4"/>
       <c r="O824" s="4"/>
@@ -24489,7 +24534,7 @@
       <c r="I825" s="4"/>
       <c r="J825" s="4"/>
       <c r="K825" s="4"/>
-      <c r="L825" s="32"/>
+      <c r="L825" s="34"/>
       <c r="M825" s="4"/>
       <c r="N825" s="4"/>
       <c r="O825" s="4"/>
@@ -24517,7 +24562,7 @@
       <c r="I826" s="4"/>
       <c r="J826" s="4"/>
       <c r="K826" s="4"/>
-      <c r="L826" s="32"/>
+      <c r="L826" s="34"/>
       <c r="M826" s="4"/>
       <c r="N826" s="4"/>
       <c r="O826" s="4"/>
@@ -24545,7 +24590,7 @@
       <c r="I827" s="4"/>
       <c r="J827" s="4"/>
       <c r="K827" s="4"/>
-      <c r="L827" s="32"/>
+      <c r="L827" s="34"/>
       <c r="M827" s="4"/>
       <c r="N827" s="4"/>
       <c r="O827" s="4"/>
@@ -24573,7 +24618,7 @@
       <c r="I828" s="4"/>
       <c r="J828" s="4"/>
       <c r="K828" s="4"/>
-      <c r="L828" s="32"/>
+      <c r="L828" s="34"/>
       <c r="M828" s="4"/>
       <c r="N828" s="4"/>
       <c r="O828" s="4"/>
@@ -24601,7 +24646,7 @@
       <c r="I829" s="4"/>
       <c r="J829" s="4"/>
       <c r="K829" s="4"/>
-      <c r="L829" s="32"/>
+      <c r="L829" s="34"/>
       <c r="M829" s="4"/>
       <c r="N829" s="4"/>
       <c r="O829" s="4"/>
@@ -24629,7 +24674,7 @@
       <c r="I830" s="4"/>
       <c r="J830" s="4"/>
       <c r="K830" s="4"/>
-      <c r="L830" s="32"/>
+      <c r="L830" s="34"/>
       <c r="M830" s="4"/>
       <c r="N830" s="4"/>
       <c r="O830" s="4"/>
@@ -24657,7 +24702,7 @@
       <c r="I831" s="4"/>
       <c r="J831" s="4"/>
       <c r="K831" s="4"/>
-      <c r="L831" s="32"/>
+      <c r="L831" s="34"/>
       <c r="M831" s="4"/>
       <c r="N831" s="4"/>
       <c r="O831" s="4"/>
@@ -24685,7 +24730,7 @@
       <c r="I832" s="4"/>
       <c r="J832" s="4"/>
       <c r="K832" s="4"/>
-      <c r="L832" s="32"/>
+      <c r="L832" s="34"/>
       <c r="M832" s="4"/>
       <c r="N832" s="4"/>
       <c r="O832" s="4"/>
@@ -24713,7 +24758,7 @@
       <c r="I833" s="4"/>
       <c r="J833" s="4"/>
       <c r="K833" s="4"/>
-      <c r="L833" s="32"/>
+      <c r="L833" s="34"/>
       <c r="M833" s="4"/>
       <c r="N833" s="4"/>
       <c r="O833" s="4"/>
@@ -24741,7 +24786,7 @@
       <c r="I834" s="4"/>
       <c r="J834" s="4"/>
       <c r="K834" s="4"/>
-      <c r="L834" s="32"/>
+      <c r="L834" s="34"/>
       <c r="M834" s="4"/>
       <c r="N834" s="4"/>
       <c r="O834" s="4"/>
@@ -24769,7 +24814,7 @@
       <c r="I835" s="4"/>
       <c r="J835" s="4"/>
       <c r="K835" s="4"/>
-      <c r="L835" s="32"/>
+      <c r="L835" s="34"/>
       <c r="M835" s="4"/>
       <c r="N835" s="4"/>
       <c r="O835" s="4"/>
@@ -24797,7 +24842,7 @@
       <c r="I836" s="4"/>
       <c r="J836" s="4"/>
       <c r="K836" s="4"/>
-      <c r="L836" s="32"/>
+      <c r="L836" s="34"/>
       <c r="M836" s="4"/>
       <c r="N836" s="4"/>
       <c r="O836" s="4"/>
@@ -24825,7 +24870,7 @@
       <c r="I837" s="4"/>
       <c r="J837" s="4"/>
       <c r="K837" s="4"/>
-      <c r="L837" s="32"/>
+      <c r="L837" s="34"/>
       <c r="M837" s="4"/>
       <c r="N837" s="4"/>
       <c r="O837" s="4"/>
@@ -24853,7 +24898,7 @@
       <c r="I838" s="4"/>
       <c r="J838" s="4"/>
       <c r="K838" s="4"/>
-      <c r="L838" s="32"/>
+      <c r="L838" s="34"/>
       <c r="M838" s="4"/>
       <c r="N838" s="4"/>
       <c r="O838" s="4"/>
@@ -24881,7 +24926,7 @@
       <c r="I839" s="4"/>
       <c r="J839" s="4"/>
       <c r="K839" s="4"/>
-      <c r="L839" s="32"/>
+      <c r="L839" s="34"/>
       <c r="M839" s="4"/>
       <c r="N839" s="4"/>
       <c r="O839" s="4"/>
@@ -24909,7 +24954,7 @@
       <c r="I840" s="4"/>
       <c r="J840" s="4"/>
       <c r="K840" s="4"/>
-      <c r="L840" s="32"/>
+      <c r="L840" s="34"/>
       <c r="M840" s="4"/>
       <c r="N840" s="4"/>
       <c r="O840" s="4"/>
@@ -24937,7 +24982,7 @@
       <c r="I841" s="4"/>
       <c r="J841" s="4"/>
       <c r="K841" s="4"/>
-      <c r="L841" s="32"/>
+      <c r="L841" s="34"/>
       <c r="M841" s="4"/>
       <c r="N841" s="4"/>
       <c r="O841" s="4"/>
@@ -24965,7 +25010,7 @@
       <c r="I842" s="4"/>
       <c r="J842" s="4"/>
       <c r="K842" s="4"/>
-      <c r="L842" s="32"/>
+      <c r="L842" s="34"/>
       <c r="M842" s="4"/>
       <c r="N842" s="4"/>
       <c r="O842" s="4"/>
@@ -24993,7 +25038,7 @@
       <c r="I843" s="4"/>
       <c r="J843" s="4"/>
       <c r="K843" s="4"/>
-      <c r="L843" s="32"/>
+      <c r="L843" s="34"/>
       <c r="M843" s="4"/>
       <c r="N843" s="4"/>
       <c r="O843" s="4"/>
@@ -25021,7 +25066,7 @@
       <c r="I844" s="4"/>
       <c r="J844" s="4"/>
       <c r="K844" s="4"/>
-      <c r="L844" s="32"/>
+      <c r="L844" s="34"/>
       <c r="M844" s="4"/>
       <c r="N844" s="4"/>
       <c r="O844" s="4"/>
@@ -25049,7 +25094,7 @@
       <c r="I845" s="4"/>
       <c r="J845" s="4"/>
       <c r="K845" s="4"/>
-      <c r="L845" s="32"/>
+      <c r="L845" s="34"/>
       <c r="M845" s="4"/>
       <c r="N845" s="4"/>
       <c r="O845" s="4"/>
@@ -25077,7 +25122,7 @@
       <c r="I846" s="4"/>
       <c r="J846" s="4"/>
       <c r="K846" s="4"/>
-      <c r="L846" s="32"/>
+      <c r="L846" s="34"/>
       <c r="M846" s="4"/>
       <c r="N846" s="4"/>
       <c r="O846" s="4"/>
@@ -25105,7 +25150,7 @@
       <c r="I847" s="4"/>
       <c r="J847" s="4"/>
       <c r="K847" s="4"/>
-      <c r="L847" s="32"/>
+      <c r="L847" s="34"/>
       <c r="M847" s="4"/>
       <c r="N847" s="4"/>
       <c r="O847" s="4"/>
@@ -25133,7 +25178,7 @@
       <c r="I848" s="4"/>
       <c r="J848" s="4"/>
       <c r="K848" s="4"/>
-      <c r="L848" s="32"/>
+      <c r="L848" s="34"/>
       <c r="M848" s="4"/>
       <c r="N848" s="4"/>
       <c r="O848" s="4"/>
@@ -25161,7 +25206,7 @@
       <c r="I849" s="4"/>
       <c r="J849" s="4"/>
       <c r="K849" s="4"/>
-      <c r="L849" s="32"/>
+      <c r="L849" s="34"/>
       <c r="M849" s="4"/>
       <c r="N849" s="4"/>
       <c r="O849" s="4"/>
@@ -25189,7 +25234,7 @@
       <c r="I850" s="4"/>
       <c r="J850" s="4"/>
       <c r="K850" s="4"/>
-      <c r="L850" s="32"/>
+      <c r="L850" s="34"/>
       <c r="M850" s="4"/>
       <c r="N850" s="4"/>
       <c r="O850" s="4"/>
@@ -25217,7 +25262,7 @@
       <c r="I851" s="4"/>
       <c r="J851" s="4"/>
       <c r="K851" s="4"/>
-      <c r="L851" s="32"/>
+      <c r="L851" s="34"/>
       <c r="M851" s="4"/>
       <c r="N851" s="4"/>
       <c r="O851" s="4"/>
@@ -25245,7 +25290,7 @@
       <c r="I852" s="4"/>
       <c r="J852" s="4"/>
       <c r="K852" s="4"/>
-      <c r="L852" s="32"/>
+      <c r="L852" s="34"/>
       <c r="M852" s="4"/>
       <c r="N852" s="4"/>
       <c r="O852" s="4"/>
@@ -25273,7 +25318,7 @@
       <c r="I853" s="4"/>
       <c r="J853" s="4"/>
       <c r="K853" s="4"/>
-      <c r="L853" s="32"/>
+      <c r="L853" s="34"/>
       <c r="M853" s="4"/>
       <c r="N853" s="4"/>
       <c r="O853" s="4"/>
@@ -25301,7 +25346,7 @@
       <c r="I854" s="4"/>
       <c r="J854" s="4"/>
       <c r="K854" s="4"/>
-      <c r="L854" s="32"/>
+      <c r="L854" s="34"/>
       <c r="M854" s="4"/>
       <c r="N854" s="4"/>
       <c r="O854" s="4"/>
@@ -25329,7 +25374,7 @@
       <c r="I855" s="4"/>
       <c r="J855" s="4"/>
       <c r="K855" s="4"/>
-      <c r="L855" s="32"/>
+      <c r="L855" s="34"/>
       <c r="M855" s="4"/>
       <c r="N855" s="4"/>
       <c r="O855" s="4"/>
@@ -25357,7 +25402,7 @@
       <c r="I856" s="4"/>
       <c r="J856" s="4"/>
       <c r="K856" s="4"/>
-      <c r="L856" s="32"/>
+      <c r="L856" s="34"/>
       <c r="M856" s="4"/>
       <c r="N856" s="4"/>
       <c r="O856" s="4"/>
@@ -25385,7 +25430,7 @@
       <c r="I857" s="4"/>
       <c r="J857" s="4"/>
       <c r="K857" s="4"/>
-      <c r="L857" s="32"/>
+      <c r="L857" s="34"/>
       <c r="M857" s="4"/>
       <c r="N857" s="4"/>
       <c r="O857" s="4"/>
@@ -25413,7 +25458,7 @@
       <c r="I858" s="4"/>
       <c r="J858" s="4"/>
       <c r="K858" s="4"/>
-      <c r="L858" s="32"/>
+      <c r="L858" s="34"/>
       <c r="M858" s="4"/>
       <c r="N858" s="4"/>
       <c r="O858" s="4"/>
@@ -25441,7 +25486,7 @@
       <c r="I859" s="4"/>
       <c r="J859" s="4"/>
       <c r="K859" s="4"/>
-      <c r="L859" s="32"/>
+      <c r="L859" s="34"/>
       <c r="M859" s="4"/>
       <c r="N859" s="4"/>
       <c r="O859" s="4"/>
@@ -25469,7 +25514,7 @@
       <c r="I860" s="4"/>
       <c r="J860" s="4"/>
       <c r="K860" s="4"/>
-      <c r="L860" s="32"/>
+      <c r="L860" s="34"/>
       <c r="M860" s="4"/>
       <c r="N860" s="4"/>
       <c r="O860" s="4"/>
@@ -25497,7 +25542,7 @@
       <c r="I861" s="4"/>
       <c r="J861" s="4"/>
       <c r="K861" s="4"/>
-      <c r="L861" s="32"/>
+      <c r="L861" s="34"/>
       <c r="M861" s="4"/>
       <c r="N861" s="4"/>
       <c r="O861" s="4"/>
@@ -25525,7 +25570,7 @@
       <c r="I862" s="4"/>
       <c r="J862" s="4"/>
       <c r="K862" s="4"/>
-      <c r="L862" s="32"/>
+      <c r="L862" s="34"/>
       <c r="M862" s="4"/>
       <c r="N862" s="4"/>
       <c r="O862" s="4"/>
@@ -25553,7 +25598,7 @@
       <c r="I863" s="4"/>
       <c r="J863" s="4"/>
       <c r="K863" s="4"/>
-      <c r="L863" s="32"/>
+      <c r="L863" s="34"/>
       <c r="M863" s="4"/>
       <c r="N863" s="4"/>
       <c r="O863" s="4"/>
@@ -25581,7 +25626,7 @@
       <c r="I864" s="4"/>
       <c r="J864" s="4"/>
       <c r="K864" s="4"/>
-      <c r="L864" s="32"/>
+      <c r="L864" s="34"/>
       <c r="M864" s="4"/>
       <c r="N864" s="4"/>
       <c r="O864" s="4"/>
@@ -25609,7 +25654,7 @@
       <c r="I865" s="4"/>
       <c r="J865" s="4"/>
       <c r="K865" s="4"/>
-      <c r="L865" s="32"/>
+      <c r="L865" s="34"/>
       <c r="M865" s="4"/>
       <c r="N865" s="4"/>
       <c r="O865" s="4"/>
@@ -25637,7 +25682,7 @@
       <c r="I866" s="4"/>
       <c r="J866" s="4"/>
       <c r="K866" s="4"/>
-      <c r="L866" s="32"/>
+      <c r="L866" s="34"/>
       <c r="M866" s="4"/>
       <c r="N866" s="4"/>
       <c r="O866" s="4"/>
@@ -25665,7 +25710,7 @@
       <c r="I867" s="4"/>
       <c r="J867" s="4"/>
       <c r="K867" s="4"/>
-      <c r="L867" s="32"/>
+      <c r="L867" s="34"/>
       <c r="M867" s="4"/>
       <c r="N867" s="4"/>
       <c r="O867" s="4"/>
@@ -25693,7 +25738,7 @@
       <c r="I868" s="4"/>
       <c r="J868" s="4"/>
       <c r="K868" s="4"/>
-      <c r="L868" s="32"/>
+      <c r="L868" s="34"/>
       <c r="M868" s="4"/>
       <c r="N868" s="4"/>
       <c r="O868" s="4"/>
@@ -25721,7 +25766,7 @@
       <c r="I869" s="4"/>
       <c r="J869" s="4"/>
       <c r="K869" s="4"/>
-      <c r="L869" s="32"/>
+      <c r="L869" s="34"/>
       <c r="M869" s="4"/>
       <c r="N869" s="4"/>
       <c r="O869" s="4"/>
@@ -25749,7 +25794,7 @@
       <c r="I870" s="4"/>
       <c r="J870" s="4"/>
       <c r="K870" s="4"/>
-      <c r="L870" s="32"/>
+      <c r="L870" s="34"/>
       <c r="M870" s="4"/>
       <c r="N870" s="4"/>
       <c r="O870" s="4"/>
@@ -25777,7 +25822,7 @@
       <c r="I871" s="4"/>
       <c r="J871" s="4"/>
       <c r="K871" s="4"/>
-      <c r="L871" s="32"/>
+      <c r="L871" s="34"/>
       <c r="M871" s="4"/>
       <c r="N871" s="4"/>
       <c r="O871" s="4"/>
@@ -25805,7 +25850,7 @@
       <c r="I872" s="4"/>
       <c r="J872" s="4"/>
       <c r="K872" s="4"/>
-      <c r="L872" s="32"/>
+      <c r="L872" s="34"/>
       <c r="M872" s="4"/>
       <c r="N872" s="4"/>
       <c r="O872" s="4"/>
@@ -25833,7 +25878,7 @@
       <c r="I873" s="4"/>
       <c r="J873" s="4"/>
       <c r="K873" s="4"/>
-      <c r="L873" s="32"/>
+      <c r="L873" s="34"/>
       <c r="M873" s="4"/>
       <c r="N873" s="4"/>
       <c r="O873" s="4"/>
@@ -25861,7 +25906,7 @@
       <c r="I874" s="4"/>
       <c r="J874" s="4"/>
       <c r="K874" s="4"/>
-      <c r="L874" s="32"/>
+      <c r="L874" s="34"/>
       <c r="M874" s="4"/>
       <c r="N874" s="4"/>
       <c r="O874" s="4"/>
@@ -25889,7 +25934,7 @@
       <c r="I875" s="4"/>
       <c r="J875" s="4"/>
       <c r="K875" s="4"/>
-      <c r="L875" s="32"/>
+      <c r="L875" s="34"/>
       <c r="M875" s="4"/>
       <c r="N875" s="4"/>
       <c r="O875" s="4"/>
@@ -25917,7 +25962,7 @@
       <c r="I876" s="4"/>
       <c r="J876" s="4"/>
       <c r="K876" s="4"/>
-      <c r="L876" s="32"/>
+      <c r="L876" s="34"/>
       <c r="M876" s="4"/>
       <c r="N876" s="4"/>
       <c r="O876" s="4"/>
@@ -25945,7 +25990,7 @@
       <c r="I877" s="4"/>
       <c r="J877" s="4"/>
       <c r="K877" s="4"/>
-      <c r="L877" s="32"/>
+      <c r="L877" s="34"/>
       <c r="M877" s="4"/>
       <c r="N877" s="4"/>
       <c r="O877" s="4"/>
@@ -25973,7 +26018,7 @@
       <c r="I878" s="4"/>
       <c r="J878" s="4"/>
       <c r="K878" s="4"/>
-      <c r="L878" s="32"/>
+      <c r="L878" s="34"/>
       <c r="M878" s="4"/>
       <c r="N878" s="4"/>
       <c r="O878" s="4"/>
@@ -26001,7 +26046,7 @@
       <c r="I879" s="4"/>
       <c r="J879" s="4"/>
       <c r="K879" s="4"/>
-      <c r="L879" s="32"/>
+      <c r="L879" s="34"/>
       <c r="M879" s="4"/>
       <c r="N879" s="4"/>
       <c r="O879" s="4"/>
@@ -26029,7 +26074,7 @@
       <c r="I880" s="4"/>
       <c r="J880" s="4"/>
       <c r="K880" s="4"/>
-      <c r="L880" s="32"/>
+      <c r="L880" s="34"/>
       <c r="M880" s="4"/>
       <c r="N880" s="4"/>
       <c r="O880" s="4"/>
@@ -26057,7 +26102,7 @@
       <c r="I881" s="4"/>
       <c r="J881" s="4"/>
       <c r="K881" s="4"/>
-      <c r="L881" s="32"/>
+      <c r="L881" s="34"/>
       <c r="M881" s="4"/>
       <c r="N881" s="4"/>
       <c r="O881" s="4"/>
@@ -26085,7 +26130,7 @@
       <c r="I882" s="4"/>
       <c r="J882" s="4"/>
       <c r="K882" s="4"/>
-      <c r="L882" s="32"/>
+      <c r="L882" s="34"/>
       <c r="M882" s="4"/>
       <c r="N882" s="4"/>
       <c r="O882" s="4"/>
@@ -26113,7 +26158,7 @@
       <c r="I883" s="4"/>
       <c r="J883" s="4"/>
       <c r="K883" s="4"/>
-      <c r="L883" s="32"/>
+      <c r="L883" s="34"/>
       <c r="M883" s="4"/>
       <c r="N883" s="4"/>
       <c r="O883" s="4"/>
@@ -26141,7 +26186,7 @@
       <c r="I884" s="4"/>
       <c r="J884" s="4"/>
       <c r="K884" s="4"/>
-      <c r="L884" s="32"/>
+      <c r="L884" s="34"/>
       <c r="M884" s="4"/>
       <c r="N884" s="4"/>
       <c r="O884" s="4"/>
@@ -26169,7 +26214,7 @@
       <c r="I885" s="4"/>
       <c r="J885" s="4"/>
       <c r="K885" s="4"/>
-      <c r="L885" s="32"/>
+      <c r="L885" s="34"/>
       <c r="M885" s="4"/>
       <c r="N885" s="4"/>
       <c r="O885" s="4"/>
@@ -26197,7 +26242,7 @@
       <c r="I886" s="4"/>
       <c r="J886" s="4"/>
       <c r="K886" s="4"/>
-      <c r="L886" s="32"/>
+      <c r="L886" s="34"/>
       <c r="M886" s="4"/>
       <c r="N886" s="4"/>
       <c r="O886" s="4"/>
@@ -26225,7 +26270,7 @@
       <c r="I887" s="4"/>
       <c r="J887" s="4"/>
       <c r="K887" s="4"/>
-      <c r="L887" s="32"/>
+      <c r="L887" s="34"/>
       <c r="M887" s="4"/>
       <c r="N887" s="4"/>
       <c r="O887" s="4"/>
@@ -26253,7 +26298,7 @@
       <c r="I888" s="4"/>
       <c r="J888" s="4"/>
       <c r="K888" s="4"/>
-      <c r="L888" s="32"/>
+      <c r="L888" s="34"/>
       <c r="M888" s="4"/>
       <c r="N888" s="4"/>
       <c r="O888" s="4"/>
@@ -26281,7 +26326,7 @@
       <c r="I889" s="4"/>
       <c r="J889" s="4"/>
       <c r="K889" s="4"/>
-      <c r="L889" s="32"/>
+      <c r="L889" s="34"/>
       <c r="M889" s="4"/>
       <c r="N889" s="4"/>
       <c r="O889" s="4"/>
@@ -26309,7 +26354,7 @@
       <c r="I890" s="4"/>
       <c r="J890" s="4"/>
       <c r="K890" s="4"/>
-      <c r="L890" s="32"/>
+      <c r="L890" s="34"/>
       <c r="M890" s="4"/>
       <c r="N890" s="4"/>
       <c r="O890" s="4"/>
@@ -26337,7 +26382,7 @@
       <c r="I891" s="4"/>
       <c r="J891" s="4"/>
       <c r="K891" s="4"/>
-      <c r="L891" s="32"/>
+      <c r="L891" s="34"/>
       <c r="M891" s="4"/>
       <c r="N891" s="4"/>
       <c r="O891" s="4"/>
@@ -26365,7 +26410,7 @@
       <c r="I892" s="4"/>
       <c r="J892" s="4"/>
       <c r="K892" s="4"/>
-      <c r="L892" s="32"/>
+      <c r="L892" s="34"/>
       <c r="M892" s="4"/>
       <c r="N892" s="4"/>
       <c r="O892" s="4"/>
@@ -26393,7 +26438,7 @@
       <c r="I893" s="4"/>
       <c r="J893" s="4"/>
       <c r="K893" s="4"/>
-      <c r="L893" s="32"/>
+      <c r="L893" s="34"/>
       <c r="M893" s="4"/>
       <c r="N893" s="4"/>
       <c r="O893" s="4"/>
@@ -26421,7 +26466,7 @@
       <c r="I894" s="4"/>
       <c r="J894" s="4"/>
       <c r="K894" s="4"/>
-      <c r="L894" s="32"/>
+      <c r="L894" s="34"/>
       <c r="M894" s="4"/>
       <c r="N894" s="4"/>
       <c r="O894" s="4"/>
@@ -26449,7 +26494,7 @@
       <c r="I895" s="4"/>
       <c r="J895" s="4"/>
       <c r="K895" s="4"/>
-      <c r="L895" s="32"/>
+      <c r="L895" s="34"/>
       <c r="M895" s="4"/>
       <c r="N895" s="4"/>
       <c r="O895" s="4"/>
@@ -26477,7 +26522,7 @@
       <c r="I896" s="4"/>
       <c r="J896" s="4"/>
       <c r="K896" s="4"/>
-      <c r="L896" s="32"/>
+      <c r="L896" s="34"/>
       <c r="M896" s="4"/>
       <c r="N896" s="4"/>
       <c r="O896" s="4"/>
@@ -26505,7 +26550,7 @@
       <c r="I897" s="4"/>
       <c r="J897" s="4"/>
       <c r="K897" s="4"/>
-      <c r="L897" s="32"/>
+      <c r="L897" s="34"/>
       <c r="M897" s="4"/>
       <c r="N897" s="4"/>
       <c r="O897" s="4"/>
@@ -26533,7 +26578,7 @@
       <c r="I898" s="4"/>
       <c r="J898" s="4"/>
       <c r="K898" s="4"/>
-      <c r="L898" s="32"/>
+      <c r="L898" s="34"/>
       <c r="M898" s="4"/>
       <c r="N898" s="4"/>
       <c r="O898" s="4"/>
@@ -26561,7 +26606,7 @@
       <c r="I899" s="4"/>
       <c r="J899" s="4"/>
       <c r="K899" s="4"/>
-      <c r="L899" s="32"/>
+      <c r="L899" s="34"/>
       <c r="M899" s="4"/>
       <c r="N899" s="4"/>
       <c r="O899" s="4"/>
@@ -26589,7 +26634,7 @@
       <c r="I900" s="4"/>
       <c r="J900" s="4"/>
       <c r="K900" s="4"/>
-      <c r="L900" s="32"/>
+      <c r="L900" s="34"/>
       <c r="M900" s="4"/>
       <c r="N900" s="4"/>
       <c r="O900" s="4"/>
@@ -26617,7 +26662,7 @@
       <c r="I901" s="4"/>
       <c r="J901" s="4"/>
       <c r="K901" s="4"/>
-      <c r="L901" s="32"/>
+      <c r="L901" s="34"/>
       <c r="M901" s="4"/>
       <c r="N901" s="4"/>
       <c r="O901" s="4"/>
@@ -26645,7 +26690,7 @@
       <c r="I902" s="4"/>
       <c r="J902" s="4"/>
       <c r="K902" s="4"/>
-      <c r="L902" s="32"/>
+      <c r="L902" s="34"/>
       <c r="M902" s="4"/>
       <c r="N902" s="4"/>
       <c r="O902" s="4"/>
@@ -26673,7 +26718,7 @@
       <c r="I903" s="4"/>
       <c r="J903" s="4"/>
       <c r="K903" s="4"/>
-      <c r="L903" s="32"/>
+      <c r="L903" s="34"/>
       <c r="M903" s="4"/>
       <c r="N903" s="4"/>
       <c r="O903" s="4"/>
@@ -26701,7 +26746,7 @@
       <c r="I904" s="4"/>
       <c r="J904" s="4"/>
       <c r="K904" s="4"/>
-      <c r="L904" s="32"/>
+      <c r="L904" s="34"/>
       <c r="M904" s="4"/>
       <c r="N904" s="4"/>
       <c r="O904" s="4"/>
@@ -26729,7 +26774,7 @@
       <c r="I905" s="4"/>
       <c r="J905" s="4"/>
       <c r="K905" s="4"/>
-      <c r="L905" s="32"/>
+      <c r="L905" s="34"/>
       <c r="M905" s="4"/>
       <c r="N905" s="4"/>
       <c r="O905" s="4"/>
@@ -26757,7 +26802,7 @@
       <c r="I906" s="4"/>
       <c r="J906" s="4"/>
       <c r="K906" s="4"/>
-      <c r="L906" s="32"/>
+      <c r="L906" s="34"/>
       <c r="M906" s="4"/>
       <c r="N906" s="4"/>
       <c r="O906" s="4"/>
@@ -26785,7 +26830,7 @@
       <c r="I907" s="4"/>
       <c r="J907" s="4"/>
       <c r="K907" s="4"/>
-      <c r="L907" s="32"/>
+      <c r="L907" s="34"/>
       <c r="M907" s="4"/>
       <c r="N907" s="4"/>
       <c r="O907" s="4"/>
@@ -26813,7 +26858,7 @@
       <c r="I908" s="4"/>
       <c r="J908" s="4"/>
       <c r="K908" s="4"/>
-      <c r="L908" s="32"/>
+      <c r="L908" s="34"/>
       <c r="M908" s="4"/>
       <c r="N908" s="4"/>
       <c r="O908" s="4"/>
@@ -26841,7 +26886,7 @@
       <c r="I909" s="4"/>
       <c r="J909" s="4"/>
       <c r="K909" s="4"/>
-      <c r="L909" s="32"/>
+      <c r="L909" s="34"/>
       <c r="M909" s="4"/>
       <c r="N909" s="4"/>
       <c r="O909" s="4"/>
@@ -26869,7 +26914,7 @@
       <c r="I910" s="4"/>
       <c r="J910" s="4"/>
       <c r="K910" s="4"/>
-      <c r="L910" s="32"/>
+      <c r="L910" s="34"/>
       <c r="M910" s="4"/>
       <c r="N910" s="4"/>
       <c r="O910" s="4"/>
@@ -26897,7 +26942,7 @@
       <c r="I911" s="4"/>
       <c r="J911" s="4"/>
       <c r="K911" s="4"/>
-      <c r="L911" s="32"/>
+      <c r="L911" s="34"/>
       <c r="M911" s="4"/>
       <c r="N911" s="4"/>
       <c r="O911" s="4"/>
@@ -26925,7 +26970,7 @@
       <c r="I912" s="4"/>
       <c r="J912" s="4"/>
       <c r="K912" s="4"/>
-      <c r="L912" s="32"/>
+      <c r="L912" s="34"/>
       <c r="M912" s="4"/>
       <c r="N912" s="4"/>
       <c r="O912" s="4"/>
@@ -26953,7 +26998,7 @@
       <c r="I913" s="4"/>
       <c r="J913" s="4"/>
       <c r="K913" s="4"/>
-      <c r="L913" s="32"/>
+      <c r="L913" s="34"/>
       <c r="M913" s="4"/>
       <c r="N913" s="4"/>
       <c r="O913" s="4"/>
@@ -26981,7 +27026,7 @@
       <c r="I914" s="4"/>
       <c r="J914" s="4"/>
       <c r="K914" s="4"/>
-      <c r="L914" s="32"/>
+      <c r="L914" s="34"/>
       <c r="M914" s="4"/>
       <c r="N914" s="4"/>
       <c r="O914" s="4"/>
@@ -27009,7 +27054,7 @@
       <c r="I915" s="4"/>
       <c r="J915" s="4"/>
       <c r="K915" s="4"/>
-      <c r="L915" s="32"/>
+      <c r="L915" s="34"/>
       <c r="M915" s="4"/>
       <c r="N915" s="4"/>
       <c r="O915" s="4"/>
@@ -27037,7 +27082,7 @@
       <c r="I916" s="4"/>
       <c r="J916" s="4"/>
       <c r="K916" s="4"/>
-      <c r="L916" s="32"/>
+      <c r="L916" s="34"/>
       <c r="M916" s="4"/>
       <c r="N916" s="4"/>
       <c r="O916" s="4"/>
@@ -27065,7 +27110,7 @@
       <c r="I917" s="4"/>
       <c r="J917" s="4"/>
       <c r="K917" s="4"/>
-      <c r="L917" s="32"/>
+      <c r="L917" s="34"/>
       <c r="M917" s="4"/>
       <c r="N917" s="4"/>
       <c r="O917" s="4"/>
@@ -27093,7 +27138,7 @@
       <c r="I918" s="4"/>
       <c r="J918" s="4"/>
       <c r="K918" s="4"/>
-      <c r="L918" s="32"/>
+      <c r="L918" s="34"/>
       <c r="M918" s="4"/>
       <c r="N918" s="4"/>
       <c r="O918" s="4"/>
@@ -27121,7 +27166,7 @@
       <c r="I919" s="4"/>
       <c r="J919" s="4"/>
       <c r="K919" s="4"/>
-      <c r="L919" s="32"/>
+      <c r="L919" s="34"/>
       <c r="M919" s="4"/>
       <c r="N919" s="4"/>
       <c r="O919" s="4"/>
@@ -27149,7 +27194,7 @@
       <c r="I920" s="4"/>
       <c r="J920" s="4"/>
       <c r="K920" s="4"/>
-      <c r="L920" s="32"/>
+      <c r="L920" s="34"/>
       <c r="M920" s="4"/>
       <c r="N920" s="4"/>
       <c r="O920" s="4"/>
@@ -27177,7 +27222,7 @@
       <c r="I921" s="4"/>
       <c r="J921" s="4"/>
       <c r="K921" s="4"/>
-      <c r="L921" s="32"/>
+      <c r="L921" s="34"/>
       <c r="M921" s="4"/>
       <c r="N921" s="4"/>
       <c r="O921" s="4"/>
@@ -27205,7 +27250,7 @@
       <c r="I922" s="4"/>
       <c r="J922" s="4"/>
       <c r="K922" s="4"/>
-      <c r="L922" s="32"/>
+      <c r="L922" s="34"/>
       <c r="M922" s="4"/>
       <c r="N922" s="4"/>
       <c r="O922" s="4"/>
@@ -27233,7 +27278,7 @@
       <c r="I923" s="4"/>
       <c r="J923" s="4"/>
       <c r="K923" s="4"/>
-      <c r="L923" s="32"/>
+      <c r="L923" s="34"/>
       <c r="M923" s="4"/>
       <c r="N923" s="4"/>
       <c r="O923" s="4"/>
@@ -27261,7 +27306,7 @@
       <c r="I924" s="4"/>
       <c r="J924" s="4"/>
       <c r="K924" s="4"/>
-      <c r="L924" s="32"/>
+      <c r="L924" s="34"/>
       <c r="M924" s="4"/>
       <c r="N924" s="4"/>
       <c r="O924" s="4"/>
@@ -27289,7 +27334,7 @@
       <c r="I925" s="4"/>
       <c r="J925" s="4"/>
       <c r="K925" s="4"/>
-      <c r="L925" s="32"/>
+      <c r="L925" s="34"/>
       <c r="M925" s="4"/>
       <c r="N925" s="4"/>
       <c r="O925" s="4"/>
@@ -27317,7 +27362,7 @@
       <c r="I926" s="4"/>
       <c r="J926" s="4"/>
       <c r="K926" s="4"/>
-      <c r="L926" s="32"/>
+      <c r="L926" s="34"/>
       <c r="M926" s="4"/>
       <c r="N926" s="4"/>
       <c r="O926" s="4"/>
@@ -27345,7 +27390,7 @@
       <c r="I927" s="4"/>
       <c r="J927" s="4"/>
       <c r="K927" s="4"/>
-      <c r="L927" s="32"/>
+      <c r="L927" s="34"/>
       <c r="M927" s="4"/>
       <c r="N927" s="4"/>
       <c r="O927" s="4"/>
@@ -27373,7 +27418,7 @@
       <c r="I928" s="4"/>
       <c r="J928" s="4"/>
       <c r="K928" s="4"/>
-      <c r="L928" s="32"/>
+      <c r="L928" s="34"/>
       <c r="M928" s="4"/>
       <c r="N928" s="4"/>
       <c r="O928" s="4"/>
@@ -27401,7 +27446,7 @@
       <c r="I929" s="4"/>
       <c r="J929" s="4"/>
       <c r="K929" s="4"/>
-      <c r="L929" s="32"/>
+      <c r="L929" s="34"/>
       <c r="M929" s="4"/>
       <c r="N929" s="4"/>
       <c r="O929" s="4"/>
@@ -27429,7 +27474,7 @@
       <c r="I930" s="4"/>
       <c r="J930" s="4"/>
       <c r="K930" s="4"/>
-      <c r="L930" s="32"/>
+      <c r="L930" s="34"/>
       <c r="M930" s="4"/>
       <c r="N930" s="4"/>
       <c r="O930" s="4"/>
@@ -27457,7 +27502,7 @@
       <c r="I931" s="4"/>
       <c r="J931" s="4"/>
       <c r="K931" s="4"/>
-      <c r="L931" s="32"/>
+      <c r="L931" s="34"/>
       <c r="M931" s="4"/>
       <c r="N931" s="4"/>
       <c r="O931" s="4"/>
@@ -27485,7 +27530,7 @@
       <c r="I932" s="4"/>
       <c r="J932" s="4"/>
       <c r="K932" s="4"/>
-      <c r="L932" s="32"/>
+      <c r="L932" s="34"/>
       <c r="M932" s="4"/>
       <c r="N932" s="4"/>
       <c r="O932" s="4"/>
@@ -27513,7 +27558,7 @@
       <c r="I933" s="4"/>
       <c r="J933" s="4"/>
       <c r="K933" s="4"/>
-      <c r="L933" s="32"/>
+      <c r="L933" s="34"/>
       <c r="M933" s="4"/>
       <c r="N933" s="4"/>
       <c r="O933" s="4"/>
@@ -27541,7 +27586,7 @@
       <c r="I934" s="4"/>
       <c r="J934" s="4"/>
       <c r="K934" s="4"/>
-      <c r="L934" s="32"/>
+      <c r="L934" s="34"/>
       <c r="M934" s="4"/>
       <c r="N934" s="4"/>
       <c r="O934" s="4"/>
@@ -27569,7 +27614,7 @@
       <c r="I935" s="4"/>
       <c r="J935" s="4"/>
       <c r="K935" s="4"/>
-      <c r="L935" s="32"/>
+      <c r="L935" s="34"/>
       <c r="M935" s="4"/>
       <c r="N935" s="4"/>
       <c r="O935" s="4"/>
@@ -27597,7 +27642,7 @@
       <c r="I936" s="4"/>
       <c r="J936" s="4"/>
       <c r="K936" s="4"/>
-      <c r="L936" s="32"/>
+      <c r="L936" s="34"/>
       <c r="M936" s="4"/>
       <c r="N936" s="4"/>
       <c r="O936" s="4"/>
@@ -27625,7 +27670,7 @@
       <c r="I937" s="4"/>
       <c r="J937" s="4"/>
       <c r="K937" s="4"/>
-      <c r="L937" s="32"/>
+      <c r="L937" s="34"/>
       <c r="M937" s="4"/>
       <c r="N937" s="4"/>
       <c r="O937" s="4"/>
@@ -27653,7 +27698,7 @@
       <c r="I938" s="4"/>
       <c r="J938" s="4"/>
       <c r="K938" s="4"/>
-      <c r="L938" s="32"/>
+      <c r="L938" s="34"/>
       <c r="M938" s="4"/>
       <c r="N938" s="4"/>
       <c r="O938" s="4"/>
@@ -27681,7 +27726,7 @@
       <c r="I939" s="4"/>
       <c r="J939" s="4"/>
       <c r="K939" s="4"/>
-      <c r="L939" s="32"/>
+      <c r="L939" s="34"/>
       <c r="M939" s="4"/>
       <c r="N939" s="4"/>
       <c r="O939" s="4"/>
@@ -27709,7 +27754,7 @@
       <c r="I940" s="4"/>
       <c r="J940" s="4"/>
       <c r="K940" s="4"/>
-      <c r="L940" s="32"/>
+      <c r="L940" s="34"/>
       <c r="M940" s="4"/>
       <c r="N940" s="4"/>
       <c r="O940" s="4"/>
@@ -27737,7 +27782,7 @@
       <c r="I941" s="4"/>
       <c r="J941" s="4"/>
       <c r="K941" s="4"/>
-      <c r="L941" s="32"/>
+      <c r="L941" s="34"/>
       <c r="M941" s="4"/>
       <c r="N941" s="4"/>
       <c r="O941" s="4"/>
@@ -27765,7 +27810,7 @@
       <c r="I942" s="4"/>
       <c r="J942" s="4"/>
       <c r="K942" s="4"/>
-      <c r="L942" s="32"/>
+      <c r="L942" s="34"/>
       <c r="M942" s="4"/>
       <c r="N942" s="4"/>
       <c r="O942" s="4"/>
@@ -27793,7 +27838,7 @@
       <c r="I943" s="4"/>
       <c r="J943" s="4"/>
       <c r="K943" s="4"/>
-      <c r="L943" s="32"/>
+      <c r="L943" s="34"/>
       <c r="M943" s="4"/>
       <c r="N943" s="4"/>
       <c r="O943" s="4"/>
@@ -27821,7 +27866,7 @@
       <c r="I944" s="4"/>
       <c r="J944" s="4"/>
       <c r="K944" s="4"/>
-      <c r="L944" s="32"/>
+      <c r="L944" s="34"/>
       <c r="M944" s="4"/>
       <c r="N944" s="4"/>
       <c r="O944" s="4"/>
@@ -27849,7 +27894,7 @@
       <c r="I945" s="4"/>
       <c r="J945" s="4"/>
       <c r="K945" s="4"/>
-      <c r="L945" s="32"/>
+      <c r="L945" s="34"/>
       <c r="M945" s="4"/>
       <c r="N945" s="4"/>
       <c r="O945" s="4"/>
@@ -27877,7 +27922,7 @@
       <c r="I946" s="4"/>
       <c r="J946" s="4"/>
       <c r="K946" s="4"/>
-      <c r="L946" s="32"/>
+      <c r="L946" s="34"/>
       <c r="M946" s="4"/>
       <c r="N946" s="4"/>
       <c r="O946" s="4"/>
@@ -27905,7 +27950,7 @@
       <c r="I947" s="4"/>
       <c r="J947" s="4"/>
       <c r="K947" s="4"/>
-      <c r="L947" s="32"/>
+      <c r="L947" s="34"/>
       <c r="M947" s="4"/>
       <c r="N947" s="4"/>
       <c r="O947" s="4"/>
@@ -27933,7 +27978,7 @@
       <c r="I948" s="4"/>
       <c r="J948" s="4"/>
       <c r="K948" s="4"/>
-      <c r="L948" s="32"/>
+      <c r="L948" s="34"/>
       <c r="M948" s="4"/>
       <c r="N948" s="4"/>
       <c r="O948" s="4"/>
@@ -27961,7 +28006,7 @@
       <c r="I949" s="4"/>
       <c r="J949" s="4"/>
       <c r="K949" s="4"/>
-      <c r="L949" s="32"/>
+      <c r="L949" s="34"/>
       <c r="M949" s="4"/>
       <c r="N949" s="4"/>
       <c r="O949" s="4"/>
@@ -27989,7 +28034,7 @@
       <c r="I950" s="4"/>
       <c r="J950" s="4"/>
       <c r="K950" s="4"/>
-      <c r="L950" s="32"/>
+      <c r="L950" s="34"/>
       <c r="M950" s="4"/>
       <c r="N950" s="4"/>
       <c r="O950" s="4"/>
@@ -28017,7 +28062,7 @@
       <c r="I951" s="4"/>
       <c r="J951" s="4"/>
       <c r="K951" s="4"/>
-      <c r="L951" s="32"/>
+      <c r="L951" s="34"/>
       <c r="M951" s="4"/>
       <c r="N951" s="4"/>
       <c r="O951" s="4"/>
@@ -28045,7 +28090,7 @@
       <c r="I952" s="4"/>
       <c r="J952" s="4"/>
       <c r="K952" s="4"/>
-      <c r="L952" s="32"/>
+      <c r="L952" s="34"/>
       <c r="M952" s="4"/>
       <c r="N952" s="4"/>
       <c r="O952" s="4"/>
@@ -28073,7 +28118,7 @@
       <c r="I953" s="4"/>
       <c r="J953" s="4"/>
       <c r="K953" s="4"/>
-      <c r="L953" s="32"/>
+      <c r="L953" s="34"/>
       <c r="M953" s="4"/>
       <c r="N953" s="4"/>
       <c r="O953" s="4"/>
@@ -28101,7 +28146,7 @@
       <c r="I954" s="4"/>
       <c r="J954" s="4"/>
       <c r="K954" s="4"/>
-      <c r="L954" s="32"/>
+      <c r="L954" s="34"/>
       <c r="M954" s="4"/>
       <c r="N954" s="4"/>
       <c r="O954" s="4"/>
@@ -28129,7 +28174,7 @@
       <c r="I955" s="4"/>
       <c r="J955" s="4"/>
       <c r="K955" s="4"/>
-      <c r="L955" s="32"/>
+      <c r="L955" s="34"/>
       <c r="M955" s="4"/>
       <c r="N955" s="4"/>
       <c r="O955" s="4"/>
@@ -28157,7 +28202,7 @@
       <c r="I956" s="4"/>
       <c r="J956" s="4"/>
       <c r="K956" s="4"/>
-      <c r="L956" s="32"/>
+      <c r="L956" s="34"/>
       <c r="M956" s="4"/>
       <c r="N956" s="4"/>
       <c r="O956" s="4"/>
@@ -28185,7 +28230,7 @@
       <c r="I957" s="4"/>
       <c r="J957" s="4"/>
       <c r="K957" s="4"/>
-      <c r="L957" s="32"/>
+      <c r="L957" s="34"/>
       <c r="M957" s="4"/>
       <c r="N957" s="4"/>
       <c r="O957" s="4"/>
@@ -28213,7 +28258,7 @@
       <c r="I958" s="4"/>
       <c r="J958" s="4"/>
       <c r="K958" s="4"/>
-      <c r="L958" s="32"/>
+      <c r="L958" s="34"/>
       <c r="M958" s="4"/>
       <c r="N958" s="4"/>
       <c r="O958" s="4"/>
@@ -28241,7 +28286,7 @@
       <c r="I959" s="4"/>
       <c r="J959" s="4"/>
       <c r="K959" s="4"/>
-      <c r="L959" s="32"/>
+      <c r="L959" s="34"/>
       <c r="M959" s="4"/>
       <c r="N959" s="4"/>
       <c r="O959" s="4"/>
@@ -28269,7 +28314,7 @@
       <c r="I960" s="4"/>
       <c r="J960" s="4"/>
       <c r="K960" s="4"/>
-      <c r="L960" s="32"/>
+      <c r="L960" s="34"/>
       <c r="M960" s="4"/>
       <c r="N960" s="4"/>
       <c r="O960" s="4"/>
@@ -28297,7 +28342,7 @@
       <c r="I961" s="4"/>
       <c r="J961" s="4"/>
       <c r="K961" s="4"/>
-      <c r="L961" s="32"/>
+      <c r="L961" s="34"/>
       <c r="M961" s="4"/>
       <c r="N961" s="4"/>
       <c r="O961" s="4"/>
@@ -28313,6 +28358,62 @@
       <c r="Y961" s="4"/>
       <c r="Z961" s="4"/>
     </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="A962" s="4"/>
+      <c r="B962" s="4"/>
+      <c r="C962" s="4"/>
+      <c r="D962" s="2"/>
+      <c r="E962" s="2"/>
+      <c r="F962" s="2"/>
+      <c r="G962" s="4"/>
+      <c r="H962" s="4"/>
+      <c r="I962" s="4"/>
+      <c r="J962" s="4"/>
+      <c r="K962" s="4"/>
+      <c r="L962" s="34"/>
+      <c r="M962" s="4"/>
+      <c r="N962" s="4"/>
+      <c r="O962" s="4"/>
+      <c r="P962" s="4"/>
+      <c r="Q962" s="4"/>
+      <c r="R962" s="4"/>
+      <c r="S962" s="4"/>
+      <c r="T962" s="4"/>
+      <c r="U962" s="4"/>
+      <c r="V962" s="4"/>
+      <c r="W962" s="4"/>
+      <c r="X962" s="4"/>
+      <c r="Y962" s="4"/>
+      <c r="Z962" s="4"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="A963" s="4"/>
+      <c r="B963" s="4"/>
+      <c r="C963" s="4"/>
+      <c r="D963" s="2"/>
+      <c r="E963" s="2"/>
+      <c r="F963" s="2"/>
+      <c r="G963" s="4"/>
+      <c r="H963" s="4"/>
+      <c r="I963" s="4"/>
+      <c r="J963" s="4"/>
+      <c r="K963" s="4"/>
+      <c r="L963" s="34"/>
+      <c r="M963" s="4"/>
+      <c r="N963" s="4"/>
+      <c r="O963" s="4"/>
+      <c r="P963" s="4"/>
+      <c r="Q963" s="4"/>
+      <c r="R963" s="4"/>
+      <c r="S963" s="4"/>
+      <c r="T963" s="4"/>
+      <c r="U963" s="4"/>
+      <c r="V963" s="4"/>
+      <c r="W963" s="4"/>
+      <c r="X963" s="4"/>
+      <c r="Y963" s="4"/>
+      <c r="Z963" s="4"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="L16"/>

--- a/cdes/RADx-rad_Results_Data_Element_Template_v000.xlsx
+++ b/cdes/RADx-rad_Results_Data_Element_Template_v000.xlsx
@@ -1663,8 +1663,8 @@
       <c r="B20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>78</v>
@@ -1741,8 +1741,8 @@
       <c r="B22" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>83</v>
